--- a/Data Penyidik dan Penuntutan.xlsx
+++ b/Data Penyidik dan Penuntutan.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\kejati\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1410" uniqueCount="773">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1410" uniqueCount="772">
   <si>
     <t>No</t>
   </si>
@@ -16161,36 +16161,6 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>Mempelajari,  menginventarisir,  profiling  baik nama  atau  identitas  pihak  yang  akan  di  PA maupun lokasi/ instansi yang akan dilakukan PA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>Melakukan   koordinasi   dengan   pihak-pihak terkait  yang berkaitan  dengan  informasi  dan data   keberadaan,   jenis   dan   jumlah   aset barang/    harta    benda    beserta    dokumen- dokumen kepemilikan</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>Surat    Perintah    Tugas Pelacakan   Aset   Tahap Penyelidikan</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
         <rFont val="Symbol"/>
         <family val="5"/>
       </rPr>
@@ -16296,16 +16266,6 @@
         <rFont val="Arial MT"/>
         <family val="2"/>
       </rPr>
-      <t>Informasi      dan      data tentang  indentitas  para pihak</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
       <t xml:space="preserve">Informasi dan Data berupa :
 </t>
     </r>
@@ -16373,52 +16333,12 @@
     <t>Informasi dan data tetang indentitas para pihak</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>Koordinasi     dalam     hal untuk  mengetahui  pihak- pihak   yang   terkait   guna menentukan  penyesuaian jadwal</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>Melakukan pelacakan aset terhadap barang/ harta  benda  berupa  jenis/  tahun  perolehan, jumlah,  bukti/  dokumen  kepemilikan,  Harta kekayaan dikuasai/ disimpan oleh siapa serta lokasi    tempat    keberadaan    harta    benda tersebut.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>Melakukan  pengolahan  data  dan  informasi atas harta benda/ aset yang didapatkan baik berupa  foto  harta  benda  aset,  keberadaan aset   serta   jumlah   dan   kondisi   aset   serta Menginventarisir/  memilah/ mendata barang/ harta benda tersebut</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">Menyusun Nota Dinas Laporan Hasil Pelaksanaan Tugas Pelacakan Aset Tahap Penyelidikan </t>
   </si>
   <si>
     <r>
       <rPr>
         <sz val="10"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>Menyerahkan    Hasil    Pelaksanaan    Tugas Pelacakan  Aset  tahap  Penyelidikan  dalam bentuk    Nota    Dinas    kepada    Pengendali secara berjenjang.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
         <rFont val="Symbol"/>
         <family val="5"/>
       </rPr>
@@ -16467,16 +16387,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>Nota     Dinas     Laporan     Hasil Pelaksanaan  Tugas  Pelacakan Aset diterima Pengendali</t>
-    </r>
-  </si>
-  <si>
     <t>Sebagai input SOP Pengendalina secara berjenjang</t>
   </si>
   <si>
@@ -16566,26 +16476,6 @@
   </si>
   <si>
     <t>Informasi    dan  Data tentang    harta    benda/ aset</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>Harta/ Aset kekayaan</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>Bahan    keterangan    dan Data tentang harta benda/ aset       baik       bergerak maupun    tidak    bergerak baik  jenis,  jumlah,  bukti/ dokumen kepemilikan,dan tahun    perolehan.    Harta kekayaan            dikuasai/ disimpan oleh siapa serta lokasi tempat keberadaan harta benda tersebut.</t>
-    </r>
   </si>
   <si>
     <t>40 Jam</t>
@@ -20257,13 +20147,43 @@
       </rPr>
       <t>Nota Pendapat  SPDP yang tidak diikuti Tahap I dan Nota Dinas Pengantar terkirim</t>
     </r>
+  </si>
+  <si>
+    <t>Surat    Perintah    Tugas Pelacakan   Aset   Tahap Penyelidikan</t>
+  </si>
+  <si>
+    <t>Koordinasi     dalam     hal untuk  mengetahui  pihak- pihak   yang   terkait   guna menentukan  penyesuaian jadwal</t>
+  </si>
+  <si>
+    <t>Mempelajari,  menginventarisir,  profiling  baik nama  atau  identitas  pihak  yang  akan  di  PA maupun lokasi/ instansi yang akan dilakukan PA</t>
+  </si>
+  <si>
+    <t>Melakukan   koordinasi   dengan   pihak-pihak terkait  yang berkaitan  dengan  informasi  dan data   keberadaan,   jenis   dan   jumlah   aset barang/    harta    benda    beserta    dokumen- dokumen kepemilikan</t>
+  </si>
+  <si>
+    <t>Informasi      dan      data tentang  indentitas  para pihak</t>
+  </si>
+  <si>
+    <t>Melakukan pelacakan aset terhadap barang/ harta  benda  berupa  jenis/  tahun  perolehan, jumlah,  bukti/  dokumen  kepemilikan,  Harta kekayaan dikuasai/ disimpan oleh siapa serta lokasi    tempat    keberadaan    harta    benda tersebut.</t>
+  </si>
+  <si>
+    <t>Bahan    keterangan    dan Data tentang harta benda/ aset       baik       bergerak maupun    tidak    bergerak baik  jenis,  jumlah,  bukti/ dokumen kepemilikan,dan tahun    perolehan.    Harta kekayaan            dikuasai/ disimpan oleh siapa serta lokasi tempat keberadaan harta benda tersebut.</t>
+  </si>
+  <si>
+    <t>Melakukan  pengolahan  data  dan  informasi atas harta benda/ aset yang didapatkan baik berupa  foto  harta  benda  aset,  keberadaan aset   serta   jumlah   dan   kondisi   aset   serta Menginventarisir/  memilah/ mendata barang/ harta benda tersebut</t>
+  </si>
+  <si>
+    <t>Menyerahkan    Hasil    Pelaksanaan    Tugas Pelacakan  Aset  tahap  Penyelidikan  dalam bentuk    Nota    Dinas    kepada    Pengendali secara berjenjang.</t>
+  </si>
+  <si>
+    <t>Nota     Dinas     Laporan     Hasil Pelaksanaan  Tugas  Pelacakan Aset diterima Pengendali</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="46">
+  <fonts count="47">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -20566,8 +20486,15 @@
       <name val="Arial Narrow"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -20614,6 +20541,11 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -21129,10 +21061,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="46" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="364">
+  <cellXfs count="370">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -21501,12 +21434,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -21533,435 +21460,6 @@
     </xf>
     <xf numFmtId="0" fontId="44" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -21970,12 +21468,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -21985,27 +21477,12 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -22015,21 +21492,9 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
@@ -22039,18 +21504,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -22060,22 +21513,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -22091,122 +21529,634 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="9" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="9" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="9" borderId="31" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="9" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="9" borderId="32" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="9" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="9" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="9" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="26">
@@ -22748,8 +22698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I248"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A121" zoomScale="50" zoomScaleNormal="100" zoomScaleSheetLayoutView="50" workbookViewId="0">
-      <selection activeCell="F124" sqref="F124:G124"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A59" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -22763,67 +22713,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="29.25" customHeight="1">
-      <c r="A1" s="185" t="s">
+      <c r="A1" s="259" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="185"/>
-      <c r="C1" s="185"/>
-      <c r="D1" s="185"/>
-      <c r="E1" s="185"/>
-      <c r="F1" s="185"/>
-      <c r="G1" s="185"/>
-      <c r="H1" s="185"/>
+      <c r="B1" s="259"/>
+      <c r="C1" s="259"/>
+      <c r="D1" s="259"/>
+      <c r="E1" s="259"/>
+      <c r="F1" s="259"/>
+      <c r="G1" s="259"/>
+      <c r="H1" s="259"/>
     </row>
     <row r="2" spans="1:8" ht="21" customHeight="1">
-      <c r="A2" s="185" t="s">
+      <c r="A2" s="259" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="185"/>
-      <c r="C2" s="185"/>
-      <c r="D2" s="185"/>
-      <c r="E2" s="185"/>
-      <c r="F2" s="185"/>
-      <c r="G2" s="185"/>
-      <c r="H2" s="185"/>
+      <c r="B2" s="259"/>
+      <c r="C2" s="259"/>
+      <c r="D2" s="259"/>
+      <c r="E2" s="259"/>
+      <c r="F2" s="259"/>
+      <c r="G2" s="259"/>
+      <c r="H2" s="259"/>
     </row>
     <row r="3" spans="1:8" ht="24.75" customHeight="1">
-      <c r="A3" s="185" t="s">
+      <c r="A3" s="259" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="185"/>
-      <c r="C3" s="185"/>
-      <c r="D3" s="185"/>
-      <c r="E3" s="185"/>
-      <c r="F3" s="185"/>
-      <c r="G3" s="185"/>
-      <c r="H3" s="185"/>
+      <c r="B3" s="259"/>
+      <c r="C3" s="259"/>
+      <c r="D3" s="259"/>
+      <c r="E3" s="259"/>
+      <c r="F3" s="259"/>
+      <c r="G3" s="259"/>
+      <c r="H3" s="259"/>
     </row>
     <row r="5" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A5" s="138" t="s">
+      <c r="A5" s="136" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="138" t="s">
+      <c r="B5" s="136" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="204" t="s">
+      <c r="C5" s="276" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="205"/>
-      <c r="E5" s="186" t="s">
+      <c r="D5" s="277"/>
+      <c r="E5" s="260" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="186"/>
-      <c r="G5" s="186" t="s">
+      <c r="F5" s="260"/>
+      <c r="G5" s="260" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="186"/>
+      <c r="H5" s="260"/>
     </row>
     <row r="6" spans="1:8" ht="18">
-      <c r="A6" s="187" t="s">
+      <c r="A6" s="261" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="188"/>
-      <c r="C6" s="189"/>
+      <c r="B6" s="262"/>
+      <c r="C6" s="263"/>
       <c r="D6" s="10"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -22831,11 +22781,11 @@
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" ht="36" customHeight="1">
-      <c r="A7" s="190" t="s">
+      <c r="A7" s="264" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="191"/>
-      <c r="C7" s="192"/>
+      <c r="B7" s="265"/>
+      <c r="C7" s="266"/>
       <c r="D7" s="58"/>
       <c r="E7" s="11"/>
       <c r="F7" s="11"/>
@@ -22849,10 +22799,10 @@
       <c r="B8" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="206" t="s">
+      <c r="C8" s="278" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="207"/>
+      <c r="D8" s="279"/>
       <c r="E8" s="71">
         <f>(24*3)+2</f>
         <v>74</v>
@@ -22871,20 +22821,20 @@
       <c r="A9" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="196" t="s">
+      <c r="B9" s="270" t="s">
         <v>85</v>
       </c>
-      <c r="C9" s="197"/>
+      <c r="C9" s="271"/>
       <c r="D9" s="52" t="s">
         <v>86</v>
       </c>
       <c r="E9" s="52" t="s">
         <v>87</v>
       </c>
-      <c r="F9" s="196" t="s">
+      <c r="F9" s="270" t="s">
         <v>88</v>
       </c>
-      <c r="G9" s="197"/>
+      <c r="G9" s="271"/>
       <c r="H9" s="52" t="s">
         <v>89</v>
       </c>
@@ -22893,60 +22843,60 @@
       <c r="A10" s="53">
         <v>1</v>
       </c>
-      <c r="B10" s="198" t="s">
+      <c r="B10" s="241" t="s">
         <v>90</v>
       </c>
-      <c r="C10" s="199"/>
+      <c r="C10" s="242"/>
       <c r="D10" s="54" t="s">
         <v>170</v>
       </c>
       <c r="E10" s="53" t="s">
         <v>91</v>
       </c>
-      <c r="F10" s="198" t="s">
+      <c r="F10" s="241" t="s">
         <v>92</v>
       </c>
-      <c r="G10" s="199"/>
+      <c r="G10" s="242"/>
       <c r="H10" s="53"/>
     </row>
     <row r="11" spans="1:8" ht="76.5" customHeight="1">
       <c r="A11" s="53">
         <v>2</v>
       </c>
-      <c r="B11" s="198" t="s">
+      <c r="B11" s="241" t="s">
         <v>93</v>
       </c>
-      <c r="C11" s="199"/>
+      <c r="C11" s="242"/>
       <c r="D11" s="54" t="s">
         <v>171</v>
       </c>
       <c r="E11" s="53" t="s">
         <v>94</v>
       </c>
-      <c r="F11" s="198" t="s">
-        <v>641</v>
-      </c>
-      <c r="G11" s="199"/>
+      <c r="F11" s="241" t="s">
+        <v>630</v>
+      </c>
+      <c r="G11" s="242"/>
       <c r="H11" s="53"/>
     </row>
     <row r="12" spans="1:8" ht="259.5" customHeight="1">
       <c r="A12" s="53">
         <v>3</v>
       </c>
-      <c r="B12" s="208" t="s">
+      <c r="B12" s="243" t="s">
         <v>165</v>
       </c>
-      <c r="C12" s="209"/>
+      <c r="C12" s="244"/>
       <c r="D12" s="55" t="s">
         <v>166</v>
       </c>
       <c r="E12" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="F12" s="218" t="s">
+      <c r="F12" s="246" t="s">
         <v>96</v>
       </c>
-      <c r="G12" s="219"/>
+      <c r="G12" s="247"/>
       <c r="H12" s="55" t="s">
         <v>167</v>
       </c>
@@ -22955,20 +22905,20 @@
       <c r="A13" s="56">
         <v>4</v>
       </c>
-      <c r="B13" s="218" t="s">
+      <c r="B13" s="246" t="s">
         <v>97</v>
       </c>
-      <c r="C13" s="219"/>
+      <c r="C13" s="247"/>
       <c r="D13" s="55" t="s">
         <v>168</v>
       </c>
       <c r="E13" s="53" t="s">
         <v>91</v>
       </c>
-      <c r="F13" s="218" t="s">
+      <c r="F13" s="246" t="s">
         <v>98</v>
       </c>
-      <c r="G13" s="219"/>
+      <c r="G13" s="247"/>
       <c r="H13" s="57" t="s">
         <v>169</v>
       </c>
@@ -23001,20 +22951,20 @@
       <c r="A15" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="210" t="s">
+      <c r="B15" s="223" t="s">
         <v>85</v>
       </c>
-      <c r="C15" s="211"/>
+      <c r="C15" s="224"/>
       <c r="D15" s="21" t="s">
         <v>86</v>
       </c>
       <c r="E15" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="F15" s="212" t="s">
+      <c r="F15" s="239" t="s">
         <v>88</v>
       </c>
-      <c r="G15" s="213"/>
+      <c r="G15" s="240"/>
       <c r="H15" s="21" t="s">
         <v>89</v>
       </c>
@@ -23023,40 +22973,40 @@
       <c r="A16" s="3">
         <v>1</v>
       </c>
-      <c r="B16" s="214" t="s">
+      <c r="B16" s="228" t="s">
         <v>181</v>
       </c>
-      <c r="C16" s="215"/>
+      <c r="C16" s="229"/>
       <c r="D16" s="68" t="s">
         <v>193</v>
       </c>
       <c r="E16" s="62" t="s">
         <v>130</v>
       </c>
-      <c r="F16" s="216" t="s">
+      <c r="F16" s="245" t="s">
         <v>182</v>
       </c>
-      <c r="G16" s="217"/>
+      <c r="G16" s="231"/>
       <c r="H16" s="63"/>
     </row>
     <row r="17" spans="1:8" ht="184.5" customHeight="1">
       <c r="A17" s="3">
         <v>2</v>
       </c>
-      <c r="B17" s="214" t="s">
+      <c r="B17" s="228" t="s">
         <v>183</v>
       </c>
-      <c r="C17" s="215"/>
+      <c r="C17" s="229"/>
       <c r="D17" s="64" t="s">
         <v>184</v>
       </c>
       <c r="E17" s="65" t="s">
         <v>185</v>
       </c>
-      <c r="F17" s="220" t="s">
+      <c r="F17" s="234" t="s">
         <v>186</v>
       </c>
-      <c r="G17" s="221"/>
+      <c r="G17" s="235"/>
       <c r="H17" s="66" t="s">
         <v>99</v>
       </c>
@@ -23065,20 +23015,20 @@
       <c r="A18" s="3">
         <v>3</v>
       </c>
-      <c r="B18" s="214" t="s">
+      <c r="B18" s="228" t="s">
         <v>187</v>
       </c>
-      <c r="C18" s="215"/>
+      <c r="C18" s="229"/>
       <c r="D18" s="67" t="s">
         <v>188</v>
       </c>
       <c r="E18" s="65" t="s">
         <v>189</v>
       </c>
-      <c r="F18" s="222" t="s">
+      <c r="F18" s="236" t="s">
         <v>102</v>
       </c>
-      <c r="G18" s="221"/>
+      <c r="G18" s="235"/>
       <c r="H18" s="41" t="s">
         <v>190</v>
       </c>
@@ -23087,20 +23037,20 @@
       <c r="A19" s="3">
         <v>4</v>
       </c>
-      <c r="B19" s="223" t="s">
+      <c r="B19" s="237" t="s">
         <v>191</v>
       </c>
-      <c r="C19" s="224"/>
+      <c r="C19" s="238"/>
       <c r="D19" s="64" t="s">
         <v>192</v>
       </c>
       <c r="E19" s="63" t="s">
         <v>91</v>
       </c>
-      <c r="F19" s="222" t="s">
+      <c r="F19" s="236" t="s">
         <v>103</v>
       </c>
-      <c r="G19" s="221"/>
+      <c r="G19" s="235"/>
       <c r="H19" s="69" t="s">
         <v>104</v>
       </c>
@@ -23133,20 +23083,20 @@
       <c r="A21" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="210" t="s">
+      <c r="B21" s="223" t="s">
         <v>85</v>
       </c>
-      <c r="C21" s="211"/>
+      <c r="C21" s="224"/>
       <c r="D21" s="21" t="s">
         <v>86</v>
       </c>
       <c r="E21" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="F21" s="212" t="s">
+      <c r="F21" s="239" t="s">
         <v>88</v>
       </c>
-      <c r="G21" s="213"/>
+      <c r="G21" s="240"/>
       <c r="H21" s="21" t="s">
         <v>89</v>
       </c>
@@ -23155,60 +23105,60 @@
       <c r="A22" s="3">
         <v>1</v>
       </c>
-      <c r="B22" s="162" t="s">
+      <c r="B22" s="173" t="s">
         <v>105</v>
       </c>
-      <c r="C22" s="163"/>
+      <c r="C22" s="174"/>
       <c r="D22" s="15" t="s">
         <v>106</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="F22" s="225" t="s">
+      <c r="F22" s="206" t="s">
         <v>108</v>
       </c>
-      <c r="G22" s="226"/>
+      <c r="G22" s="207"/>
       <c r="H22" s="18"/>
     </row>
     <row r="23" spans="1:8" ht="92.25" customHeight="1">
       <c r="A23" s="3">
         <v>2</v>
       </c>
-      <c r="B23" s="162" t="s">
+      <c r="B23" s="173" t="s">
         <v>107</v>
       </c>
-      <c r="C23" s="163"/>
+      <c r="C23" s="174"/>
       <c r="D23" s="15" t="s">
         <v>106</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="F23" s="225" t="s">
+      <c r="F23" s="206" t="s">
         <v>109</v>
       </c>
-      <c r="G23" s="226"/>
+      <c r="G23" s="207"/>
       <c r="H23" s="3"/>
     </row>
     <row r="24" spans="1:8" ht="105.75" customHeight="1">
       <c r="A24" s="3">
         <v>3</v>
       </c>
-      <c r="B24" s="162" t="s">
+      <c r="B24" s="173" t="s">
         <v>110</v>
       </c>
-      <c r="C24" s="163"/>
+      <c r="C24" s="174"/>
       <c r="D24" s="28" t="s">
         <v>111</v>
       </c>
       <c r="E24" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="F24" s="231" t="s">
+      <c r="F24" s="214" t="s">
         <v>113</v>
       </c>
-      <c r="G24" s="232"/>
+      <c r="G24" s="215"/>
       <c r="H24" s="30" t="s">
         <v>114</v>
       </c>
@@ -23217,20 +23167,20 @@
       <c r="A25" s="3">
         <v>4</v>
       </c>
-      <c r="B25" s="237" t="s">
+      <c r="B25" s="220" t="s">
         <v>116</v>
       </c>
-      <c r="C25" s="238"/>
+      <c r="C25" s="221"/>
       <c r="D25" s="15" t="s">
         <v>115</v>
       </c>
       <c r="E25" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="F25" s="239" t="s">
+      <c r="F25" s="186" t="s">
         <v>118</v>
       </c>
-      <c r="G25" s="240"/>
+      <c r="G25" s="222"/>
       <c r="H25" s="24" t="s">
         <v>119</v>
       </c>
@@ -23239,20 +23189,20 @@
       <c r="A26" s="3">
         <v>5</v>
       </c>
-      <c r="B26" s="233" t="s">
+      <c r="B26" s="216" t="s">
         <v>120</v>
       </c>
-      <c r="C26" s="234"/>
+      <c r="C26" s="217"/>
       <c r="D26" s="18" t="s">
         <v>121</v>
       </c>
       <c r="E26" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="F26" s="235" t="s">
+      <c r="F26" s="218" t="s">
         <v>118</v>
       </c>
-      <c r="G26" s="236"/>
+      <c r="G26" s="219"/>
       <c r="H26" s="18" t="s">
         <v>119</v>
       </c>
@@ -23285,20 +23235,20 @@
       <c r="A28" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B28" s="210" t="s">
+      <c r="B28" s="223" t="s">
         <v>85</v>
       </c>
-      <c r="C28" s="211"/>
+      <c r="C28" s="224"/>
       <c r="D28" s="37" t="s">
         <v>86</v>
       </c>
       <c r="E28" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="F28" s="210" t="s">
+      <c r="F28" s="223" t="s">
         <v>88</v>
       </c>
-      <c r="G28" s="211"/>
+      <c r="G28" s="224"/>
       <c r="H28" s="37" t="s">
         <v>89</v>
       </c>
@@ -23307,140 +23257,140 @@
       <c r="A29" s="16">
         <v>1</v>
       </c>
-      <c r="B29" s="214" t="s">
+      <c r="B29" s="228" t="s">
         <v>128</v>
       </c>
-      <c r="C29" s="215"/>
+      <c r="C29" s="229"/>
       <c r="D29" s="41" t="s">
         <v>129</v>
       </c>
       <c r="E29" s="42" t="s">
         <v>130</v>
       </c>
-      <c r="F29" s="244" t="s">
+      <c r="F29" s="230" t="s">
         <v>123</v>
       </c>
-      <c r="G29" s="217"/>
+      <c r="G29" s="231"/>
       <c r="H29" s="16"/>
     </row>
     <row r="30" spans="1:8" s="32" customFormat="1" ht="119.25" customHeight="1">
       <c r="A30" s="16">
         <v>2</v>
       </c>
-      <c r="B30" s="214" t="s">
+      <c r="B30" s="228" t="s">
         <v>131</v>
       </c>
-      <c r="C30" s="215"/>
+      <c r="C30" s="229"/>
       <c r="D30" s="41" t="s">
         <v>129</v>
       </c>
       <c r="E30" s="43" t="s">
         <v>132</v>
       </c>
-      <c r="F30" s="245" t="s">
+      <c r="F30" s="232" t="s">
         <v>124</v>
       </c>
-      <c r="G30" s="246"/>
+      <c r="G30" s="233"/>
       <c r="H30" s="16"/>
     </row>
     <row r="31" spans="1:8" ht="129.75" customHeight="1">
       <c r="A31" s="16">
         <v>3</v>
       </c>
-      <c r="B31" s="241" t="s">
+      <c r="B31" s="225" t="s">
         <v>133</v>
       </c>
-      <c r="C31" s="242"/>
+      <c r="C31" s="226"/>
       <c r="D31" s="44" t="s">
         <v>134</v>
       </c>
       <c r="E31" s="45" t="s">
         <v>135</v>
       </c>
-      <c r="F31" s="243" t="s">
+      <c r="F31" s="227" t="s">
         <v>136</v>
       </c>
-      <c r="G31" s="243"/>
+      <c r="G31" s="227"/>
       <c r="H31" s="17"/>
     </row>
     <row r="32" spans="1:8" ht="165" customHeight="1">
       <c r="A32" s="16">
         <v>4</v>
       </c>
-      <c r="B32" s="227" t="s">
+      <c r="B32" s="210" t="s">
         <v>137</v>
       </c>
-      <c r="C32" s="228"/>
+      <c r="C32" s="211"/>
       <c r="D32" s="46" t="s">
         <v>140</v>
       </c>
       <c r="E32" s="45" t="s">
         <v>127</v>
       </c>
-      <c r="F32" s="229" t="s">
+      <c r="F32" s="212" t="s">
         <v>126</v>
       </c>
-      <c r="G32" s="230"/>
+      <c r="G32" s="213"/>
       <c r="H32" s="17"/>
     </row>
     <row r="33" spans="1:8" ht="130.5" customHeight="1">
       <c r="A33" s="16">
         <v>5</v>
       </c>
-      <c r="B33" s="178" t="s">
+      <c r="B33" s="180" t="s">
         <v>138</v>
       </c>
-      <c r="C33" s="163"/>
+      <c r="C33" s="174"/>
       <c r="D33" s="15" t="s">
         <v>141</v>
       </c>
       <c r="E33" s="38" t="s">
         <v>144</v>
       </c>
-      <c r="F33" s="247" t="s">
+      <c r="F33" s="202" t="s">
         <v>143</v>
       </c>
-      <c r="G33" s="248"/>
+      <c r="G33" s="203"/>
       <c r="H33" s="17"/>
     </row>
     <row r="34" spans="1:8" ht="130.5" customHeight="1">
       <c r="A34" s="16">
         <v>6</v>
       </c>
-      <c r="B34" s="162" t="s">
+      <c r="B34" s="173" t="s">
         <v>139</v>
       </c>
-      <c r="C34" s="163"/>
+      <c r="C34" s="174"/>
       <c r="D34" s="40" t="s">
         <v>143</v>
       </c>
       <c r="E34" s="38" t="s">
         <v>145</v>
       </c>
-      <c r="F34" s="247" t="s">
+      <c r="F34" s="202" t="s">
         <v>146</v>
       </c>
-      <c r="G34" s="248"/>
+      <c r="G34" s="203"/>
       <c r="H34" s="17"/>
     </row>
     <row r="35" spans="1:8" ht="130.5" customHeight="1">
       <c r="A35" s="16">
         <v>7</v>
       </c>
-      <c r="B35" s="178" t="s">
+      <c r="B35" s="180" t="s">
         <v>194</v>
       </c>
-      <c r="C35" s="163"/>
+      <c r="C35" s="174"/>
       <c r="D35" s="18" t="s">
         <v>142</v>
       </c>
       <c r="E35" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="F35" s="247" t="s">
+      <c r="F35" s="202" t="s">
         <v>147</v>
       </c>
-      <c r="G35" s="248"/>
+      <c r="G35" s="203"/>
       <c r="H35" s="23" t="s">
         <v>148</v>
       </c>
@@ -23473,20 +23423,20 @@
       <c r="A37" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B37" s="251" t="s">
+      <c r="B37" s="188" t="s">
         <v>85</v>
       </c>
-      <c r="C37" s="252"/>
+      <c r="C37" s="189"/>
       <c r="D37" s="49" t="s">
         <v>86</v>
       </c>
       <c r="E37" s="49" t="s">
         <v>87</v>
       </c>
-      <c r="F37" s="251" t="s">
+      <c r="F37" s="188" t="s">
         <v>88</v>
       </c>
-      <c r="G37" s="252"/>
+      <c r="G37" s="189"/>
       <c r="H37" s="49" t="s">
         <v>89</v>
       </c>
@@ -23495,100 +23445,100 @@
       <c r="A38" s="3">
         <v>1</v>
       </c>
-      <c r="B38" s="162" t="s">
+      <c r="B38" s="173" t="s">
         <v>149</v>
       </c>
-      <c r="C38" s="163"/>
+      <c r="C38" s="174"/>
       <c r="D38" s="28" t="s">
         <v>157</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="F38" s="225" t="s">
+      <c r="F38" s="206" t="s">
         <v>159</v>
       </c>
-      <c r="G38" s="226"/>
+      <c r="G38" s="207"/>
       <c r="H38" s="3"/>
     </row>
     <row r="39" spans="1:8" ht="75" customHeight="1">
       <c r="A39" s="3">
         <v>2</v>
       </c>
-      <c r="B39" s="162" t="s">
+      <c r="B39" s="173" t="s">
         <v>150</v>
       </c>
-      <c r="C39" s="163"/>
+      <c r="C39" s="174"/>
       <c r="D39" s="28" t="s">
         <v>156</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="F39" s="255" t="s">
+      <c r="F39" s="208" t="s">
         <v>161</v>
       </c>
-      <c r="G39" s="256"/>
+      <c r="G39" s="209"/>
       <c r="H39" s="3"/>
     </row>
     <row r="40" spans="1:8" ht="75" customHeight="1">
       <c r="A40" s="3">
         <v>3</v>
       </c>
-      <c r="B40" s="162" t="s">
+      <c r="B40" s="173" t="s">
         <v>151</v>
       </c>
-      <c r="C40" s="163"/>
+      <c r="C40" s="174"/>
       <c r="D40" s="28" t="s">
         <v>155</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="F40" s="225" t="s">
+      <c r="F40" s="206" t="s">
         <v>160</v>
       </c>
-      <c r="G40" s="226"/>
+      <c r="G40" s="207"/>
       <c r="H40" s="3"/>
     </row>
     <row r="41" spans="1:8" ht="318.75" customHeight="1">
       <c r="A41" s="47">
         <v>4</v>
       </c>
-      <c r="B41" s="249" t="s">
+      <c r="B41" s="204" t="s">
         <v>152</v>
       </c>
-      <c r="C41" s="250"/>
+      <c r="C41" s="205"/>
       <c r="D41" s="51" t="s">
         <v>153</v>
       </c>
       <c r="E41" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="F41" s="253" t="s">
+      <c r="F41" s="175" t="s">
         <v>154</v>
       </c>
-      <c r="G41" s="254"/>
+      <c r="G41" s="176"/>
       <c r="H41" s="3"/>
     </row>
     <row r="42" spans="1:8" ht="84.75" customHeight="1">
       <c r="A42" s="47">
         <v>5</v>
       </c>
-      <c r="B42" s="162" t="s">
+      <c r="B42" s="173" t="s">
         <v>162</v>
       </c>
-      <c r="C42" s="163"/>
+      <c r="C42" s="174"/>
       <c r="D42" s="22" t="s">
         <v>163</v>
       </c>
       <c r="E42" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="F42" s="253" t="s">
+      <c r="F42" s="175" t="s">
         <v>164</v>
       </c>
-      <c r="G42" s="254"/>
+      <c r="G42" s="176"/>
       <c r="H42" s="3"/>
     </row>
     <row r="43" spans="1:8" ht="51" customHeight="1">
@@ -23619,208 +23569,209 @@
       <c r="A44" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B44" s="251" t="s">
+      <c r="B44" s="188" t="s">
         <v>85</v>
       </c>
-      <c r="C44" s="252"/>
+      <c r="C44" s="189"/>
       <c r="D44" s="49" t="s">
         <v>86</v>
       </c>
       <c r="E44" s="49" t="s">
         <v>87</v>
       </c>
-      <c r="F44" s="251" t="s">
+      <c r="F44" s="188" t="s">
         <v>88</v>
       </c>
-      <c r="G44" s="252"/>
+      <c r="G44" s="189"/>
       <c r="H44" s="49" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="65.25" customHeight="1">
-      <c r="A45" s="133">
+      <c r="A45" s="131">
         <v>1</v>
       </c>
-      <c r="B45" s="262" t="s">
+      <c r="B45" s="192" t="s">
         <v>614</v>
       </c>
-      <c r="C45" s="263"/>
-      <c r="D45" s="18" t="s">
-        <v>617</v>
+      <c r="C45" s="193"/>
+      <c r="D45" s="23" t="s">
+        <v>762</v>
       </c>
       <c r="E45" s="25" t="s">
         <v>321</v>
       </c>
-      <c r="F45" s="200" t="s">
-        <v>622</v>
-      </c>
-      <c r="G45" s="201"/>
+      <c r="F45" s="272" t="s">
+        <v>618</v>
+      </c>
+      <c r="G45" s="273"/>
       <c r="H45" s="50"/>
     </row>
     <row r="46" spans="1:8" ht="96" customHeight="1">
-      <c r="A46" s="133">
+      <c r="A46" s="131">
         <v>2</v>
       </c>
-      <c r="B46" s="264" t="s">
+      <c r="B46" s="194" t="s">
         <v>613</v>
       </c>
-      <c r="C46" s="265"/>
-      <c r="D46" s="15" t="s">
-        <v>618</v>
+      <c r="C46" s="195"/>
+      <c r="D46" s="28" t="s">
+        <v>615</v>
       </c>
       <c r="E46" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="F46" s="276" t="s">
-        <v>623</v>
-      </c>
-      <c r="G46" s="277"/>
-      <c r="H46" s="18" t="s">
-        <v>625</v>
+      <c r="F46" s="182" t="s">
+        <v>619</v>
+      </c>
+      <c r="G46" s="183"/>
+      <c r="H46" s="23" t="s">
+        <v>763</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="72.75" customHeight="1">
-      <c r="A47" s="133">
+      <c r="A47" s="131">
         <v>3</v>
       </c>
-      <c r="B47" s="266" t="s">
-        <v>615</v>
-      </c>
-      <c r="C47" s="267"/>
-      <c r="D47" s="15" t="s">
-        <v>619</v>
+      <c r="B47" s="202" t="s">
+        <v>764</v>
+      </c>
+      <c r="C47" s="179"/>
+      <c r="D47" s="28" t="s">
+        <v>616</v>
       </c>
       <c r="E47" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="F47" s="260" t="s">
-        <v>624</v>
-      </c>
-      <c r="G47" s="261"/>
-      <c r="H47" s="134"/>
+      <c r="F47" s="190" t="s">
+        <v>620</v>
+      </c>
+      <c r="G47" s="191"/>
+      <c r="H47" s="132"/>
     </row>
     <row r="48" spans="1:8" ht="268.5" customHeight="1">
-      <c r="A48" s="133">
+      <c r="A48" s="131">
         <v>4</v>
       </c>
-      <c r="B48" s="239" t="s">
-        <v>616</v>
-      </c>
-      <c r="C48" s="259"/>
-      <c r="D48" s="24" t="s">
-        <v>620</v>
+      <c r="B48" s="358" t="s">
+        <v>765</v>
+      </c>
+      <c r="C48" s="187"/>
+      <c r="D48" s="30" t="s">
+        <v>766</v>
       </c>
       <c r="E48" s="25" t="s">
         <v>302</v>
       </c>
-      <c r="F48" s="158" t="s">
-        <v>621</v>
-      </c>
-      <c r="G48" s="159"/>
+      <c r="F48" s="254" t="s">
+        <v>617</v>
+      </c>
+      <c r="G48" s="185"/>
       <c r="H48" s="15" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="94.5" customHeight="1">
-      <c r="A49" s="133">
+      <c r="A49" s="365">
         <v>5</v>
       </c>
-      <c r="B49" s="266" t="s">
+      <c r="B49" s="359" t="s">
+        <v>767</v>
+      </c>
+      <c r="C49" s="360"/>
+      <c r="D49" s="361"/>
+      <c r="E49" s="362"/>
+      <c r="F49" s="363"/>
+      <c r="G49" s="364"/>
+      <c r="H49" s="365"/>
+      <c r="I49" s="366"/>
+    </row>
+    <row r="50" spans="1:9" ht="174.75" customHeight="1">
+      <c r="A50" s="131">
+        <v>5</v>
+      </c>
+      <c r="B50" s="367" t="s">
+        <v>767</v>
+      </c>
+      <c r="C50" s="307"/>
+      <c r="D50" s="30" t="s">
+        <v>307</v>
+      </c>
+      <c r="E50" s="128" t="s">
+        <v>627</v>
+      </c>
+      <c r="F50" s="308" t="s">
+        <v>628</v>
+      </c>
+      <c r="G50" s="309"/>
+      <c r="H50" s="368" t="s">
+        <v>768</v>
+      </c>
+      <c r="I50" s="128"/>
+    </row>
+    <row r="51" spans="1:9" ht="94.5" customHeight="1">
+      <c r="A51" s="131">
+        <v>6</v>
+      </c>
+      <c r="B51" s="369" t="s">
+        <v>769</v>
+      </c>
+      <c r="C51" s="199"/>
+      <c r="D51" s="30" t="s">
+        <v>628</v>
+      </c>
+      <c r="E51" s="128" t="s">
+        <v>94</v>
+      </c>
+      <c r="F51" s="180" t="s">
+        <v>629</v>
+      </c>
+      <c r="G51" s="181"/>
+      <c r="H51" s="129"/>
+    </row>
+    <row r="52" spans="1:9" ht="145.5" customHeight="1">
+      <c r="A52" s="131">
+        <v>7</v>
+      </c>
+      <c r="B52" s="200" t="s">
+        <v>621</v>
+      </c>
+      <c r="C52" s="201"/>
+      <c r="D52" s="30" t="s">
         <v>626</v>
       </c>
-      <c r="C49" s="267"/>
-      <c r="D49" s="129"/>
-      <c r="E49" s="130"/>
-      <c r="F49" s="273"/>
-      <c r="G49" s="274"/>
-      <c r="H49" s="63"/>
-    </row>
-    <row r="50" spans="1:9" ht="174.75" customHeight="1">
-      <c r="A50" s="133">
-        <v>5</v>
-      </c>
-      <c r="B50" s="139" t="s">
-        <v>626</v>
-      </c>
-      <c r="C50" s="140"/>
-      <c r="D50" s="24" t="s">
-        <v>316</v>
-      </c>
-      <c r="E50" s="130" t="s">
-        <v>638</v>
-      </c>
-      <c r="F50" s="141" t="s">
-        <v>639</v>
-      </c>
-      <c r="G50" s="142"/>
-      <c r="H50" s="128" t="s">
-        <v>637</v>
-      </c>
-      <c r="I50" s="130"/>
-    </row>
-    <row r="51" spans="1:9" ht="94.5" customHeight="1">
-      <c r="A51" s="133">
-        <v>6</v>
-      </c>
-      <c r="B51" s="269" t="s">
-        <v>627</v>
-      </c>
-      <c r="C51" s="270"/>
-      <c r="D51" s="24" t="s">
-        <v>636</v>
-      </c>
-      <c r="E51" s="130" t="s">
-        <v>94</v>
-      </c>
-      <c r="F51" s="178" t="s">
-        <v>640</v>
-      </c>
-      <c r="G51" s="275"/>
-      <c r="H51" s="131"/>
-    </row>
-    <row r="52" spans="1:9" ht="145.5" customHeight="1">
-      <c r="A52" s="133">
-        <v>7</v>
-      </c>
-      <c r="B52" s="271" t="s">
-        <v>628</v>
-      </c>
-      <c r="C52" s="272"/>
-      <c r="D52" s="30" t="s">
-        <v>635</v>
-      </c>
-      <c r="E52" s="135" t="s">
+      <c r="E52" s="133" t="s">
         <v>127</v>
       </c>
-      <c r="F52" s="202" t="s">
-        <v>634</v>
-      </c>
-      <c r="G52" s="203"/>
-      <c r="H52" s="136" t="s">
-        <v>633</v>
-      </c>
-      <c r="I52" s="137"/>
+      <c r="F52" s="274" t="s">
+        <v>625</v>
+      </c>
+      <c r="G52" s="275"/>
+      <c r="H52" s="134" t="s">
+        <v>624</v>
+      </c>
+      <c r="I52" s="135"/>
     </row>
     <row r="53" spans="1:9" ht="94.5" customHeight="1">
-      <c r="A53" s="133">
+      <c r="A53" s="131">
         <v>8</v>
       </c>
-      <c r="B53" s="266" t="s">
-        <v>629</v>
-      </c>
-      <c r="C53" s="267"/>
-      <c r="D53" s="15" t="s">
-        <v>630</v>
+      <c r="B53" s="202" t="s">
+        <v>770</v>
+      </c>
+      <c r="C53" s="179"/>
+      <c r="D53" s="28" t="s">
+        <v>622</v>
       </c>
       <c r="E53" s="29" t="s">
         <v>321</v>
       </c>
-      <c r="F53" s="160" t="s">
-        <v>631</v>
-      </c>
-      <c r="G53" s="268"/>
-      <c r="H53" s="130" t="s">
-        <v>632</v>
+      <c r="F53" s="254" t="s">
+        <v>771</v>
+      </c>
+      <c r="G53" s="197"/>
+      <c r="H53" s="128" t="s">
+        <v>623</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="36.75" customHeight="1">
@@ -23851,28 +23802,28 @@
       <c r="A55" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B55" s="251" t="s">
+      <c r="B55" s="188" t="s">
         <v>85</v>
       </c>
-      <c r="C55" s="252"/>
+      <c r="C55" s="189"/>
       <c r="D55" s="49" t="s">
         <v>86</v>
       </c>
       <c r="E55" s="49" t="s">
         <v>87</v>
       </c>
-      <c r="F55" s="251" t="s">
+      <c r="F55" s="188" t="s">
         <v>88</v>
       </c>
-      <c r="G55" s="252"/>
+      <c r="G55" s="189"/>
       <c r="H55" s="49" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="36.75" customHeight="1">
       <c r="A56" s="19"/>
-      <c r="B56" s="257"/>
-      <c r="C56" s="258"/>
+      <c r="B56" s="177"/>
+      <c r="C56" s="178"/>
       <c r="D56" s="39"/>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
@@ -23881,8 +23832,8 @@
     </row>
     <row r="57" spans="1:9" ht="51" customHeight="1">
       <c r="A57" s="19"/>
-      <c r="B57" s="257"/>
-      <c r="C57" s="258"/>
+      <c r="B57" s="177"/>
+      <c r="C57" s="178"/>
       <c r="D57" s="39"/>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
@@ -23891,8 +23842,8 @@
     </row>
     <row r="58" spans="1:9" ht="44.25" customHeight="1">
       <c r="A58" s="19"/>
-      <c r="B58" s="257"/>
-      <c r="C58" s="258"/>
+      <c r="B58" s="177"/>
+      <c r="C58" s="178"/>
       <c r="D58" s="39"/>
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
@@ -23901,8 +23852,8 @@
     </row>
     <row r="59" spans="1:9" ht="45" customHeight="1">
       <c r="A59" s="19"/>
-      <c r="B59" s="257"/>
-      <c r="C59" s="258"/>
+      <c r="B59" s="177"/>
+      <c r="C59" s="178"/>
       <c r="D59" s="39"/>
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
@@ -23910,11 +23861,11 @@
       <c r="H59" s="3"/>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="193" t="s">
+      <c r="A60" s="267" t="s">
         <v>12</v>
       </c>
-      <c r="B60" s="194"/>
-      <c r="C60" s="195"/>
+      <c r="B60" s="268"/>
+      <c r="C60" s="269"/>
       <c r="D60" s="4"/>
       <c r="E60" s="5">
         <f>SUM(E8:E54)</f>
@@ -23932,11 +23883,11 @@
       </c>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="193" t="s">
+      <c r="A61" s="267" t="s">
         <v>13</v>
       </c>
-      <c r="B61" s="194"/>
-      <c r="C61" s="195"/>
+      <c r="B61" s="268"/>
+      <c r="C61" s="269"/>
       <c r="D61" s="4"/>
       <c r="E61" s="5">
         <v>20</v>
@@ -23952,11 +23903,11 @@
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="184" t="s">
+      <c r="A62" s="258" t="s">
         <v>36</v>
       </c>
-      <c r="B62" s="184"/>
-      <c r="C62" s="184"/>
+      <c r="B62" s="258"/>
+      <c r="C62" s="258"/>
       <c r="D62" s="6"/>
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
@@ -23991,20 +23942,20 @@
       <c r="A64" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="B64" s="174" t="s">
+      <c r="B64" s="248" t="s">
         <v>85</v>
       </c>
-      <c r="C64" s="175"/>
+      <c r="C64" s="249"/>
       <c r="D64" s="95" t="s">
         <v>86</v>
       </c>
       <c r="E64" s="95" t="s">
         <v>87</v>
       </c>
-      <c r="F64" s="176" t="s">
+      <c r="F64" s="250" t="s">
         <v>88</v>
       </c>
-      <c r="G64" s="177"/>
+      <c r="G64" s="251"/>
       <c r="H64" s="95" t="s">
         <v>89</v>
       </c>
@@ -24013,20 +23964,20 @@
       <c r="A65" s="7">
         <v>1</v>
       </c>
-      <c r="B65" s="178" t="s">
+      <c r="B65" s="180" t="s">
         <v>223</v>
       </c>
-      <c r="C65" s="163"/>
+      <c r="C65" s="174"/>
       <c r="D65" s="88" t="s">
         <v>195</v>
       </c>
       <c r="E65" s="25" t="s">
         <v>196</v>
       </c>
-      <c r="F65" s="179" t="s">
+      <c r="F65" s="252" t="s">
         <v>197</v>
       </c>
-      <c r="G65" s="180"/>
+      <c r="G65" s="253"/>
       <c r="H65" s="15" t="s">
         <v>198</v>
       </c>
@@ -24035,83 +23986,83 @@
       <c r="A66" s="7">
         <v>2</v>
       </c>
-      <c r="B66" s="181" t="s">
+      <c r="B66" s="254" t="s">
         <v>199</v>
       </c>
-      <c r="C66" s="161"/>
+      <c r="C66" s="255"/>
       <c r="D66" s="15" t="s">
         <v>200</v>
       </c>
       <c r="E66" s="25" t="s">
         <v>201</v>
       </c>
-      <c r="F66" s="182" t="s">
+      <c r="F66" s="256" t="s">
         <v>202</v>
       </c>
-      <c r="G66" s="183"/>
+      <c r="G66" s="257"/>
       <c r="H66" s="15"/>
     </row>
     <row r="67" spans="1:8" ht="37.5" customHeight="1">
       <c r="A67" s="7">
         <v>3</v>
       </c>
-      <c r="B67" s="160" t="s">
+      <c r="B67" s="196" t="s">
         <v>203</v>
       </c>
-      <c r="C67" s="161"/>
+      <c r="C67" s="255"/>
       <c r="D67" s="88" t="s">
         <v>204</v>
       </c>
       <c r="E67" s="25" t="s">
         <v>201</v>
       </c>
-      <c r="F67" s="168" t="s">
+      <c r="F67" s="284" t="s">
         <v>205</v>
       </c>
-      <c r="G67" s="169"/>
+      <c r="G67" s="285"/>
       <c r="H67" s="15"/>
     </row>
     <row r="68" spans="1:8" ht="76.5" customHeight="1">
       <c r="A68" s="7">
         <v>4</v>
       </c>
-      <c r="B68" s="158" t="s">
+      <c r="B68" s="184" t="s">
         <v>206</v>
       </c>
-      <c r="C68" s="159"/>
+      <c r="C68" s="185"/>
       <c r="D68" s="15" t="s">
         <v>207</v>
       </c>
       <c r="E68" s="89" t="s">
         <v>208</v>
       </c>
-      <c r="F68" s="170" t="s">
+      <c r="F68" s="286" t="s">
         <v>209</v>
       </c>
-      <c r="G68" s="171"/>
+      <c r="G68" s="287"/>
       <c r="H68" s="90" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="15" customHeight="1">
       <c r="A69" s="7"/>
-      <c r="B69" s="160" t="s">
+      <c r="B69" s="196" t="s">
         <v>211</v>
       </c>
-      <c r="C69" s="161"/>
+      <c r="C69" s="255"/>
       <c r="E69" s="91"/>
-      <c r="F69" s="172"/>
-      <c r="G69" s="173"/>
+      <c r="F69" s="288"/>
+      <c r="G69" s="289"/>
       <c r="H69" s="3"/>
     </row>
     <row r="70" spans="1:8" ht="38.25" customHeight="1">
       <c r="A70" s="7">
         <v>9</v>
       </c>
-      <c r="B70" s="158" t="s">
+      <c r="B70" s="184" t="s">
         <v>212</v>
       </c>
-      <c r="C70" s="159"/>
+      <c r="C70" s="185"/>
       <c r="D70" s="92" t="s">
         <v>213</v>
       </c>
@@ -24130,10 +24081,10 @@
       <c r="A71" s="7">
         <v>10</v>
       </c>
-      <c r="B71" s="160" t="s">
+      <c r="B71" s="196" t="s">
         <v>216</v>
       </c>
-      <c r="C71" s="161"/>
+      <c r="C71" s="255"/>
       <c r="D71" s="94" t="s">
         <v>217</v>
       </c>
@@ -24152,20 +24103,20 @@
       <c r="A72" s="7">
         <v>12</v>
       </c>
-      <c r="B72" s="162" t="s">
+      <c r="B72" s="173" t="s">
         <v>220</v>
       </c>
-      <c r="C72" s="163"/>
+      <c r="C72" s="174"/>
       <c r="D72" s="94" t="s">
         <v>221</v>
       </c>
       <c r="E72" s="25" t="s">
         <v>201</v>
       </c>
-      <c r="F72" s="158" t="s">
+      <c r="F72" s="184" t="s">
         <v>222</v>
       </c>
-      <c r="G72" s="159"/>
+      <c r="G72" s="185"/>
       <c r="H72" s="3"/>
     </row>
     <row r="73" spans="1:8" ht="18.75">
@@ -24196,20 +24147,20 @@
       <c r="A74" s="127" t="s">
         <v>0</v>
       </c>
-      <c r="B74" s="164" t="s">
+      <c r="B74" s="280" t="s">
         <v>85</v>
       </c>
-      <c r="C74" s="165"/>
+      <c r="C74" s="281"/>
       <c r="D74" s="127" t="s">
         <v>86</v>
       </c>
       <c r="E74" s="127" t="s">
         <v>87</v>
       </c>
-      <c r="F74" s="166" t="s">
+      <c r="F74" s="282" t="s">
         <v>88</v>
       </c>
-      <c r="G74" s="167"/>
+      <c r="G74" s="283"/>
       <c r="H74" s="127" t="s">
         <v>89</v>
       </c>
@@ -24218,20 +24169,20 @@
       <c r="A75" s="96">
         <v>1</v>
       </c>
-      <c r="B75" s="153" t="s">
+      <c r="B75" s="292" t="s">
         <v>612</v>
       </c>
-      <c r="C75" s="143"/>
+      <c r="C75" s="293"/>
       <c r="D75" s="97" t="s">
         <v>224</v>
       </c>
       <c r="E75" s="98" t="s">
         <v>201</v>
       </c>
-      <c r="F75" s="151" t="s">
+      <c r="F75" s="291" t="s">
         <v>225</v>
       </c>
-      <c r="G75" s="151"/>
+      <c r="G75" s="291"/>
       <c r="H75" s="99" t="s">
         <v>226</v>
       </c>
@@ -24240,40 +24191,40 @@
       <c r="A76" s="96">
         <v>2</v>
       </c>
-      <c r="B76" s="145" t="s">
+      <c r="B76" s="294" t="s">
         <v>227</v>
       </c>
-      <c r="C76" s="145"/>
+      <c r="C76" s="294"/>
       <c r="D76" s="99" t="s">
         <v>228</v>
       </c>
       <c r="E76" s="98" t="s">
         <v>201</v>
       </c>
-      <c r="F76" s="144" t="s">
+      <c r="F76" s="295" t="s">
         <v>229</v>
       </c>
-      <c r="G76" s="144"/>
+      <c r="G76" s="295"/>
       <c r="H76" s="99"/>
     </row>
     <row r="77" spans="1:8" ht="28.5" customHeight="1">
       <c r="A77" s="96">
         <v>3</v>
       </c>
-      <c r="B77" s="143" t="s">
+      <c r="B77" s="293" t="s">
         <v>230</v>
       </c>
-      <c r="C77" s="143"/>
+      <c r="C77" s="293"/>
       <c r="D77" s="97" t="s">
         <v>231</v>
       </c>
       <c r="E77" s="98" t="s">
         <v>201</v>
       </c>
-      <c r="F77" s="144" t="s">
+      <c r="F77" s="295" t="s">
         <v>232</v>
       </c>
-      <c r="G77" s="144"/>
+      <c r="G77" s="295"/>
       <c r="H77" s="100" t="s">
         <v>233</v>
       </c>
@@ -24282,36 +24233,36 @@
       <c r="A78" s="96">
         <v>4</v>
       </c>
-      <c r="B78" s="147" t="s">
+      <c r="B78" s="290" t="s">
         <v>234</v>
       </c>
-      <c r="C78" s="147"/>
+      <c r="C78" s="290"/>
       <c r="D78" s="99" t="s">
         <v>235</v>
       </c>
       <c r="E78" s="98" t="s">
         <v>208</v>
       </c>
-      <c r="F78" s="151" t="s">
+      <c r="F78" s="291" t="s">
         <v>236</v>
       </c>
-      <c r="G78" s="151"/>
+      <c r="G78" s="291"/>
       <c r="H78" s="99" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="25.5">
       <c r="A79" s="99"/>
-      <c r="B79" s="147" t="s">
+      <c r="B79" s="290" t="s">
         <v>238</v>
       </c>
-      <c r="C79" s="147"/>
+      <c r="C79" s="290"/>
       <c r="D79" s="101"/>
       <c r="E79" s="38" t="s">
         <v>208</v>
       </c>
-      <c r="F79" s="147"/>
-      <c r="G79" s="147"/>
+      <c r="F79" s="290"/>
+      <c r="G79" s="290"/>
       <c r="H79" s="102" t="s">
         <v>239</v>
       </c>
@@ -24320,10 +24271,10 @@
       <c r="A80" s="103">
         <v>9</v>
       </c>
-      <c r="B80" s="147" t="s">
+      <c r="B80" s="290" t="s">
         <v>240</v>
       </c>
-      <c r="C80" s="147"/>
+      <c r="C80" s="290"/>
       <c r="D80" s="91" t="s">
         <v>241</v>
       </c>
@@ -24342,10 +24293,10 @@
       <c r="A81" s="105">
         <v>10</v>
       </c>
-      <c r="B81" s="145" t="s">
+      <c r="B81" s="294" t="s">
         <v>244</v>
       </c>
-      <c r="C81" s="145"/>
+      <c r="C81" s="294"/>
       <c r="D81" s="106" t="s">
         <v>245</v>
       </c>
@@ -24364,20 +24315,20 @@
       <c r="A82" s="103">
         <v>12</v>
       </c>
-      <c r="B82" s="143" t="s">
+      <c r="B82" s="293" t="s">
         <v>220</v>
       </c>
-      <c r="C82" s="143"/>
+      <c r="C82" s="293"/>
       <c r="D82" s="91" t="s">
         <v>246</v>
       </c>
       <c r="E82" s="98" t="s">
         <v>201</v>
       </c>
-      <c r="F82" s="147" t="s">
+      <c r="F82" s="290" t="s">
         <v>247</v>
       </c>
-      <c r="G82" s="147"/>
+      <c r="G82" s="290"/>
       <c r="H82" s="99"/>
     </row>
     <row r="83" spans="1:8">
@@ -24418,20 +24369,20 @@
       <c r="A85" s="127" t="s">
         <v>0</v>
       </c>
-      <c r="B85" s="156" t="s">
+      <c r="B85" s="296" t="s">
         <v>85</v>
       </c>
-      <c r="C85" s="156"/>
+      <c r="C85" s="296"/>
       <c r="D85" s="127" t="s">
         <v>86</v>
       </c>
       <c r="E85" s="127" t="s">
         <v>87</v>
       </c>
-      <c r="F85" s="157" t="s">
+      <c r="F85" s="297" t="s">
         <v>88</v>
       </c>
-      <c r="G85" s="157"/>
+      <c r="G85" s="297"/>
       <c r="H85" s="127" t="s">
         <v>89</v>
       </c>
@@ -24440,20 +24391,20 @@
       <c r="A86" s="96">
         <v>1</v>
       </c>
-      <c r="B86" s="143" t="s">
+      <c r="B86" s="293" t="s">
         <v>248</v>
       </c>
-      <c r="C86" s="143"/>
+      <c r="C86" s="293"/>
       <c r="D86" s="97" t="s">
         <v>249</v>
       </c>
       <c r="E86" s="98" t="s">
         <v>201</v>
       </c>
-      <c r="F86" s="151" t="s">
+      <c r="F86" s="291" t="s">
         <v>250</v>
       </c>
-      <c r="G86" s="151"/>
+      <c r="G86" s="291"/>
       <c r="H86" s="99" t="s">
         <v>251</v>
       </c>
@@ -24462,94 +24413,94 @@
       <c r="A87" s="96">
         <v>2</v>
       </c>
-      <c r="B87" s="143" t="s">
+      <c r="B87" s="293" t="s">
         <v>252</v>
       </c>
-      <c r="C87" s="143"/>
+      <c r="C87" s="293"/>
       <c r="D87" s="99" t="s">
         <v>253</v>
       </c>
       <c r="E87" s="98" t="s">
         <v>201</v>
       </c>
-      <c r="F87" s="144" t="s">
+      <c r="F87" s="295" t="s">
         <v>254</v>
       </c>
-      <c r="G87" s="144"/>
+      <c r="G87" s="295"/>
       <c r="H87" s="99"/>
     </row>
     <row r="88" spans="1:8">
       <c r="A88" s="96">
         <v>3</v>
       </c>
-      <c r="B88" s="145" t="s">
+      <c r="B88" s="294" t="s">
         <v>255</v>
       </c>
-      <c r="C88" s="145"/>
+      <c r="C88" s="294"/>
       <c r="D88" s="100" t="s">
         <v>256</v>
       </c>
       <c r="E88" s="98" t="s">
         <v>201</v>
       </c>
-      <c r="F88" s="144" t="s">
+      <c r="F88" s="295" t="s">
         <v>257</v>
       </c>
-      <c r="G88" s="144"/>
+      <c r="G88" s="295"/>
       <c r="H88" s="99"/>
     </row>
     <row r="89" spans="1:8" ht="173.25" customHeight="1">
       <c r="A89" s="96">
         <v>4</v>
       </c>
-      <c r="B89" s="147" t="s">
+      <c r="B89" s="290" t="s">
         <v>258</v>
       </c>
-      <c r="C89" s="147"/>
+      <c r="C89" s="290"/>
       <c r="D89" s="97" t="s">
         <v>259</v>
       </c>
       <c r="E89" s="98" t="s">
         <v>208</v>
       </c>
-      <c r="F89" s="151" t="s">
+      <c r="F89" s="291" t="s">
         <v>260</v>
       </c>
-      <c r="G89" s="151"/>
+      <c r="G89" s="291"/>
       <c r="H89" s="102" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="72" customHeight="1">
       <c r="A90" s="99"/>
-      <c r="B90" s="147" t="s">
+      <c r="B90" s="290" t="s">
         <v>262</v>
       </c>
-      <c r="C90" s="147"/>
+      <c r="C90" s="290"/>
       <c r="D90" s="99"/>
       <c r="E90" s="99"/>
-      <c r="F90" s="147"/>
-      <c r="G90" s="147"/>
+      <c r="F90" s="290"/>
+      <c r="G90" s="290"/>
       <c r="H90" s="3"/>
     </row>
     <row r="91" spans="1:8" ht="51" customHeight="1">
       <c r="A91" s="103">
         <v>9</v>
       </c>
-      <c r="B91" s="145" t="s">
+      <c r="B91" s="294" t="s">
         <v>263</v>
       </c>
-      <c r="C91" s="145"/>
+      <c r="C91" s="294"/>
       <c r="D91" s="97" t="s">
         <v>264</v>
       </c>
       <c r="E91" s="98" t="s">
         <v>201</v>
       </c>
-      <c r="F91" s="359" t="s">
+      <c r="F91" s="300" t="s">
         <v>265</v>
       </c>
-      <c r="G91" s="360"/>
+      <c r="G91" s="301"/>
       <c r="H91" s="102" t="s">
         <v>266</v>
       </c>
@@ -24570,30 +24521,30 @@
       <c r="E92" s="38" t="s">
         <v>218</v>
       </c>
-      <c r="F92" s="145" t="s">
+      <c r="F92" s="294" t="s">
         <v>270</v>
       </c>
-      <c r="G92" s="145"/>
+      <c r="G92" s="294"/>
       <c r="H92" s="3"/>
     </row>
     <row r="93" spans="1:8" ht="25.5">
       <c r="A93" s="103">
         <v>12</v>
       </c>
-      <c r="B93" s="151" t="s">
+      <c r="B93" s="291" t="s">
         <v>220</v>
       </c>
-      <c r="C93" s="151"/>
+      <c r="C93" s="291"/>
       <c r="D93" s="97" t="s">
         <v>271</v>
       </c>
       <c r="E93" s="98" t="s">
         <v>201</v>
       </c>
-      <c r="F93" s="147" t="s">
+      <c r="F93" s="290" t="s">
         <v>272</v>
       </c>
-      <c r="G93" s="147"/>
+      <c r="G93" s="290"/>
       <c r="H93" s="3"/>
     </row>
     <row r="94" spans="1:8">
@@ -24624,20 +24575,20 @@
       <c r="A95" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B95" s="149" t="s">
+      <c r="B95" s="298" t="s">
         <v>85</v>
       </c>
-      <c r="C95" s="149"/>
+      <c r="C95" s="298"/>
       <c r="D95" s="5" t="s">
         <v>86</v>
       </c>
       <c r="E95" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="F95" s="150" t="s">
+      <c r="F95" s="299" t="s">
         <v>88</v>
       </c>
-      <c r="G95" s="150"/>
+      <c r="G95" s="299"/>
       <c r="H95" s="5" t="s">
         <v>89</v>
       </c>
@@ -24646,52 +24597,52 @@
       <c r="A96" s="109">
         <v>1</v>
       </c>
-      <c r="B96" s="143" t="s">
+      <c r="B96" s="293" t="s">
         <v>273</v>
       </c>
-      <c r="C96" s="143"/>
+      <c r="C96" s="293"/>
       <c r="D96" s="110" t="s">
         <v>274</v>
       </c>
       <c r="E96" s="100" t="s">
         <v>201</v>
       </c>
-      <c r="F96" s="144" t="s">
+      <c r="F96" s="295" t="s">
         <v>275</v>
       </c>
-      <c r="G96" s="144"/>
+      <c r="G96" s="295"/>
       <c r="H96" s="99"/>
     </row>
-    <row r="97" spans="1:8" ht="395.25">
+    <row r="97" spans="1:8" ht="357">
       <c r="A97" s="109">
         <v>2</v>
       </c>
-      <c r="B97" s="143" t="s">
+      <c r="B97" s="293" t="s">
         <v>276</v>
       </c>
-      <c r="C97" s="143"/>
+      <c r="C97" s="293"/>
       <c r="D97" s="111" t="s">
         <v>277</v>
       </c>
       <c r="E97" s="100" t="s">
         <v>278</v>
       </c>
-      <c r="F97" s="151" t="s">
+      <c r="F97" s="291" t="s">
         <v>279</v>
       </c>
-      <c r="G97" s="151"/>
+      <c r="G97" s="291"/>
       <c r="H97" s="99" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="395.25">
+    <row r="98" spans="1:8" ht="382.5">
       <c r="A98" s="99"/>
-      <c r="B98" s="147"/>
-      <c r="C98" s="147"/>
+      <c r="B98" s="290"/>
+      <c r="C98" s="290"/>
       <c r="D98" s="99"/>
       <c r="E98" s="99"/>
-      <c r="F98" s="146"/>
-      <c r="G98" s="146"/>
+      <c r="F98" s="302"/>
+      <c r="G98" s="302"/>
       <c r="H98" s="112" t="s">
         <v>281</v>
       </c>
@@ -24700,20 +24651,20 @@
       <c r="A99" s="109">
         <v>3</v>
       </c>
-      <c r="B99" s="143" t="s">
+      <c r="B99" s="293" t="s">
         <v>282</v>
       </c>
-      <c r="C99" s="143"/>
+      <c r="C99" s="293"/>
       <c r="D99" s="100" t="s">
         <v>279</v>
       </c>
       <c r="E99" s="100" t="s">
         <v>100</v>
       </c>
-      <c r="F99" s="151" t="s">
+      <c r="F99" s="291" t="s">
         <v>283</v>
       </c>
-      <c r="G99" s="151"/>
+      <c r="G99" s="291"/>
       <c r="H99" s="99" t="s">
         <v>284</v>
       </c>
@@ -24722,20 +24673,20 @@
       <c r="A100" s="113">
         <v>4</v>
       </c>
-      <c r="B100" s="151" t="s">
+      <c r="B100" s="291" t="s">
         <v>285</v>
       </c>
-      <c r="C100" s="151"/>
+      <c r="C100" s="291"/>
       <c r="D100" s="110" t="s">
         <v>286</v>
       </c>
       <c r="E100" s="100" t="s">
         <v>201</v>
       </c>
-      <c r="F100" s="144" t="s">
+      <c r="F100" s="295" t="s">
         <v>287</v>
       </c>
-      <c r="G100" s="144"/>
+      <c r="G100" s="295"/>
       <c r="H100" s="100" t="s">
         <v>288</v>
       </c>
@@ -24768,20 +24719,20 @@
       <c r="A102" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B102" s="149" t="s">
+      <c r="B102" s="298" t="s">
         <v>85</v>
       </c>
-      <c r="C102" s="149"/>
+      <c r="C102" s="298"/>
       <c r="D102" s="5" t="s">
         <v>86</v>
       </c>
       <c r="E102" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="F102" s="150" t="s">
+      <c r="F102" s="299" t="s">
         <v>88</v>
       </c>
-      <c r="G102" s="150"/>
+      <c r="G102" s="299"/>
       <c r="H102" s="5" t="s">
         <v>89</v>
       </c>
@@ -24790,40 +24741,40 @@
       <c r="A103" s="96">
         <v>1</v>
       </c>
-      <c r="B103" s="145" t="s">
+      <c r="B103" s="294" t="s">
         <v>289</v>
       </c>
-      <c r="C103" s="145"/>
+      <c r="C103" s="294"/>
       <c r="D103" s="102" t="s">
         <v>290</v>
       </c>
       <c r="E103" s="98" t="s">
         <v>291</v>
       </c>
-      <c r="F103" s="144" t="s">
+      <c r="F103" s="295" t="s">
         <v>292</v>
       </c>
-      <c r="G103" s="144"/>
+      <c r="G103" s="295"/>
       <c r="H103" s="99"/>
     </row>
-    <row r="104" spans="1:8" ht="63.75">
+    <row r="104" spans="1:8" ht="51">
       <c r="A104" s="96">
         <v>2</v>
       </c>
-      <c r="B104" s="145" t="s">
+      <c r="B104" s="294" t="s">
         <v>293</v>
       </c>
-      <c r="C104" s="145"/>
+      <c r="C104" s="294"/>
       <c r="D104" s="99" t="s">
         <v>294</v>
       </c>
       <c r="E104" s="98" t="s">
         <v>122</v>
       </c>
-      <c r="F104" s="151" t="s">
+      <c r="F104" s="291" t="s">
         <v>295</v>
       </c>
-      <c r="G104" s="151"/>
+      <c r="G104" s="291"/>
       <c r="H104" s="102" t="s">
         <v>296</v>
       </c>
@@ -24832,74 +24783,74 @@
       <c r="A105" s="96">
         <v>3</v>
       </c>
-      <c r="B105" s="145" t="s">
+      <c r="B105" s="294" t="s">
         <v>297</v>
       </c>
-      <c r="C105" s="145"/>
+      <c r="C105" s="294"/>
       <c r="D105" s="99" t="s">
         <v>298</v>
       </c>
       <c r="E105" s="98" t="s">
         <v>117</v>
       </c>
-      <c r="F105" s="144" t="s">
+      <c r="F105" s="295" t="s">
         <v>299</v>
       </c>
-      <c r="G105" s="144"/>
+      <c r="G105" s="295"/>
       <c r="H105" s="99"/>
     </row>
-    <row r="106" spans="1:8" ht="127.5">
+    <row r="106" spans="1:8" ht="114.75">
       <c r="A106" s="96">
         <v>4</v>
       </c>
-      <c r="B106" s="143" t="s">
+      <c r="B106" s="293" t="s">
         <v>300</v>
       </c>
-      <c r="C106" s="143"/>
+      <c r="C106" s="293"/>
       <c r="D106" s="114" t="s">
         <v>301</v>
       </c>
       <c r="E106" s="98" t="s">
         <v>302</v>
       </c>
-      <c r="F106" s="147" t="s">
+      <c r="F106" s="290" t="s">
         <v>303</v>
       </c>
-      <c r="G106" s="147"/>
+      <c r="G106" s="290"/>
       <c r="H106" s="99" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="107" spans="1:8">
       <c r="A107" s="99"/>
-      <c r="B107" s="147"/>
-      <c r="C107" s="147"/>
+      <c r="B107" s="290"/>
+      <c r="C107" s="290"/>
       <c r="D107" s="99"/>
       <c r="E107" s="99"/>
-      <c r="F107" s="147" t="s">
+      <c r="F107" s="290" t="s">
         <v>305</v>
       </c>
-      <c r="G107" s="147"/>
+      <c r="G107" s="290"/>
       <c r="H107" s="99"/>
     </row>
-    <row r="108" spans="1:8" ht="140.25">
+    <row r="108" spans="1:8" ht="127.5">
       <c r="A108" s="96">
         <v>5</v>
       </c>
-      <c r="B108" s="145" t="s">
+      <c r="B108" s="294" t="s">
         <v>306</v>
       </c>
-      <c r="C108" s="145"/>
+      <c r="C108" s="294"/>
       <c r="D108" s="108" t="s">
         <v>307</v>
       </c>
       <c r="E108" s="98" t="s">
         <v>308</v>
       </c>
-      <c r="F108" s="143" t="s">
+      <c r="F108" s="293" t="s">
         <v>309</v>
       </c>
-      <c r="G108" s="143"/>
+      <c r="G108" s="293"/>
       <c r="H108" s="102" t="s">
         <v>310</v>
       </c>
@@ -24908,40 +24859,40 @@
       <c r="A109" s="96">
         <v>6</v>
       </c>
-      <c r="B109" s="145" t="s">
+      <c r="B109" s="294" t="s">
         <v>311</v>
       </c>
-      <c r="C109" s="145"/>
+      <c r="C109" s="294"/>
       <c r="D109" s="100" t="s">
         <v>312</v>
       </c>
       <c r="E109" s="98" t="s">
         <v>313</v>
       </c>
-      <c r="F109" s="143" t="s">
+      <c r="F109" s="293" t="s">
         <v>314</v>
       </c>
-      <c r="G109" s="143"/>
+      <c r="G109" s="293"/>
       <c r="H109" s="99"/>
     </row>
     <row r="110" spans="1:8" ht="178.5">
       <c r="A110" s="96">
         <v>7</v>
       </c>
-      <c r="B110" s="143" t="s">
+      <c r="B110" s="293" t="s">
         <v>315</v>
       </c>
-      <c r="C110" s="143"/>
+      <c r="C110" s="293"/>
       <c r="D110" s="100" t="s">
         <v>316</v>
       </c>
       <c r="E110" s="98" t="s">
         <v>117</v>
       </c>
-      <c r="F110" s="143" t="s">
+      <c r="F110" s="293" t="s">
         <v>317</v>
       </c>
-      <c r="G110" s="143"/>
+      <c r="G110" s="293"/>
       <c r="H110" s="99" t="s">
         <v>318</v>
       </c>
@@ -24950,20 +24901,20 @@
       <c r="A111" s="96">
         <v>8</v>
       </c>
-      <c r="B111" s="145" t="s">
+      <c r="B111" s="294" t="s">
         <v>319</v>
       </c>
-      <c r="C111" s="145"/>
+      <c r="C111" s="294"/>
       <c r="D111" s="99" t="s">
         <v>320</v>
       </c>
       <c r="E111" s="98" t="s">
         <v>321</v>
       </c>
-      <c r="F111" s="144" t="s">
+      <c r="F111" s="295" t="s">
         <v>322</v>
       </c>
-      <c r="G111" s="144"/>
+      <c r="G111" s="295"/>
       <c r="H111" s="102" t="s">
         <v>323</v>
       </c>
@@ -25006,42 +24957,42 @@
       <c r="A114" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B114" s="149" t="s">
+      <c r="B114" s="298" t="s">
         <v>85</v>
       </c>
-      <c r="C114" s="149"/>
+      <c r="C114" s="298"/>
       <c r="D114" s="5" t="s">
         <v>86</v>
       </c>
       <c r="E114" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="F114" s="150" t="s">
+      <c r="F114" s="299" t="s">
         <v>88</v>
       </c>
-      <c r="G114" s="150"/>
+      <c r="G114" s="299"/>
       <c r="H114" s="5" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="115" spans="1:8" ht="114.75">
+    <row r="115" spans="1:8" ht="102">
       <c r="A115" s="96">
         <v>1</v>
       </c>
-      <c r="B115" s="143" t="s">
+      <c r="B115" s="293" t="s">
         <v>324</v>
       </c>
-      <c r="C115" s="143"/>
+      <c r="C115" s="293"/>
       <c r="D115" s="99" t="s">
         <v>325</v>
       </c>
       <c r="E115" s="98" t="s">
         <v>201</v>
       </c>
-      <c r="F115" s="151" t="s">
+      <c r="F115" s="291" t="s">
         <v>326</v>
       </c>
-      <c r="G115" s="151"/>
+      <c r="G115" s="291"/>
       <c r="H115" s="99" t="s">
         <v>327</v>
       </c>
@@ -25050,20 +25001,20 @@
       <c r="A116" s="96">
         <v>2</v>
       </c>
-      <c r="B116" s="143" t="s">
+      <c r="B116" s="293" t="s">
         <v>328</v>
       </c>
-      <c r="C116" s="143"/>
+      <c r="C116" s="293"/>
       <c r="D116" s="97" t="s">
         <v>329</v>
       </c>
       <c r="E116" s="98" t="s">
         <v>101</v>
       </c>
-      <c r="F116" s="148" t="s">
+      <c r="F116" s="303" t="s">
         <v>330</v>
       </c>
-      <c r="G116" s="148"/>
+      <c r="G116" s="303"/>
       <c r="H116" s="99" t="s">
         <v>331</v>
       </c>
@@ -25072,40 +25023,40 @@
       <c r="A117" s="96">
         <v>3</v>
       </c>
-      <c r="B117" s="145" t="s">
+      <c r="B117" s="294" t="s">
         <v>332</v>
       </c>
-      <c r="C117" s="145"/>
+      <c r="C117" s="294"/>
       <c r="D117" s="97" t="s">
         <v>333</v>
       </c>
       <c r="E117" s="98" t="s">
         <v>208</v>
       </c>
-      <c r="F117" s="146" t="s">
+      <c r="F117" s="302" t="s">
         <v>334</v>
       </c>
-      <c r="G117" s="146"/>
+      <c r="G117" s="302"/>
       <c r="H117" s="99"/>
     </row>
-    <row r="118" spans="1:8" ht="267.75">
+    <row r="118" spans="1:8" ht="229.5">
       <c r="A118" s="96">
         <v>4</v>
       </c>
-      <c r="B118" s="147" t="s">
+      <c r="B118" s="290" t="s">
         <v>335</v>
       </c>
-      <c r="C118" s="147"/>
+      <c r="C118" s="290"/>
       <c r="D118" s="97" t="s">
         <v>336</v>
       </c>
       <c r="E118" s="98" t="s">
         <v>208</v>
       </c>
-      <c r="F118" s="151" t="s">
+      <c r="F118" s="291" t="s">
         <v>337</v>
       </c>
-      <c r="G118" s="151"/>
+      <c r="G118" s="291"/>
       <c r="H118" s="99" t="s">
         <v>338</v>
       </c>
@@ -25114,20 +25065,20 @@
       <c r="A119" s="96">
         <v>5</v>
       </c>
-      <c r="B119" s="143" t="s">
+      <c r="B119" s="293" t="s">
         <v>339</v>
       </c>
-      <c r="C119" s="143"/>
+      <c r="C119" s="293"/>
       <c r="D119" s="97" t="s">
         <v>340</v>
       </c>
       <c r="E119" s="98" t="s">
         <v>101</v>
       </c>
-      <c r="F119" s="144" t="s">
+      <c r="F119" s="295" t="s">
         <v>341</v>
       </c>
-      <c r="G119" s="144"/>
+      <c r="G119" s="295"/>
       <c r="H119" s="99" t="s">
         <v>342</v>
       </c>
@@ -25136,20 +25087,20 @@
       <c r="A120" s="103">
         <v>6</v>
       </c>
-      <c r="B120" s="145" t="s">
+      <c r="B120" s="294" t="s">
         <v>343</v>
       </c>
-      <c r="C120" s="145"/>
+      <c r="C120" s="294"/>
       <c r="D120" s="99" t="s">
         <v>344</v>
       </c>
       <c r="E120" s="115" t="s">
         <v>345</v>
       </c>
-      <c r="F120" s="144" t="s">
+      <c r="F120" s="295" t="s">
         <v>346</v>
       </c>
-      <c r="G120" s="144"/>
+      <c r="G120" s="295"/>
       <c r="H120" s="102" t="s">
         <v>347</v>
       </c>
@@ -25192,42 +25143,42 @@
       <c r="A123" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B123" s="149" t="s">
+      <c r="B123" s="298" t="s">
         <v>85</v>
       </c>
-      <c r="C123" s="149"/>
+      <c r="C123" s="298"/>
       <c r="D123" s="5" t="s">
         <v>86</v>
       </c>
       <c r="E123" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="F123" s="150" t="s">
+      <c r="F123" s="299" t="s">
         <v>88</v>
       </c>
-      <c r="G123" s="150"/>
+      <c r="G123" s="299"/>
       <c r="H123" s="5" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="124" spans="1:8" ht="204">
+    <row r="124" spans="1:8" ht="178.5">
       <c r="A124" s="96">
         <v>1</v>
       </c>
-      <c r="B124" s="143" t="s">
+      <c r="B124" s="293" t="s">
         <v>348</v>
       </c>
-      <c r="C124" s="143"/>
-      <c r="D124" s="361" t="s">
+      <c r="C124" s="293"/>
+      <c r="D124" s="170" t="s">
         <v>349</v>
       </c>
-      <c r="E124" s="362" t="s">
+      <c r="E124" s="171" t="s">
         <v>201</v>
       </c>
-      <c r="F124" s="151" t="s">
+      <c r="F124" s="291" t="s">
         <v>350</v>
       </c>
-      <c r="G124" s="151"/>
+      <c r="G124" s="291"/>
       <c r="H124" s="99" t="s">
         <v>351</v>
       </c>
@@ -25236,20 +25187,20 @@
       <c r="A125" s="96">
         <v>2</v>
       </c>
-      <c r="B125" s="143" t="s">
+      <c r="B125" s="293" t="s">
         <v>352</v>
       </c>
-      <c r="C125" s="143"/>
-      <c r="D125" s="361" t="s">
+      <c r="C125" s="293"/>
+      <c r="D125" s="170" t="s">
         <v>349</v>
       </c>
-      <c r="E125" s="362" t="s">
+      <c r="E125" s="171" t="s">
         <v>101</v>
       </c>
-      <c r="F125" s="148" t="s">
+      <c r="F125" s="303" t="s">
         <v>353</v>
       </c>
-      <c r="G125" s="148"/>
+      <c r="G125" s="303"/>
       <c r="H125" s="99" t="s">
         <v>331</v>
       </c>
@@ -25258,40 +25209,40 @@
       <c r="A126" s="96">
         <v>3</v>
       </c>
-      <c r="B126" s="145" t="s">
+      <c r="B126" s="294" t="s">
         <v>354</v>
       </c>
-      <c r="C126" s="145"/>
-      <c r="D126" s="363" t="s">
+      <c r="C126" s="294"/>
+      <c r="D126" s="172" t="s">
         <v>355</v>
       </c>
-      <c r="E126" s="362" t="s">
+      <c r="E126" s="171" t="s">
         <v>208</v>
       </c>
-      <c r="F126" s="146" t="s">
+      <c r="F126" s="302" t="s">
         <v>356</v>
       </c>
-      <c r="G126" s="146"/>
+      <c r="G126" s="302"/>
       <c r="H126" s="99"/>
     </row>
-    <row r="127" spans="1:8" ht="267.75">
+    <row r="127" spans="1:8" ht="242.25">
       <c r="A127" s="96">
         <v>4</v>
       </c>
-      <c r="B127" s="147" t="s">
+      <c r="B127" s="290" t="s">
         <v>357</v>
       </c>
-      <c r="C127" s="147"/>
-      <c r="D127" s="363" t="s">
+      <c r="C127" s="290"/>
+      <c r="D127" s="172" t="s">
         <v>358</v>
       </c>
-      <c r="E127" s="362" t="s">
+      <c r="E127" s="171" t="s">
         <v>208</v>
       </c>
-      <c r="F127" s="148" t="s">
+      <c r="F127" s="303" t="s">
         <v>359</v>
       </c>
-      <c r="G127" s="148"/>
+      <c r="G127" s="303"/>
       <c r="H127" s="99" t="s">
         <v>360</v>
       </c>
@@ -25300,20 +25251,20 @@
       <c r="A128" s="96">
         <v>5</v>
       </c>
-      <c r="B128" s="143" t="s">
+      <c r="B128" s="293" t="s">
         <v>361</v>
       </c>
-      <c r="C128" s="143"/>
+      <c r="C128" s="293"/>
       <c r="D128" s="97" t="s">
         <v>362</v>
       </c>
       <c r="E128" s="98" t="s">
         <v>101</v>
       </c>
-      <c r="F128" s="151" t="s">
+      <c r="F128" s="291" t="s">
         <v>363</v>
       </c>
-      <c r="G128" s="151"/>
+      <c r="G128" s="291"/>
       <c r="H128" s="99" t="s">
         <v>364</v>
       </c>
@@ -25322,20 +25273,20 @@
       <c r="A129" s="103">
         <v>6</v>
       </c>
-      <c r="B129" s="144" t="s">
+      <c r="B129" s="295" t="s">
         <v>365</v>
       </c>
-      <c r="C129" s="144"/>
+      <c r="C129" s="295"/>
       <c r="D129" s="99" t="s">
         <v>366</v>
       </c>
       <c r="E129" s="115" t="s">
         <v>345</v>
       </c>
-      <c r="F129" s="144" t="s">
+      <c r="F129" s="295" t="s">
         <v>367</v>
       </c>
-      <c r="G129" s="144"/>
+      <c r="G129" s="295"/>
       <c r="H129" s="102" t="s">
         <v>347</v>
       </c>
@@ -25388,20 +25339,20 @@
       <c r="A133" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B133" s="149" t="s">
+      <c r="B133" s="298" t="s">
         <v>85</v>
       </c>
-      <c r="C133" s="149"/>
+      <c r="C133" s="298"/>
       <c r="D133" s="5" t="s">
         <v>86</v>
       </c>
       <c r="E133" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="F133" s="150" t="s">
+      <c r="F133" s="299" t="s">
         <v>88</v>
       </c>
-      <c r="G133" s="150"/>
+      <c r="G133" s="299"/>
       <c r="H133" s="5" t="s">
         <v>89</v>
       </c>
@@ -25410,60 +25361,60 @@
       <c r="A134" s="113">
         <v>1</v>
       </c>
-      <c r="B134" s="143" t="s">
+      <c r="B134" s="293" t="s">
         <v>368</v>
       </c>
-      <c r="C134" s="143"/>
+      <c r="C134" s="293"/>
       <c r="D134" s="106" t="s">
         <v>369</v>
       </c>
       <c r="E134" s="100" t="s">
         <v>321</v>
       </c>
-      <c r="F134" s="147" t="s">
+      <c r="F134" s="290" t="s">
         <v>370</v>
       </c>
-      <c r="G134" s="147"/>
+      <c r="G134" s="290"/>
       <c r="H134" s="99"/>
     </row>
     <row r="135" spans="1:8">
       <c r="A135" s="113">
         <v>2</v>
       </c>
-      <c r="B135" s="145" t="s">
+      <c r="B135" s="294" t="s">
         <v>371</v>
       </c>
-      <c r="C135" s="145"/>
+      <c r="C135" s="294"/>
       <c r="D135" s="118" t="s">
         <v>372</v>
       </c>
       <c r="E135" s="100" t="s">
         <v>101</v>
       </c>
-      <c r="F135" s="145" t="s">
+      <c r="F135" s="294" t="s">
         <v>373</v>
       </c>
-      <c r="G135" s="145"/>
+      <c r="G135" s="294"/>
       <c r="H135" s="99"/>
     </row>
     <row r="136" spans="1:8" ht="63.75">
       <c r="A136" s="113">
         <v>3</v>
       </c>
-      <c r="B136" s="147" t="s">
+      <c r="B136" s="290" t="s">
         <v>374</v>
       </c>
-      <c r="C136" s="147"/>
+      <c r="C136" s="290"/>
       <c r="D136" s="91" t="s">
         <v>375</v>
       </c>
       <c r="E136" s="100" t="s">
         <v>100</v>
       </c>
-      <c r="F136" s="152" t="s">
+      <c r="F136" s="305" t="s">
         <v>376</v>
       </c>
-      <c r="G136" s="152"/>
+      <c r="G136" s="305"/>
       <c r="H136" s="100" t="s">
         <v>377</v>
       </c>
@@ -25472,10 +25423,10 @@
       <c r="A137" s="113">
         <v>4</v>
       </c>
-      <c r="B137" s="155" t="s">
+      <c r="B137" s="304" t="s">
         <v>378</v>
       </c>
-      <c r="C137" s="145"/>
+      <c r="C137" s="294"/>
       <c r="D137" s="91" t="s">
         <v>379</v>
       </c>
@@ -25494,20 +25445,20 @@
       <c r="A138" s="113">
         <v>5</v>
       </c>
-      <c r="B138" s="144" t="s">
+      <c r="B138" s="295" t="s">
         <v>383</v>
       </c>
-      <c r="C138" s="144"/>
+      <c r="C138" s="295"/>
       <c r="D138" s="99" t="s">
         <v>384</v>
       </c>
       <c r="E138" s="100" t="s">
         <v>201</v>
       </c>
-      <c r="F138" s="145" t="s">
+      <c r="F138" s="294" t="s">
         <v>385</v>
       </c>
-      <c r="G138" s="145"/>
+      <c r="G138" s="294"/>
       <c r="H138" s="119" t="s">
         <v>386</v>
       </c>
@@ -25550,20 +25501,20 @@
       <c r="A141" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B141" s="149" t="s">
+      <c r="B141" s="298" t="s">
         <v>85</v>
       </c>
-      <c r="C141" s="149"/>
+      <c r="C141" s="298"/>
       <c r="D141" s="5" t="s">
         <v>86</v>
       </c>
       <c r="E141" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="F141" s="150" t="s">
+      <c r="F141" s="299" t="s">
         <v>88</v>
       </c>
-      <c r="G141" s="150"/>
+      <c r="G141" s="299"/>
       <c r="H141" s="5" t="s">
         <v>89</v>
       </c>
@@ -25572,40 +25523,40 @@
       <c r="A142" s="113">
         <v>1</v>
       </c>
-      <c r="B142" s="143" t="s">
+      <c r="B142" s="293" t="s">
         <v>387</v>
       </c>
-      <c r="C142" s="143"/>
+      <c r="C142" s="293"/>
       <c r="D142" s="99" t="s">
         <v>388</v>
       </c>
       <c r="E142" s="100" t="s">
         <v>321</v>
       </c>
-      <c r="F142" s="144" t="s">
+      <c r="F142" s="295" t="s">
         <v>389</v>
       </c>
-      <c r="G142" s="144"/>
+      <c r="G142" s="295"/>
       <c r="H142" s="99"/>
     </row>
-    <row r="143" spans="1:8" ht="76.5">
+    <row r="143" spans="1:8" ht="63.75">
       <c r="A143" s="113">
         <v>2</v>
       </c>
-      <c r="B143" s="145" t="s">
+      <c r="B143" s="294" t="s">
         <v>390</v>
       </c>
-      <c r="C143" s="145"/>
+      <c r="C143" s="294"/>
       <c r="D143" s="102" t="s">
         <v>391</v>
       </c>
       <c r="E143" s="100" t="s">
         <v>101</v>
       </c>
-      <c r="F143" s="146" t="s">
+      <c r="F143" s="302" t="s">
         <v>392</v>
       </c>
-      <c r="G143" s="146"/>
+      <c r="G143" s="302"/>
       <c r="H143" s="102" t="s">
         <v>393</v>
       </c>
@@ -25614,20 +25565,20 @@
       <c r="A144" s="113">
         <v>3</v>
       </c>
-      <c r="B144" s="147" t="s">
+      <c r="B144" s="290" t="s">
         <v>394</v>
       </c>
-      <c r="C144" s="147"/>
+      <c r="C144" s="290"/>
       <c r="D144" s="97" t="s">
         <v>375</v>
       </c>
       <c r="E144" s="100" t="s">
         <v>100</v>
       </c>
-      <c r="F144" s="148" t="s">
+      <c r="F144" s="303" t="s">
         <v>376</v>
       </c>
-      <c r="G144" s="148"/>
+      <c r="G144" s="303"/>
       <c r="H144" s="100" t="s">
         <v>377</v>
       </c>
@@ -25636,40 +25587,40 @@
       <c r="A145" s="113">
         <v>4</v>
       </c>
-      <c r="B145" s="151" t="s">
+      <c r="B145" s="291" t="s">
         <v>395</v>
       </c>
-      <c r="C145" s="151"/>
+      <c r="C145" s="291"/>
       <c r="D145" s="97" t="s">
         <v>396</v>
       </c>
       <c r="E145" s="100" t="s">
         <v>380</v>
       </c>
-      <c r="F145" s="146" t="s">
+      <c r="F145" s="302" t="s">
         <v>397</v>
       </c>
-      <c r="G145" s="146"/>
+      <c r="G145" s="302"/>
       <c r="H145" s="99"/>
     </row>
     <row r="146" spans="1:8" ht="51">
       <c r="A146" s="113">
         <v>5</v>
       </c>
-      <c r="B146" s="145" t="s">
+      <c r="B146" s="294" t="s">
         <v>398</v>
       </c>
-      <c r="C146" s="145"/>
+      <c r="C146" s="294"/>
       <c r="D146" s="99" t="s">
         <v>399</v>
       </c>
       <c r="E146" s="100" t="s">
         <v>201</v>
       </c>
-      <c r="F146" s="146" t="s">
+      <c r="F146" s="302" t="s">
         <v>400</v>
       </c>
-      <c r="G146" s="146"/>
+      <c r="G146" s="302"/>
       <c r="H146" s="100" t="s">
         <v>401</v>
       </c>
@@ -25712,20 +25663,20 @@
       <c r="A149" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B149" s="149" t="s">
+      <c r="B149" s="298" t="s">
         <v>85</v>
       </c>
-      <c r="C149" s="149"/>
+      <c r="C149" s="298"/>
       <c r="D149" s="5" t="s">
         <v>86</v>
       </c>
       <c r="E149" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="F149" s="150" t="s">
+      <c r="F149" s="299" t="s">
         <v>88</v>
       </c>
-      <c r="G149" s="150"/>
+      <c r="G149" s="299"/>
       <c r="H149" s="5" t="s">
         <v>89</v>
       </c>
@@ -25734,40 +25685,40 @@
       <c r="A150" s="113">
         <v>1</v>
       </c>
-      <c r="B150" s="145" t="s">
+      <c r="B150" s="294" t="s">
         <v>402</v>
       </c>
-      <c r="C150" s="145"/>
+      <c r="C150" s="294"/>
       <c r="D150" s="120" t="s">
         <v>403</v>
       </c>
       <c r="E150" s="100" t="s">
         <v>291</v>
       </c>
-      <c r="F150" s="144" t="s">
+      <c r="F150" s="295" t="s">
         <v>404</v>
       </c>
-      <c r="G150" s="144"/>
+      <c r="G150" s="295"/>
       <c r="H150" s="3"/>
     </row>
     <row r="151" spans="1:8" ht="89.25">
       <c r="A151" s="113">
         <v>2</v>
       </c>
-      <c r="B151" s="153" t="s">
+      <c r="B151" s="292" t="s">
         <v>405</v>
       </c>
-      <c r="C151" s="143"/>
+      <c r="C151" s="293"/>
       <c r="D151" s="108" t="s">
         <v>403</v>
       </c>
       <c r="E151" s="100" t="s">
         <v>117</v>
       </c>
-      <c r="F151" s="154" t="s">
+      <c r="F151" s="306" t="s">
         <v>406</v>
       </c>
-      <c r="G151" s="151"/>
+      <c r="G151" s="291"/>
       <c r="H151" s="99" t="s">
         <v>407</v>
       </c>
@@ -25776,80 +25727,80 @@
       <c r="A152" s="121">
         <v>3</v>
       </c>
-      <c r="B152" s="155" t="s">
+      <c r="B152" s="304" t="s">
         <v>408</v>
       </c>
-      <c r="C152" s="145"/>
+      <c r="C152" s="294"/>
       <c r="D152" s="122" t="s">
         <v>409</v>
       </c>
       <c r="E152" s="102" t="s">
         <v>313</v>
       </c>
-      <c r="F152" s="146" t="s">
+      <c r="F152" s="302" t="s">
         <v>410</v>
       </c>
-      <c r="G152" s="146"/>
+      <c r="G152" s="302"/>
       <c r="H152" s="3"/>
     </row>
     <row r="153" spans="1:8" ht="25.5">
       <c r="A153" s="113">
         <v>4</v>
       </c>
-      <c r="B153" s="147" t="s">
+      <c r="B153" s="290" t="s">
         <v>411</v>
       </c>
-      <c r="C153" s="147"/>
+      <c r="C153" s="290"/>
       <c r="D153" s="91" t="s">
         <v>412</v>
       </c>
       <c r="E153" s="100" t="s">
         <v>117</v>
       </c>
-      <c r="F153" s="144" t="s">
+      <c r="F153" s="295" t="s">
         <v>413</v>
       </c>
-      <c r="G153" s="144"/>
+      <c r="G153" s="295"/>
       <c r="H153" s="3"/>
     </row>
     <row r="154" spans="1:8" ht="38.25">
       <c r="A154" s="113">
         <v>5</v>
       </c>
-      <c r="B154" s="152" t="s">
+      <c r="B154" s="305" t="s">
         <v>414</v>
       </c>
-      <c r="C154" s="152"/>
+      <c r="C154" s="305"/>
       <c r="D154" s="91" t="s">
         <v>415</v>
       </c>
       <c r="E154" s="100" t="s">
         <v>117</v>
       </c>
-      <c r="F154" s="144" t="s">
+      <c r="F154" s="295" t="s">
         <v>416</v>
       </c>
-      <c r="G154" s="144"/>
+      <c r="G154" s="295"/>
       <c r="H154" s="3"/>
     </row>
-    <row r="155" spans="1:8" ht="76.5">
+    <row r="155" spans="1:8" ht="63.75">
       <c r="A155" s="113">
         <v>6</v>
       </c>
-      <c r="B155" s="147" t="s">
+      <c r="B155" s="290" t="s">
         <v>417</v>
       </c>
-      <c r="C155" s="147"/>
+      <c r="C155" s="290"/>
       <c r="D155" s="97" t="s">
         <v>418</v>
       </c>
       <c r="E155" s="100" t="s">
         <v>302</v>
       </c>
-      <c r="F155" s="151" t="s">
+      <c r="F155" s="291" t="s">
         <v>419</v>
       </c>
-      <c r="G155" s="151"/>
+      <c r="G155" s="291"/>
       <c r="H155" s="100" t="s">
         <v>420</v>
       </c>
@@ -25858,40 +25809,40 @@
       <c r="A156" s="113">
         <v>7</v>
       </c>
-      <c r="B156" s="145" t="s">
+      <c r="B156" s="294" t="s">
         <v>421</v>
       </c>
-      <c r="C156" s="145"/>
+      <c r="C156" s="294"/>
       <c r="D156" s="100" t="s">
         <v>419</v>
       </c>
       <c r="E156" s="100" t="s">
         <v>117</v>
       </c>
-      <c r="F156" s="144" t="s">
+      <c r="F156" s="295" t="s">
         <v>422</v>
       </c>
-      <c r="G156" s="144"/>
+      <c r="G156" s="295"/>
       <c r="H156" s="99"/>
     </row>
     <row r="157" spans="1:8" ht="153">
       <c r="A157" s="113">
         <v>8</v>
       </c>
-      <c r="B157" s="143" t="s">
+      <c r="B157" s="293" t="s">
         <v>423</v>
       </c>
-      <c r="C157" s="143"/>
+      <c r="C157" s="293"/>
       <c r="D157" s="100" t="s">
         <v>424</v>
       </c>
       <c r="E157" s="100" t="s">
         <v>313</v>
       </c>
-      <c r="F157" s="151" t="s">
+      <c r="F157" s="291" t="s">
         <v>425</v>
       </c>
-      <c r="G157" s="151"/>
+      <c r="G157" s="291"/>
       <c r="H157" s="99" t="s">
         <v>426</v>
       </c>
@@ -25900,20 +25851,20 @@
       <c r="A158" s="113">
         <v>9</v>
       </c>
-      <c r="B158" s="144" t="s">
+      <c r="B158" s="295" t="s">
         <v>427</v>
       </c>
-      <c r="C158" s="144"/>
+      <c r="C158" s="295"/>
       <c r="D158" s="99" t="s">
         <v>428</v>
       </c>
       <c r="E158" s="100" t="s">
         <v>321</v>
       </c>
-      <c r="F158" s="144" t="s">
+      <c r="F158" s="295" t="s">
         <v>429</v>
       </c>
-      <c r="G158" s="144"/>
+      <c r="G158" s="295"/>
       <c r="H158" s="102" t="s">
         <v>430</v>
       </c>
@@ -25956,20 +25907,20 @@
       <c r="A161" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B161" s="149" t="s">
+      <c r="B161" s="298" t="s">
         <v>85</v>
       </c>
-      <c r="C161" s="149"/>
+      <c r="C161" s="298"/>
       <c r="D161" s="5" t="s">
         <v>86</v>
       </c>
       <c r="E161" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="F161" s="150" t="s">
+      <c r="F161" s="299" t="s">
         <v>88</v>
       </c>
-      <c r="G161" s="150"/>
+      <c r="G161" s="299"/>
       <c r="H161" s="5" t="s">
         <v>89</v>
       </c>
@@ -25978,40 +25929,40 @@
       <c r="A162" s="103">
         <v>1</v>
       </c>
-      <c r="B162" s="145" t="s">
+      <c r="B162" s="294" t="s">
         <v>431</v>
       </c>
-      <c r="C162" s="145"/>
+      <c r="C162" s="294"/>
       <c r="D162" s="102" t="s">
         <v>432</v>
       </c>
       <c r="E162" s="98" t="s">
         <v>291</v>
       </c>
-      <c r="F162" s="144" t="s">
+      <c r="F162" s="295" t="s">
         <v>433</v>
       </c>
-      <c r="G162" s="144"/>
+      <c r="G162" s="295"/>
       <c r="H162" s="99"/>
     </row>
     <row r="163" spans="1:8" ht="89.25">
       <c r="A163" s="103">
         <v>2</v>
       </c>
-      <c r="B163" s="143" t="s">
+      <c r="B163" s="293" t="s">
         <v>434</v>
       </c>
-      <c r="C163" s="143"/>
+      <c r="C163" s="293"/>
       <c r="D163" s="100" t="s">
         <v>432</v>
       </c>
       <c r="E163" s="98" t="s">
         <v>313</v>
       </c>
-      <c r="F163" s="151" t="s">
+      <c r="F163" s="291" t="s">
         <v>435</v>
       </c>
-      <c r="G163" s="151"/>
+      <c r="G163" s="291"/>
       <c r="H163" s="99" t="s">
         <v>436</v>
       </c>
@@ -26020,80 +25971,80 @@
       <c r="A164" s="103">
         <v>3</v>
       </c>
-      <c r="B164" s="143" t="s">
+      <c r="B164" s="293" t="s">
         <v>437</v>
       </c>
-      <c r="C164" s="143"/>
+      <c r="C164" s="293"/>
       <c r="D164" s="99" t="s">
         <v>438</v>
       </c>
       <c r="E164" s="98" t="s">
         <v>313</v>
       </c>
-      <c r="F164" s="151" t="s">
+      <c r="F164" s="291" t="s">
         <v>439</v>
       </c>
-      <c r="G164" s="151"/>
+      <c r="G164" s="291"/>
       <c r="H164" s="99"/>
     </row>
     <row r="165" spans="1:8" ht="25.5">
       <c r="A165" s="103">
         <v>4</v>
       </c>
-      <c r="B165" s="147" t="s">
+      <c r="B165" s="290" t="s">
         <v>440</v>
       </c>
-      <c r="C165" s="147"/>
+      <c r="C165" s="290"/>
       <c r="D165" s="99" t="s">
         <v>441</v>
       </c>
       <c r="E165" s="98" t="s">
         <v>117</v>
       </c>
-      <c r="F165" s="144" t="s">
+      <c r="F165" s="295" t="s">
         <v>442</v>
       </c>
-      <c r="G165" s="144"/>
+      <c r="G165" s="295"/>
       <c r="H165" s="99"/>
     </row>
     <row r="166" spans="1:8" ht="38.25">
       <c r="A166" s="103">
         <v>5</v>
       </c>
-      <c r="B166" s="145" t="s">
+      <c r="B166" s="294" t="s">
         <v>443</v>
       </c>
-      <c r="C166" s="145"/>
+      <c r="C166" s="294"/>
       <c r="D166" s="99" t="s">
         <v>444</v>
       </c>
       <c r="E166" s="98" t="s">
         <v>313</v>
       </c>
-      <c r="F166" s="144" t="s">
+      <c r="F166" s="295" t="s">
         <v>445</v>
       </c>
-      <c r="G166" s="144"/>
+      <c r="G166" s="295"/>
       <c r="H166" s="99"/>
     </row>
-    <row r="167" spans="1:8" ht="191.25">
+    <row r="167" spans="1:8" ht="165.75">
       <c r="A167" s="103">
         <v>6</v>
       </c>
-      <c r="B167" s="147" t="s">
+      <c r="B167" s="290" t="s">
         <v>446</v>
       </c>
-      <c r="C167" s="147"/>
+      <c r="C167" s="290"/>
       <c r="D167" s="97" t="s">
         <v>447</v>
       </c>
       <c r="E167" s="98" t="s">
         <v>208</v>
       </c>
-      <c r="F167" s="151" t="s">
+      <c r="F167" s="291" t="s">
         <v>448</v>
       </c>
-      <c r="G167" s="151"/>
+      <c r="G167" s="291"/>
       <c r="H167" s="102" t="s">
         <v>449</v>
       </c>
@@ -26102,40 +26053,40 @@
       <c r="A168" s="103">
         <v>7</v>
       </c>
-      <c r="B168" s="145" t="s">
+      <c r="B168" s="294" t="s">
         <v>450</v>
       </c>
-      <c r="C168" s="145"/>
+      <c r="C168" s="294"/>
       <c r="D168" s="100" t="s">
         <v>451</v>
       </c>
       <c r="E168" s="98" t="s">
         <v>208</v>
       </c>
-      <c r="F168" s="144" t="s">
+      <c r="F168" s="295" t="s">
         <v>452</v>
       </c>
-      <c r="G168" s="144"/>
+      <c r="G168" s="295"/>
       <c r="H168" s="99"/>
     </row>
-    <row r="169" spans="1:8" ht="178.5">
+    <row r="169" spans="1:8" ht="165.75">
       <c r="A169" s="103">
         <v>8</v>
       </c>
-      <c r="B169" s="143" t="s">
+      <c r="B169" s="293" t="s">
         <v>453</v>
       </c>
-      <c r="C169" s="143"/>
+      <c r="C169" s="293"/>
       <c r="D169" s="100" t="s">
         <v>454</v>
       </c>
       <c r="E169" s="98" t="s">
         <v>313</v>
       </c>
-      <c r="F169" s="151" t="s">
+      <c r="F169" s="291" t="s">
         <v>455</v>
       </c>
-      <c r="G169" s="151"/>
+      <c r="G169" s="291"/>
       <c r="H169" s="99" t="s">
         <v>456</v>
       </c>
@@ -26144,20 +26095,20 @@
       <c r="A170" s="103">
         <v>9</v>
       </c>
-      <c r="B170" s="144" t="s">
+      <c r="B170" s="295" t="s">
         <v>457</v>
       </c>
-      <c r="C170" s="144"/>
+      <c r="C170" s="295"/>
       <c r="D170" s="99" t="s">
         <v>458</v>
       </c>
       <c r="E170" s="123" t="s">
         <v>321</v>
       </c>
-      <c r="F170" s="144" t="s">
+      <c r="F170" s="295" t="s">
         <v>459</v>
       </c>
-      <c r="G170" s="144"/>
+      <c r="G170" s="295"/>
       <c r="H170" s="102" t="s">
         <v>460</v>
       </c>
@@ -26200,20 +26151,20 @@
       <c r="A173" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B173" s="149" t="s">
+      <c r="B173" s="298" t="s">
         <v>85</v>
       </c>
-      <c r="C173" s="149"/>
+      <c r="C173" s="298"/>
       <c r="D173" s="5" t="s">
         <v>86</v>
       </c>
       <c r="E173" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="F173" s="150" t="s">
+      <c r="F173" s="299" t="s">
         <v>88</v>
       </c>
-      <c r="G173" s="150"/>
+      <c r="G173" s="299"/>
       <c r="H173" s="5" t="s">
         <v>89</v>
       </c>
@@ -26222,112 +26173,112 @@
       <c r="A174" s="96">
         <v>1</v>
       </c>
-      <c r="B174" s="143" t="s">
+      <c r="B174" s="293" t="s">
         <v>461</v>
       </c>
-      <c r="C174" s="143"/>
+      <c r="C174" s="293"/>
       <c r="D174" s="110" t="s">
         <v>462</v>
       </c>
       <c r="E174" s="98" t="s">
         <v>345</v>
       </c>
-      <c r="F174" s="144" t="s">
+      <c r="F174" s="295" t="s">
         <v>463</v>
       </c>
-      <c r="G174" s="144"/>
+      <c r="G174" s="295"/>
       <c r="H174" s="3"/>
     </row>
     <row r="175" spans="1:8" ht="63.75">
       <c r="A175" s="96">
         <v>2</v>
       </c>
-      <c r="B175" s="143" t="s">
+      <c r="B175" s="293" t="s">
         <v>464</v>
       </c>
-      <c r="C175" s="143"/>
+      <c r="C175" s="293"/>
       <c r="D175" s="99" t="s">
         <v>465</v>
       </c>
       <c r="E175" s="98" t="s">
         <v>208</v>
       </c>
-      <c r="F175" s="151" t="s">
+      <c r="F175" s="291" t="s">
         <v>466</v>
       </c>
-      <c r="G175" s="151"/>
+      <c r="G175" s="291"/>
       <c r="H175" s="3"/>
     </row>
     <row r="176" spans="1:8" ht="63.75">
       <c r="A176" s="96">
         <v>3</v>
       </c>
-      <c r="B176" s="147" t="s">
+      <c r="B176" s="290" t="s">
         <v>467</v>
       </c>
-      <c r="C176" s="147"/>
+      <c r="C176" s="290"/>
       <c r="D176" s="97" t="s">
         <v>468</v>
       </c>
       <c r="E176" s="98" t="s">
         <v>208</v>
       </c>
-      <c r="F176" s="151" t="s">
+      <c r="F176" s="291" t="s">
         <v>469</v>
       </c>
-      <c r="G176" s="151"/>
+      <c r="G176" s="291"/>
       <c r="H176" s="3"/>
     </row>
     <row r="177" spans="1:8">
       <c r="A177" s="99"/>
-      <c r="B177" s="147" t="s">
+      <c r="B177" s="290" t="s">
         <v>470</v>
       </c>
-      <c r="C177" s="147"/>
+      <c r="C177" s="290"/>
       <c r="D177" s="99"/>
       <c r="E177" s="99"/>
-      <c r="F177" s="146"/>
-      <c r="G177" s="146"/>
+      <c r="F177" s="302"/>
+      <c r="G177" s="302"/>
       <c r="H177" s="3"/>
     </row>
     <row r="178" spans="1:8" ht="38.25">
       <c r="A178" s="96">
         <v>4</v>
       </c>
-      <c r="B178" s="143" t="s">
+      <c r="B178" s="293" t="s">
         <v>471</v>
       </c>
-      <c r="C178" s="143"/>
+      <c r="C178" s="293"/>
       <c r="D178" s="102" t="s">
         <v>472</v>
       </c>
       <c r="E178" s="98" t="s">
         <v>101</v>
       </c>
-      <c r="F178" s="144" t="s">
+      <c r="F178" s="295" t="s">
         <v>473</v>
       </c>
-      <c r="G178" s="144"/>
+      <c r="G178" s="295"/>
       <c r="H178" s="99"/>
     </row>
     <row r="179" spans="1:8" ht="51">
       <c r="A179" s="96">
         <v>5</v>
       </c>
-      <c r="B179" s="145" t="s">
+      <c r="B179" s="294" t="s">
         <v>474</v>
       </c>
-      <c r="C179" s="145"/>
+      <c r="C179" s="294"/>
       <c r="D179" s="99" t="s">
         <v>475</v>
       </c>
       <c r="E179" s="98" t="s">
         <v>345</v>
       </c>
-      <c r="F179" s="144" t="s">
+      <c r="F179" s="295" t="s">
         <v>476</v>
       </c>
-      <c r="G179" s="144"/>
+      <c r="G179" s="295"/>
       <c r="H179" s="102" t="s">
         <v>460</v>
       </c>
@@ -26370,20 +26321,20 @@
       <c r="A182" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B182" s="149" t="s">
+      <c r="B182" s="298" t="s">
         <v>85</v>
       </c>
-      <c r="C182" s="149"/>
+      <c r="C182" s="298"/>
       <c r="D182" s="5" t="s">
         <v>86</v>
       </c>
       <c r="E182" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="F182" s="150" t="s">
+      <c r="F182" s="299" t="s">
         <v>88</v>
       </c>
-      <c r="G182" s="150"/>
+      <c r="G182" s="299"/>
       <c r="H182" s="5" t="s">
         <v>89</v>
       </c>
@@ -26392,40 +26343,40 @@
       <c r="A183" s="96">
         <v>1</v>
       </c>
-      <c r="B183" s="143" t="s">
+      <c r="B183" s="293" t="s">
         <v>477</v>
       </c>
-      <c r="C183" s="143"/>
+      <c r="C183" s="293"/>
       <c r="D183" s="97" t="s">
         <v>478</v>
       </c>
       <c r="E183" s="98" t="s">
         <v>201</v>
       </c>
-      <c r="F183" s="146" t="s">
+      <c r="F183" s="302" t="s">
         <v>479</v>
       </c>
-      <c r="G183" s="146"/>
+      <c r="G183" s="302"/>
       <c r="H183" s="99"/>
     </row>
     <row r="184" spans="1:8" ht="76.5">
       <c r="A184" s="96">
         <v>2</v>
       </c>
-      <c r="B184" s="147" t="s">
+      <c r="B184" s="290" t="s">
         <v>480</v>
       </c>
-      <c r="C184" s="147"/>
+      <c r="C184" s="290"/>
       <c r="D184" s="99" t="s">
         <v>481</v>
       </c>
       <c r="E184" s="98" t="s">
         <v>345</v>
       </c>
-      <c r="F184" s="151" t="s">
+      <c r="F184" s="291" t="s">
         <v>482</v>
       </c>
-      <c r="G184" s="151"/>
+      <c r="G184" s="291"/>
       <c r="H184" s="38" t="s">
         <v>483</v>
       </c>
@@ -26434,60 +26385,60 @@
       <c r="A185" s="96">
         <v>3</v>
       </c>
-      <c r="B185" s="145" t="s">
+      <c r="B185" s="294" t="s">
         <v>484</v>
       </c>
-      <c r="C185" s="145"/>
+      <c r="C185" s="294"/>
       <c r="D185" s="97" t="s">
         <v>485</v>
       </c>
       <c r="E185" s="98" t="s">
         <v>345</v>
       </c>
-      <c r="F185" s="146" t="s">
+      <c r="F185" s="302" t="s">
         <v>486</v>
       </c>
-      <c r="G185" s="146"/>
+      <c r="G185" s="302"/>
       <c r="H185" s="99"/>
     </row>
     <row r="186" spans="1:8" ht="38.25">
       <c r="A186" s="96">
         <v>4</v>
       </c>
-      <c r="B186" s="144" t="s">
+      <c r="B186" s="295" t="s">
         <v>487</v>
       </c>
-      <c r="C186" s="144"/>
+      <c r="C186" s="295"/>
       <c r="D186" s="99" t="s">
         <v>488</v>
       </c>
       <c r="E186" s="98" t="s">
         <v>218</v>
       </c>
-      <c r="F186" s="144" t="s">
+      <c r="F186" s="295" t="s">
         <v>489</v>
       </c>
-      <c r="G186" s="144"/>
+      <c r="G186" s="295"/>
       <c r="H186" s="99"/>
     </row>
     <row r="187" spans="1:8" ht="127.5">
       <c r="A187" s="96">
         <v>5</v>
       </c>
-      <c r="B187" s="148" t="s">
+      <c r="B187" s="303" t="s">
         <v>490</v>
       </c>
-      <c r="C187" s="148"/>
+      <c r="C187" s="303"/>
       <c r="D187" s="97" t="s">
         <v>491</v>
       </c>
       <c r="E187" s="98" t="s">
         <v>492</v>
       </c>
-      <c r="F187" s="146" t="s">
+      <c r="F187" s="302" t="s">
         <v>493</v>
       </c>
-      <c r="G187" s="146"/>
+      <c r="G187" s="302"/>
       <c r="H187" s="102" t="s">
         <v>239</v>
       </c>
@@ -26496,60 +26447,60 @@
       <c r="A188" s="96">
         <v>6</v>
       </c>
-      <c r="B188" s="144" t="s">
+      <c r="B188" s="295" t="s">
         <v>494</v>
       </c>
-      <c r="C188" s="144"/>
+      <c r="C188" s="295"/>
       <c r="D188" s="97" t="s">
         <v>495</v>
       </c>
       <c r="E188" s="98" t="s">
         <v>201</v>
       </c>
-      <c r="F188" s="144" t="s">
+      <c r="F188" s="295" t="s">
         <v>496</v>
       </c>
-      <c r="G188" s="144"/>
+      <c r="G188" s="295"/>
       <c r="H188" s="97"/>
     </row>
     <row r="189" spans="1:8">
       <c r="A189" s="124">
         <v>7</v>
       </c>
-      <c r="B189" s="144" t="s">
+      <c r="B189" s="295" t="s">
         <v>497</v>
       </c>
-      <c r="C189" s="144"/>
+      <c r="C189" s="295"/>
       <c r="D189" s="102" t="s">
         <v>498</v>
       </c>
       <c r="E189" s="38" t="s">
         <v>499</v>
       </c>
-      <c r="F189" s="144" t="s">
+      <c r="F189" s="295" t="s">
         <v>500</v>
       </c>
-      <c r="G189" s="144"/>
+      <c r="G189" s="295"/>
       <c r="H189" s="99"/>
     </row>
-    <row r="190" spans="1:8" ht="38.25">
+    <row r="190" spans="1:8" ht="25.5">
       <c r="A190" s="96">
         <v>8</v>
       </c>
-      <c r="B190" s="144" t="s">
+      <c r="B190" s="295" t="s">
         <v>501</v>
       </c>
-      <c r="C190" s="144"/>
+      <c r="C190" s="295"/>
       <c r="D190" s="100" t="s">
         <v>502</v>
       </c>
       <c r="E190" s="98" t="s">
         <v>218</v>
       </c>
-      <c r="F190" s="144" t="s">
+      <c r="F190" s="295" t="s">
         <v>503</v>
       </c>
-      <c r="G190" s="144"/>
+      <c r="G190" s="295"/>
       <c r="H190" s="125" t="s">
         <v>504</v>
       </c>
@@ -26558,58 +26509,58 @@
       <c r="A191" s="96">
         <v>9</v>
       </c>
-      <c r="B191" s="151" t="s">
+      <c r="B191" s="291" t="s">
         <v>505</v>
       </c>
-      <c r="C191" s="151"/>
+      <c r="C191" s="291"/>
       <c r="D191" s="99"/>
       <c r="E191" s="98" t="s">
         <v>201</v>
       </c>
-      <c r="F191" s="144" t="s">
+      <c r="F191" s="295" t="s">
         <v>506</v>
       </c>
-      <c r="G191" s="144"/>
+      <c r="G191" s="295"/>
       <c r="H191" s="99"/>
     </row>
     <row r="192" spans="1:8" ht="191.25">
       <c r="A192" s="103">
         <v>10</v>
       </c>
-      <c r="B192" s="147" t="s">
+      <c r="B192" s="290" t="s">
         <v>507</v>
       </c>
-      <c r="C192" s="147"/>
+      <c r="C192" s="290"/>
       <c r="D192" s="99" t="s">
         <v>508</v>
       </c>
       <c r="E192" s="126" t="s">
         <v>218</v>
       </c>
-      <c r="F192" s="144" t="s">
+      <c r="F192" s="295" t="s">
         <v>509</v>
       </c>
-      <c r="G192" s="144"/>
+      <c r="G192" s="295"/>
       <c r="H192" s="99"/>
     </row>
     <row r="193" spans="1:8" ht="63.75">
       <c r="A193" s="103">
         <v>11</v>
       </c>
-      <c r="B193" s="145" t="s">
+      <c r="B193" s="294" t="s">
         <v>510</v>
       </c>
-      <c r="C193" s="145"/>
+      <c r="C193" s="294"/>
       <c r="D193" s="99" t="s">
         <v>511</v>
       </c>
       <c r="E193" s="126" t="s">
         <v>345</v>
       </c>
-      <c r="F193" s="146" t="s">
+      <c r="F193" s="302" t="s">
         <v>512</v>
       </c>
-      <c r="G193" s="146"/>
+      <c r="G193" s="302"/>
       <c r="H193" s="38" t="s">
         <v>513</v>
       </c>
@@ -26618,20 +26569,20 @@
       <c r="A194" s="103">
         <v>12</v>
       </c>
-      <c r="B194" s="143" t="s">
+      <c r="B194" s="293" t="s">
         <v>514</v>
       </c>
-      <c r="C194" s="143"/>
+      <c r="C194" s="293"/>
       <c r="D194" s="97" t="s">
         <v>515</v>
       </c>
       <c r="E194" s="126" t="s">
         <v>101</v>
       </c>
-      <c r="F194" s="151" t="s">
+      <c r="F194" s="291" t="s">
         <v>516</v>
       </c>
-      <c r="G194" s="151"/>
+      <c r="G194" s="291"/>
       <c r="H194" s="99" t="s">
         <v>517</v>
       </c>
@@ -26640,20 +26591,20 @@
       <c r="A195" s="96">
         <v>13</v>
       </c>
-      <c r="B195" s="144" t="s">
+      <c r="B195" s="295" t="s">
         <v>518</v>
       </c>
-      <c r="C195" s="144"/>
+      <c r="C195" s="295"/>
       <c r="D195" s="99" t="s">
         <v>519</v>
       </c>
       <c r="E195" s="115" t="s">
         <v>345</v>
       </c>
-      <c r="F195" s="144" t="s">
+      <c r="F195" s="295" t="s">
         <v>520</v>
       </c>
-      <c r="G195" s="144"/>
+      <c r="G195" s="295"/>
       <c r="H195" s="99" t="s">
         <v>521</v>
       </c>
@@ -26696,20 +26647,20 @@
       <c r="A198" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B198" s="149" t="s">
+      <c r="B198" s="298" t="s">
         <v>85</v>
       </c>
-      <c r="C198" s="149"/>
+      <c r="C198" s="298"/>
       <c r="D198" s="5" t="s">
         <v>86</v>
       </c>
       <c r="E198" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="F198" s="150" t="s">
+      <c r="F198" s="299" t="s">
         <v>88</v>
       </c>
-      <c r="G198" s="150"/>
+      <c r="G198" s="299"/>
       <c r="H198" s="5" t="s">
         <v>89</v>
       </c>
@@ -26718,20 +26669,20 @@
       <c r="A199" s="96">
         <v>1</v>
       </c>
-      <c r="B199" s="143" t="s">
+      <c r="B199" s="293" t="s">
         <v>522</v>
       </c>
-      <c r="C199" s="143"/>
+      <c r="C199" s="293"/>
       <c r="D199" s="110" t="s">
         <v>523</v>
       </c>
       <c r="E199" s="98" t="s">
         <v>201</v>
       </c>
-      <c r="F199" s="146" t="s">
+      <c r="F199" s="302" t="s">
         <v>524</v>
       </c>
-      <c r="G199" s="146"/>
+      <c r="G199" s="302"/>
       <c r="H199" s="102" t="s">
         <v>525</v>
       </c>
@@ -26740,20 +26691,20 @@
       <c r="A200" s="96">
         <v>2</v>
       </c>
-      <c r="B200" s="147" t="s">
+      <c r="B200" s="290" t="s">
         <v>526</v>
       </c>
-      <c r="C200" s="147"/>
+      <c r="C200" s="290"/>
       <c r="D200" s="110" t="s">
         <v>523</v>
       </c>
       <c r="E200" s="98" t="s">
         <v>345</v>
       </c>
-      <c r="F200" s="151" t="s">
+      <c r="F200" s="291" t="s">
         <v>482</v>
       </c>
-      <c r="G200" s="151"/>
+      <c r="G200" s="291"/>
       <c r="H200" s="38" t="s">
         <v>483</v>
       </c>
@@ -26762,60 +26713,60 @@
       <c r="A201" s="96">
         <v>3</v>
       </c>
-      <c r="B201" s="145" t="s">
+      <c r="B201" s="294" t="s">
         <v>527</v>
       </c>
-      <c r="C201" s="145"/>
+      <c r="C201" s="294"/>
       <c r="D201" s="97" t="s">
         <v>485</v>
       </c>
       <c r="E201" s="98" t="s">
         <v>345</v>
       </c>
-      <c r="F201" s="146" t="s">
+      <c r="F201" s="302" t="s">
         <v>528</v>
       </c>
-      <c r="G201" s="146"/>
+      <c r="G201" s="302"/>
       <c r="H201" s="99"/>
     </row>
     <row r="202" spans="1:8" ht="89.25">
       <c r="A202" s="96">
         <v>4</v>
       </c>
-      <c r="B202" s="151" t="s">
+      <c r="B202" s="291" t="s">
         <v>529</v>
       </c>
-      <c r="C202" s="151"/>
+      <c r="C202" s="291"/>
       <c r="D202" s="97" t="s">
         <v>530</v>
       </c>
       <c r="E202" s="98" t="s">
         <v>218</v>
       </c>
-      <c r="F202" s="146" t="s">
+      <c r="F202" s="302" t="s">
         <v>531</v>
       </c>
-      <c r="G202" s="146"/>
+      <c r="G202" s="302"/>
       <c r="H202" s="99"/>
     </row>
     <row r="203" spans="1:8" ht="89.25">
       <c r="A203" s="96">
         <v>5</v>
       </c>
-      <c r="B203" s="151" t="s">
+      <c r="B203" s="291" t="s">
         <v>532</v>
       </c>
-      <c r="C203" s="151"/>
+      <c r="C203" s="291"/>
       <c r="D203" s="99" t="s">
         <v>530</v>
       </c>
       <c r="E203" s="98" t="s">
         <v>492</v>
       </c>
-      <c r="F203" s="151" t="s">
+      <c r="F203" s="291" t="s">
         <v>533</v>
       </c>
-      <c r="G203" s="151"/>
+      <c r="G203" s="291"/>
       <c r="H203" s="99" t="s">
         <v>534</v>
       </c>
@@ -26824,36 +26775,36 @@
       <c r="A204" s="96">
         <v>6</v>
       </c>
-      <c r="B204" s="144" t="s">
+      <c r="B204" s="295" t="s">
         <v>535</v>
       </c>
-      <c r="C204" s="144"/>
+      <c r="C204" s="295"/>
       <c r="D204" s="99" t="s">
         <v>536</v>
       </c>
       <c r="E204" s="99"/>
-      <c r="F204" s="144" t="s">
+      <c r="F204" s="295" t="s">
         <v>537</v>
       </c>
-      <c r="G204" s="144"/>
+      <c r="G204" s="295"/>
       <c r="H204" s="99"/>
     </row>
     <row r="205" spans="1:8" ht="76.5">
       <c r="A205" s="96">
         <v>7</v>
       </c>
-      <c r="B205" s="144" t="s">
+      <c r="B205" s="295" t="s">
         <v>538</v>
       </c>
-      <c r="C205" s="144"/>
+      <c r="C205" s="295"/>
       <c r="D205" s="99" t="s">
         <v>539</v>
       </c>
       <c r="E205" s="99"/>
-      <c r="F205" s="146" t="s">
+      <c r="F205" s="302" t="s">
         <v>540</v>
       </c>
-      <c r="G205" s="146"/>
+      <c r="G205" s="302"/>
       <c r="H205" s="99"/>
     </row>
     <row r="206" spans="1:8">
@@ -26912,20 +26863,20 @@
       <c r="A210" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B210" s="149" t="s">
+      <c r="B210" s="298" t="s">
         <v>85</v>
       </c>
-      <c r="C210" s="149"/>
+      <c r="C210" s="298"/>
       <c r="D210" s="5" t="s">
         <v>86</v>
       </c>
       <c r="E210" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="F210" s="150" t="s">
+      <c r="F210" s="299" t="s">
         <v>88</v>
       </c>
-      <c r="G210" s="150"/>
+      <c r="G210" s="299"/>
       <c r="H210" s="5" t="s">
         <v>89</v>
       </c>
@@ -26934,20 +26885,20 @@
       <c r="A211" s="96">
         <v>1</v>
       </c>
-      <c r="B211" s="143" t="s">
+      <c r="B211" s="293" t="s">
         <v>541</v>
       </c>
-      <c r="C211" s="143"/>
+      <c r="C211" s="293"/>
       <c r="D211" s="110" t="s">
         <v>542</v>
       </c>
       <c r="E211" s="98" t="s">
         <v>201</v>
       </c>
-      <c r="F211" s="146" t="s">
+      <c r="F211" s="302" t="s">
         <v>543</v>
       </c>
-      <c r="G211" s="146"/>
+      <c r="G211" s="302"/>
       <c r="H211" s="102" t="s">
         <v>544</v>
       </c>
@@ -26956,20 +26907,20 @@
       <c r="A212" s="96">
         <v>2</v>
       </c>
-      <c r="B212" s="147" t="s">
+      <c r="B212" s="290" t="s">
         <v>480</v>
       </c>
-      <c r="C212" s="147"/>
+      <c r="C212" s="290"/>
       <c r="D212" s="99" t="s">
         <v>545</v>
       </c>
       <c r="E212" s="98" t="s">
         <v>345</v>
       </c>
-      <c r="F212" s="151" t="s">
+      <c r="F212" s="291" t="s">
         <v>482</v>
       </c>
-      <c r="G212" s="151"/>
+      <c r="G212" s="291"/>
       <c r="H212" s="38" t="s">
         <v>483</v>
       </c>
@@ -26978,40 +26929,40 @@
       <c r="A213" s="96">
         <v>3</v>
       </c>
-      <c r="B213" s="145" t="s">
+      <c r="B213" s="294" t="s">
         <v>546</v>
       </c>
-      <c r="C213" s="145"/>
+      <c r="C213" s="294"/>
       <c r="D213" s="99" t="s">
         <v>547</v>
       </c>
       <c r="E213" s="98" t="s">
         <v>345</v>
       </c>
-      <c r="F213" s="146" t="s">
+      <c r="F213" s="302" t="s">
         <v>486</v>
       </c>
-      <c r="G213" s="146"/>
+      <c r="G213" s="302"/>
       <c r="H213" s="99"/>
     </row>
     <row r="214" spans="1:8" ht="140.25">
       <c r="A214" s="96">
         <v>4</v>
       </c>
-      <c r="B214" s="151" t="s">
+      <c r="B214" s="291" t="s">
         <v>487</v>
       </c>
-      <c r="C214" s="151"/>
+      <c r="C214" s="291"/>
       <c r="D214" s="110" t="s">
         <v>548</v>
       </c>
       <c r="E214" s="98" t="s">
         <v>218</v>
       </c>
-      <c r="F214" s="151" t="s">
+      <c r="F214" s="291" t="s">
         <v>489</v>
       </c>
-      <c r="G214" s="151"/>
+      <c r="G214" s="291"/>
       <c r="H214" s="99" t="s">
         <v>549</v>
       </c>
@@ -27020,60 +26971,60 @@
       <c r="A215" s="96">
         <v>5</v>
       </c>
-      <c r="B215" s="146" t="s">
+      <c r="B215" s="302" t="s">
         <v>550</v>
       </c>
-      <c r="C215" s="146"/>
+      <c r="C215" s="302"/>
       <c r="D215" s="99" t="s">
         <v>551</v>
       </c>
       <c r="E215" s="98" t="s">
         <v>492</v>
       </c>
-      <c r="F215" s="146" t="s">
+      <c r="F215" s="302" t="s">
         <v>552</v>
       </c>
-      <c r="G215" s="146"/>
+      <c r="G215" s="302"/>
       <c r="H215" s="99"/>
     </row>
     <row r="216" spans="1:8">
       <c r="A216" s="96">
         <v>6</v>
       </c>
-      <c r="B216" s="144" t="s">
+      <c r="B216" s="295" t="s">
         <v>553</v>
       </c>
-      <c r="C216" s="144"/>
+      <c r="C216" s="295"/>
       <c r="D216" s="97" t="s">
         <v>495</v>
       </c>
       <c r="E216" s="98" t="s">
         <v>201</v>
       </c>
-      <c r="F216" s="144" t="s">
+      <c r="F216" s="295" t="s">
         <v>496</v>
       </c>
-      <c r="G216" s="144"/>
+      <c r="G216" s="295"/>
       <c r="H216" s="97"/>
     </row>
     <row r="217" spans="1:8" ht="38.25">
       <c r="A217" s="96">
         <v>7</v>
       </c>
-      <c r="B217" s="151" t="s">
+      <c r="B217" s="291" t="s">
         <v>501</v>
       </c>
-      <c r="C217" s="151"/>
+      <c r="C217" s="291"/>
       <c r="D217" s="100" t="s">
         <v>502</v>
       </c>
       <c r="E217" s="98" t="s">
         <v>218</v>
       </c>
-      <c r="F217" s="151" t="s">
+      <c r="F217" s="291" t="s">
         <v>503</v>
       </c>
-      <c r="G217" s="151"/>
+      <c r="G217" s="291"/>
       <c r="H217" s="125" t="s">
         <v>554</v>
       </c>
@@ -27082,18 +27033,18 @@
       <c r="A218" s="96">
         <v>8</v>
       </c>
-      <c r="B218" s="151" t="s">
+      <c r="B218" s="291" t="s">
         <v>505</v>
       </c>
-      <c r="C218" s="151"/>
+      <c r="C218" s="291"/>
       <c r="D218" s="99"/>
       <c r="E218" s="98" t="s">
         <v>201</v>
       </c>
-      <c r="F218" s="144" t="s">
+      <c r="F218" s="295" t="s">
         <v>506</v>
       </c>
-      <c r="G218" s="144"/>
+      <c r="G218" s="295"/>
       <c r="H218" s="125" t="s">
         <v>555</v>
       </c>
@@ -27102,40 +27053,40 @@
       <c r="A219" s="103">
         <v>10</v>
       </c>
-      <c r="B219" s="147" t="s">
+      <c r="B219" s="290" t="s">
         <v>556</v>
       </c>
-      <c r="C219" s="147"/>
+      <c r="C219" s="290"/>
       <c r="D219" s="99" t="s">
         <v>557</v>
       </c>
       <c r="E219" s="126" t="s">
         <v>218</v>
       </c>
-      <c r="F219" s="151" t="s">
+      <c r="F219" s="291" t="s">
         <v>558</v>
       </c>
-      <c r="G219" s="151"/>
+      <c r="G219" s="291"/>
       <c r="H219" s="99"/>
     </row>
     <row r="220" spans="1:8" ht="102">
       <c r="A220" s="103">
         <v>11</v>
       </c>
-      <c r="B220" s="145" t="s">
+      <c r="B220" s="294" t="s">
         <v>559</v>
       </c>
-      <c r="C220" s="145"/>
+      <c r="C220" s="294"/>
       <c r="D220" s="99" t="s">
         <v>560</v>
       </c>
       <c r="E220" s="126" t="s">
         <v>345</v>
       </c>
-      <c r="F220" s="146" t="s">
+      <c r="F220" s="302" t="s">
         <v>561</v>
       </c>
-      <c r="G220" s="146"/>
+      <c r="G220" s="302"/>
       <c r="H220" s="98" t="s">
         <v>562</v>
       </c>
@@ -27144,20 +27095,20 @@
       <c r="A221" s="103">
         <v>12</v>
       </c>
-      <c r="B221" s="145" t="s">
+      <c r="B221" s="294" t="s">
         <v>563</v>
       </c>
-      <c r="C221" s="145"/>
+      <c r="C221" s="294"/>
       <c r="D221" s="99" t="s">
         <v>564</v>
       </c>
       <c r="E221" s="126" t="s">
         <v>101</v>
       </c>
-      <c r="F221" s="146" t="s">
+      <c r="F221" s="302" t="s">
         <v>565</v>
       </c>
-      <c r="G221" s="146"/>
+      <c r="G221" s="302"/>
       <c r="H221" s="99" t="s">
         <v>517</v>
       </c>
@@ -27166,10 +27117,10 @@
       <c r="A222" s="96">
         <v>13</v>
       </c>
-      <c r="B222" s="144" t="s">
+      <c r="B222" s="295" t="s">
         <v>566</v>
       </c>
-      <c r="C222" s="144"/>
+      <c r="C222" s="295"/>
       <c r="D222" s="99" t="s">
         <v>567</v>
       </c>
@@ -27212,20 +27163,20 @@
       <c r="A224" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B224" s="149" t="s">
+      <c r="B224" s="298" t="s">
         <v>85</v>
       </c>
-      <c r="C224" s="149"/>
+      <c r="C224" s="298"/>
       <c r="D224" s="5" t="s">
         <v>86</v>
       </c>
       <c r="E224" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="F224" s="150" t="s">
+      <c r="F224" s="299" t="s">
         <v>88</v>
       </c>
-      <c r="G224" s="150"/>
+      <c r="G224" s="299"/>
       <c r="H224" s="5" t="s">
         <v>89</v>
       </c>
@@ -27234,40 +27185,40 @@
       <c r="A225" s="124">
         <v>1</v>
       </c>
-      <c r="B225" s="144" t="s">
+      <c r="B225" s="295" t="s">
         <v>570</v>
       </c>
-      <c r="C225" s="144"/>
+      <c r="C225" s="295"/>
       <c r="D225" s="99" t="s">
         <v>571</v>
       </c>
       <c r="E225" s="38" t="s">
         <v>345</v>
       </c>
-      <c r="F225" s="151" t="s">
+      <c r="F225" s="291" t="s">
         <v>572</v>
       </c>
-      <c r="G225" s="151"/>
+      <c r="G225" s="291"/>
       <c r="H225" s="99"/>
     </row>
     <row r="226" spans="1:8" ht="63.75">
       <c r="A226" s="96">
         <v>2</v>
       </c>
-      <c r="B226" s="147" t="s">
+      <c r="B226" s="290" t="s">
         <v>573</v>
       </c>
-      <c r="C226" s="147"/>
+      <c r="C226" s="290"/>
       <c r="D226" s="97" t="s">
         <v>574</v>
       </c>
       <c r="E226" s="98" t="s">
         <v>302</v>
       </c>
-      <c r="F226" s="151" t="s">
+      <c r="F226" s="291" t="s">
         <v>575</v>
       </c>
-      <c r="G226" s="151"/>
+      <c r="G226" s="291"/>
       <c r="H226" s="100" t="s">
         <v>576</v>
       </c>
@@ -27276,20 +27227,20 @@
       <c r="A227" s="96">
         <v>3</v>
       </c>
-      <c r="B227" s="145" t="s">
+      <c r="B227" s="294" t="s">
         <v>577</v>
       </c>
-      <c r="C227" s="145"/>
+      <c r="C227" s="294"/>
       <c r="D227" s="99" t="s">
         <v>578</v>
       </c>
       <c r="E227" s="98" t="s">
         <v>345</v>
       </c>
-      <c r="F227" s="144" t="s">
+      <c r="F227" s="295" t="s">
         <v>579</v>
       </c>
-      <c r="G227" s="144"/>
+      <c r="G227" s="295"/>
       <c r="H227" s="102" t="s">
         <v>580</v>
       </c>
@@ -27332,20 +27283,20 @@
       <c r="A230" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B230" s="149" t="s">
+      <c r="B230" s="298" t="s">
         <v>85</v>
       </c>
-      <c r="C230" s="149"/>
+      <c r="C230" s="298"/>
       <c r="D230" s="5" t="s">
         <v>86</v>
       </c>
       <c r="E230" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="F230" s="150" t="s">
+      <c r="F230" s="299" t="s">
         <v>88</v>
       </c>
-      <c r="G230" s="150"/>
+      <c r="G230" s="299"/>
       <c r="H230" s="5" t="s">
         <v>89</v>
       </c>
@@ -27354,60 +27305,60 @@
       <c r="A231" s="96">
         <v>1</v>
       </c>
-      <c r="B231" s="143" t="s">
+      <c r="B231" s="293" t="s">
         <v>581</v>
       </c>
-      <c r="C231" s="143"/>
+      <c r="C231" s="293"/>
       <c r="D231" s="110" t="s">
         <v>582</v>
       </c>
       <c r="E231" s="98" t="s">
         <v>345</v>
       </c>
-      <c r="F231" s="151" t="s">
+      <c r="F231" s="291" t="s">
         <v>583</v>
       </c>
-      <c r="G231" s="151"/>
+      <c r="G231" s="291"/>
       <c r="H231" s="99"/>
     </row>
     <row r="232" spans="1:8" ht="63.75">
       <c r="A232" s="96">
         <v>2</v>
       </c>
-      <c r="B232" s="145" t="s">
+      <c r="B232" s="294" t="s">
         <v>584</v>
       </c>
-      <c r="C232" s="145"/>
+      <c r="C232" s="294"/>
       <c r="D232" s="99" t="s">
         <v>465</v>
       </c>
       <c r="E232" s="98" t="s">
         <v>208</v>
       </c>
-      <c r="F232" s="151" t="s">
+      <c r="F232" s="291" t="s">
         <v>585</v>
       </c>
-      <c r="G232" s="151"/>
+      <c r="G232" s="291"/>
       <c r="H232" s="99"/>
     </row>
-    <row r="233" spans="1:8" ht="200.25">
+    <row r="233" spans="1:8" ht="187.5">
       <c r="A233" s="96">
         <v>3</v>
       </c>
-      <c r="B233" s="147" t="s">
+      <c r="B233" s="290" t="s">
         <v>586</v>
       </c>
-      <c r="C233" s="147"/>
+      <c r="C233" s="290"/>
       <c r="D233" s="99" t="s">
         <v>587</v>
       </c>
       <c r="E233" s="98" t="s">
         <v>208</v>
       </c>
-      <c r="F233" s="146" t="s">
+      <c r="F233" s="302" t="s">
         <v>588</v>
       </c>
-      <c r="G233" s="146"/>
+      <c r="G233" s="302"/>
       <c r="H233" s="99" t="s">
         <v>589</v>
       </c>
@@ -27416,40 +27367,40 @@
       <c r="A234" s="96">
         <v>4</v>
       </c>
-      <c r="B234" s="143" t="s">
+      <c r="B234" s="293" t="s">
         <v>590</v>
       </c>
-      <c r="C234" s="143"/>
+      <c r="C234" s="293"/>
       <c r="D234" s="102" t="s">
         <v>591</v>
       </c>
       <c r="E234" s="98" t="s">
         <v>101</v>
       </c>
-      <c r="F234" s="144" t="s">
+      <c r="F234" s="295" t="s">
         <v>592</v>
       </c>
-      <c r="G234" s="144"/>
+      <c r="G234" s="295"/>
       <c r="H234" s="99"/>
     </row>
     <row r="235" spans="1:8" ht="51">
       <c r="A235" s="96">
         <v>5</v>
       </c>
-      <c r="B235" s="145" t="s">
+      <c r="B235" s="294" t="s">
         <v>593</v>
       </c>
-      <c r="C235" s="145"/>
+      <c r="C235" s="294"/>
       <c r="D235" s="99" t="s">
         <v>594</v>
       </c>
       <c r="E235" s="98" t="s">
         <v>345</v>
       </c>
-      <c r="F235" s="144" t="s">
+      <c r="F235" s="295" t="s">
         <v>595</v>
       </c>
-      <c r="G235" s="144"/>
+      <c r="G235" s="295"/>
       <c r="H235" s="102" t="s">
         <v>460</v>
       </c>
@@ -27532,20 +27483,20 @@
       <c r="A242" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B242" s="149" t="s">
+      <c r="B242" s="298" t="s">
         <v>85</v>
       </c>
-      <c r="C242" s="149"/>
+      <c r="C242" s="298"/>
       <c r="D242" s="5" t="s">
         <v>86</v>
       </c>
       <c r="E242" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="F242" s="150" t="s">
+      <c r="F242" s="299" t="s">
         <v>88</v>
       </c>
-      <c r="G242" s="150"/>
+      <c r="G242" s="299"/>
       <c r="H242" s="5" t="s">
         <v>89</v>
       </c>
@@ -27554,100 +27505,100 @@
       <c r="A243" s="96">
         <v>1</v>
       </c>
-      <c r="B243" s="143" t="s">
+      <c r="B243" s="293" t="s">
         <v>596</v>
       </c>
-      <c r="C243" s="143"/>
+      <c r="C243" s="293"/>
       <c r="D243" s="110" t="s">
         <v>597</v>
       </c>
       <c r="E243" s="98" t="s">
         <v>345</v>
       </c>
-      <c r="F243" s="146" t="s">
+      <c r="F243" s="302" t="s">
         <v>598</v>
       </c>
-      <c r="G243" s="146"/>
+      <c r="G243" s="302"/>
       <c r="H243" s="99"/>
     </row>
     <row r="244" spans="1:8" ht="216.75">
       <c r="A244" s="96">
         <v>2</v>
       </c>
-      <c r="B244" s="147" t="s">
+      <c r="B244" s="290" t="s">
         <v>599</v>
       </c>
-      <c r="C244" s="147"/>
+      <c r="C244" s="290"/>
       <c r="D244" s="110" t="s">
         <v>600</v>
       </c>
       <c r="E244" s="98" t="s">
         <v>208</v>
       </c>
-      <c r="F244" s="148" t="s">
+      <c r="F244" s="303" t="s">
         <v>601</v>
       </c>
-      <c r="G244" s="148"/>
+      <c r="G244" s="303"/>
       <c r="H244" s="99" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="245" spans="1:8" ht="76.5">
+    <row r="245" spans="1:8" ht="63.75">
       <c r="A245" s="103">
         <v>2</v>
       </c>
-      <c r="B245" s="147" t="s">
+      <c r="B245" s="290" t="s">
         <v>603</v>
       </c>
-      <c r="C245" s="147"/>
+      <c r="C245" s="290"/>
       <c r="D245" s="97" t="s">
         <v>468</v>
       </c>
       <c r="E245" s="98" t="s">
         <v>208</v>
       </c>
-      <c r="F245" s="146" t="s">
+      <c r="F245" s="302" t="s">
         <v>604</v>
       </c>
-      <c r="G245" s="146"/>
+      <c r="G245" s="302"/>
       <c r="H245" s="118" t="s">
         <v>605</v>
       </c>
     </row>
     <row r="246" spans="1:8" ht="102">
       <c r="A246" s="99"/>
-      <c r="B246" s="143" t="s">
+      <c r="B246" s="293" t="s">
         <v>606</v>
       </c>
-      <c r="C246" s="143"/>
+      <c r="C246" s="293"/>
       <c r="D246" s="99" t="s">
         <v>607</v>
       </c>
       <c r="E246" s="98" t="s">
         <v>101</v>
       </c>
-      <c r="F246" s="144" t="s">
+      <c r="F246" s="295" t="s">
         <v>608</v>
       </c>
-      <c r="G246" s="144"/>
+      <c r="G246" s="295"/>
       <c r="H246" s="101"/>
     </row>
     <row r="247" spans="1:8" ht="63.75">
       <c r="A247" s="99"/>
-      <c r="B247" s="145" t="s">
+      <c r="B247" s="294" t="s">
         <v>609</v>
       </c>
-      <c r="C247" s="145"/>
+      <c r="C247" s="294"/>
       <c r="D247" s="99" t="s">
         <v>610</v>
       </c>
       <c r="E247" s="98" t="s">
         <v>345</v>
       </c>
-      <c r="F247" s="144" t="s">
+      <c r="F247" s="295" t="s">
         <v>611</v>
       </c>
-      <c r="G247" s="144"/>
+      <c r="G247" s="295"/>
       <c r="H247" s="122" t="s">
         <v>460</v>
       </c>
@@ -27664,84 +27615,287 @@
     </row>
   </sheetData>
   <mergeCells count="385">
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="F55:G55"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="B234:C234"/>
+    <mergeCell ref="F234:G234"/>
+    <mergeCell ref="B235:C235"/>
+    <mergeCell ref="F235:G235"/>
+    <mergeCell ref="B242:C242"/>
+    <mergeCell ref="F242:G242"/>
+    <mergeCell ref="B231:C231"/>
+    <mergeCell ref="F231:G231"/>
+    <mergeCell ref="B232:C232"/>
+    <mergeCell ref="F232:G232"/>
+    <mergeCell ref="B233:C233"/>
+    <mergeCell ref="F233:G233"/>
+    <mergeCell ref="B246:C246"/>
+    <mergeCell ref="F246:G246"/>
+    <mergeCell ref="B247:C247"/>
+    <mergeCell ref="F247:G247"/>
+    <mergeCell ref="B243:C243"/>
+    <mergeCell ref="F243:G243"/>
+    <mergeCell ref="B244:C244"/>
+    <mergeCell ref="F244:G244"/>
+    <mergeCell ref="B245:C245"/>
+    <mergeCell ref="F245:G245"/>
+    <mergeCell ref="B226:C226"/>
+    <mergeCell ref="F226:G226"/>
+    <mergeCell ref="B227:C227"/>
+    <mergeCell ref="F227:G227"/>
+    <mergeCell ref="B230:C230"/>
+    <mergeCell ref="F230:G230"/>
+    <mergeCell ref="B222:C222"/>
+    <mergeCell ref="B224:C224"/>
+    <mergeCell ref="F224:G224"/>
+    <mergeCell ref="B225:C225"/>
+    <mergeCell ref="F225:G225"/>
+    <mergeCell ref="B219:C219"/>
+    <mergeCell ref="F219:G219"/>
+    <mergeCell ref="B220:C220"/>
+    <mergeCell ref="F220:G220"/>
+    <mergeCell ref="B221:C221"/>
+    <mergeCell ref="F221:G221"/>
+    <mergeCell ref="B216:C216"/>
+    <mergeCell ref="F216:G216"/>
+    <mergeCell ref="B217:C217"/>
+    <mergeCell ref="F217:G217"/>
+    <mergeCell ref="B218:C218"/>
+    <mergeCell ref="F218:G218"/>
+    <mergeCell ref="B213:C213"/>
+    <mergeCell ref="F213:G213"/>
+    <mergeCell ref="B214:C214"/>
+    <mergeCell ref="F214:G214"/>
+    <mergeCell ref="B215:C215"/>
+    <mergeCell ref="F215:G215"/>
+    <mergeCell ref="B210:C210"/>
+    <mergeCell ref="F210:G210"/>
+    <mergeCell ref="B211:C211"/>
+    <mergeCell ref="F211:G211"/>
+    <mergeCell ref="B212:C212"/>
+    <mergeCell ref="F212:G212"/>
+    <mergeCell ref="B203:C203"/>
+    <mergeCell ref="F203:G203"/>
+    <mergeCell ref="B204:C204"/>
+    <mergeCell ref="F204:G204"/>
+    <mergeCell ref="B205:C205"/>
+    <mergeCell ref="F205:G205"/>
+    <mergeCell ref="B200:C200"/>
+    <mergeCell ref="F200:G200"/>
+    <mergeCell ref="B201:C201"/>
+    <mergeCell ref="F201:G201"/>
+    <mergeCell ref="B202:C202"/>
+    <mergeCell ref="F202:G202"/>
+    <mergeCell ref="B195:C195"/>
+    <mergeCell ref="F195:G195"/>
+    <mergeCell ref="B198:C198"/>
+    <mergeCell ref="F198:G198"/>
+    <mergeCell ref="B199:C199"/>
+    <mergeCell ref="F199:G199"/>
+    <mergeCell ref="B192:C192"/>
+    <mergeCell ref="F192:G192"/>
+    <mergeCell ref="B193:C193"/>
+    <mergeCell ref="F193:G193"/>
+    <mergeCell ref="B194:C194"/>
+    <mergeCell ref="F194:G194"/>
+    <mergeCell ref="B189:C189"/>
+    <mergeCell ref="F189:G189"/>
+    <mergeCell ref="B190:C190"/>
+    <mergeCell ref="F190:G190"/>
+    <mergeCell ref="B191:C191"/>
+    <mergeCell ref="F191:G191"/>
+    <mergeCell ref="B186:C186"/>
+    <mergeCell ref="F186:G186"/>
+    <mergeCell ref="B187:C187"/>
+    <mergeCell ref="F187:G187"/>
+    <mergeCell ref="B188:C188"/>
+    <mergeCell ref="F188:G188"/>
+    <mergeCell ref="B183:C183"/>
+    <mergeCell ref="F183:G183"/>
+    <mergeCell ref="B184:C184"/>
+    <mergeCell ref="F184:G184"/>
+    <mergeCell ref="B185:C185"/>
+    <mergeCell ref="F185:G185"/>
+    <mergeCell ref="B178:C178"/>
+    <mergeCell ref="F178:G178"/>
+    <mergeCell ref="B179:C179"/>
+    <mergeCell ref="F179:G179"/>
+    <mergeCell ref="B182:C182"/>
+    <mergeCell ref="F182:G182"/>
+    <mergeCell ref="B175:C175"/>
+    <mergeCell ref="F175:G175"/>
+    <mergeCell ref="B176:C176"/>
+    <mergeCell ref="F176:G176"/>
+    <mergeCell ref="B177:C177"/>
+    <mergeCell ref="F177:G177"/>
+    <mergeCell ref="B170:C170"/>
+    <mergeCell ref="F170:G170"/>
+    <mergeCell ref="B173:C173"/>
+    <mergeCell ref="F173:G173"/>
+    <mergeCell ref="B174:C174"/>
+    <mergeCell ref="F174:G174"/>
+    <mergeCell ref="B167:C167"/>
+    <mergeCell ref="F167:G167"/>
+    <mergeCell ref="B168:C168"/>
+    <mergeCell ref="F168:G168"/>
+    <mergeCell ref="B169:C169"/>
+    <mergeCell ref="F169:G169"/>
+    <mergeCell ref="B164:C164"/>
+    <mergeCell ref="F164:G164"/>
+    <mergeCell ref="B165:C165"/>
+    <mergeCell ref="F165:G165"/>
+    <mergeCell ref="B166:C166"/>
+    <mergeCell ref="F166:G166"/>
+    <mergeCell ref="B161:C161"/>
+    <mergeCell ref="F161:G161"/>
+    <mergeCell ref="B162:C162"/>
+    <mergeCell ref="F162:G162"/>
+    <mergeCell ref="B163:C163"/>
+    <mergeCell ref="F163:G163"/>
+    <mergeCell ref="B156:C156"/>
+    <mergeCell ref="F156:G156"/>
+    <mergeCell ref="B157:C157"/>
+    <mergeCell ref="F157:G157"/>
+    <mergeCell ref="B158:C158"/>
+    <mergeCell ref="F158:G158"/>
+    <mergeCell ref="B153:C153"/>
+    <mergeCell ref="F153:G153"/>
+    <mergeCell ref="B154:C154"/>
+    <mergeCell ref="F154:G154"/>
+    <mergeCell ref="B155:C155"/>
+    <mergeCell ref="F155:G155"/>
+    <mergeCell ref="B150:C150"/>
+    <mergeCell ref="F150:G150"/>
+    <mergeCell ref="B151:C151"/>
+    <mergeCell ref="F151:G151"/>
+    <mergeCell ref="B152:C152"/>
+    <mergeCell ref="F152:G152"/>
+    <mergeCell ref="B145:C145"/>
+    <mergeCell ref="F145:G145"/>
+    <mergeCell ref="B146:C146"/>
+    <mergeCell ref="F146:G146"/>
+    <mergeCell ref="B149:C149"/>
+    <mergeCell ref="F149:G149"/>
+    <mergeCell ref="B142:C142"/>
+    <mergeCell ref="F142:G142"/>
+    <mergeCell ref="B143:C143"/>
+    <mergeCell ref="F143:G143"/>
+    <mergeCell ref="B144:C144"/>
+    <mergeCell ref="F144:G144"/>
+    <mergeCell ref="B137:C137"/>
+    <mergeCell ref="B138:C138"/>
+    <mergeCell ref="F138:G138"/>
+    <mergeCell ref="B141:C141"/>
+    <mergeCell ref="F141:G141"/>
+    <mergeCell ref="B134:C134"/>
+    <mergeCell ref="F134:G134"/>
+    <mergeCell ref="B135:C135"/>
+    <mergeCell ref="F135:G135"/>
+    <mergeCell ref="B136:C136"/>
+    <mergeCell ref="F136:G136"/>
+    <mergeCell ref="B128:C128"/>
+    <mergeCell ref="F128:G128"/>
+    <mergeCell ref="B129:C129"/>
+    <mergeCell ref="F129:G129"/>
+    <mergeCell ref="B133:C133"/>
+    <mergeCell ref="F133:G133"/>
+    <mergeCell ref="B125:C125"/>
+    <mergeCell ref="F125:G125"/>
+    <mergeCell ref="B126:C126"/>
+    <mergeCell ref="F126:G126"/>
+    <mergeCell ref="B127:C127"/>
+    <mergeCell ref="F127:G127"/>
+    <mergeCell ref="B120:C120"/>
+    <mergeCell ref="F120:G120"/>
+    <mergeCell ref="B123:C123"/>
+    <mergeCell ref="F123:G123"/>
+    <mergeCell ref="B124:C124"/>
+    <mergeCell ref="F124:G124"/>
+    <mergeCell ref="B117:C117"/>
+    <mergeCell ref="F117:G117"/>
+    <mergeCell ref="B118:C118"/>
+    <mergeCell ref="F118:G118"/>
+    <mergeCell ref="B119:C119"/>
+    <mergeCell ref="F119:G119"/>
+    <mergeCell ref="B114:C114"/>
+    <mergeCell ref="F114:G114"/>
+    <mergeCell ref="B115:C115"/>
+    <mergeCell ref="F115:G115"/>
+    <mergeCell ref="B116:C116"/>
+    <mergeCell ref="F116:G116"/>
+    <mergeCell ref="B109:C109"/>
+    <mergeCell ref="F109:G109"/>
+    <mergeCell ref="B110:C110"/>
+    <mergeCell ref="F110:G110"/>
+    <mergeCell ref="B111:C111"/>
+    <mergeCell ref="F111:G111"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="F106:G106"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="F107:G107"/>
+    <mergeCell ref="B108:C108"/>
+    <mergeCell ref="F108:G108"/>
+    <mergeCell ref="B103:C103"/>
+    <mergeCell ref="F103:G103"/>
+    <mergeCell ref="B104:C104"/>
+    <mergeCell ref="F104:G104"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="F105:G105"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="F99:G99"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="F100:G100"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="F102:G102"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="F96:G96"/>
+    <mergeCell ref="B97:C97"/>
+    <mergeCell ref="F97:G97"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="F98:G98"/>
+    <mergeCell ref="F92:G92"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="F93:G93"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="F95:G95"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="F89:G89"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="F90:G90"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="F91:G91"/>
+    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="F86:G86"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="F87:G87"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="F88:G88"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="F82:G82"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="F85:G85"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="F78:G78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="F79:G79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="F75:G75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="F76:G76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="F77:G77"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="F72:G72"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="F74:G74"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="F67:G67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="F68:G68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="F69:G69"/>
     <mergeCell ref="B64:C64"/>
     <mergeCell ref="F64:G64"/>
     <mergeCell ref="B65:C65"/>
@@ -27766,289 +27920,86 @@
     <mergeCell ref="F52:G52"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C8:D8"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="F72:G72"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="F74:G74"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="F67:G67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="F68:G68"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="F69:G69"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="F78:G78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="F79:G79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="F75:G75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="F76:G76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="F77:G77"/>
-    <mergeCell ref="B86:C86"/>
-    <mergeCell ref="F86:G86"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="F87:G87"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="F88:G88"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="F82:G82"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="F85:G85"/>
-    <mergeCell ref="F92:G92"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="F93:G93"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="F95:G95"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="F89:G89"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="F90:G90"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="F91:G91"/>
-    <mergeCell ref="B99:C99"/>
-    <mergeCell ref="F99:G99"/>
-    <mergeCell ref="B100:C100"/>
-    <mergeCell ref="F100:G100"/>
-    <mergeCell ref="B102:C102"/>
-    <mergeCell ref="F102:G102"/>
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="F96:G96"/>
-    <mergeCell ref="B97:C97"/>
-    <mergeCell ref="F97:G97"/>
-    <mergeCell ref="B98:C98"/>
-    <mergeCell ref="F98:G98"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="F106:G106"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="F107:G107"/>
-    <mergeCell ref="B108:C108"/>
-    <mergeCell ref="F108:G108"/>
-    <mergeCell ref="B103:C103"/>
-    <mergeCell ref="F103:G103"/>
-    <mergeCell ref="B104:C104"/>
-    <mergeCell ref="F104:G104"/>
-    <mergeCell ref="B105:C105"/>
-    <mergeCell ref="F105:G105"/>
-    <mergeCell ref="B114:C114"/>
-    <mergeCell ref="F114:G114"/>
-    <mergeCell ref="B115:C115"/>
-    <mergeCell ref="F115:G115"/>
-    <mergeCell ref="B116:C116"/>
-    <mergeCell ref="F116:G116"/>
-    <mergeCell ref="B109:C109"/>
-    <mergeCell ref="F109:G109"/>
-    <mergeCell ref="B110:C110"/>
-    <mergeCell ref="F110:G110"/>
-    <mergeCell ref="B111:C111"/>
-    <mergeCell ref="F111:G111"/>
-    <mergeCell ref="B120:C120"/>
-    <mergeCell ref="F120:G120"/>
-    <mergeCell ref="B123:C123"/>
-    <mergeCell ref="F123:G123"/>
-    <mergeCell ref="B124:C124"/>
-    <mergeCell ref="F124:G124"/>
-    <mergeCell ref="B117:C117"/>
-    <mergeCell ref="F117:G117"/>
-    <mergeCell ref="B118:C118"/>
-    <mergeCell ref="F118:G118"/>
-    <mergeCell ref="B119:C119"/>
-    <mergeCell ref="F119:G119"/>
-    <mergeCell ref="B128:C128"/>
-    <mergeCell ref="F128:G128"/>
-    <mergeCell ref="B129:C129"/>
-    <mergeCell ref="F129:G129"/>
-    <mergeCell ref="B133:C133"/>
-    <mergeCell ref="F133:G133"/>
-    <mergeCell ref="B125:C125"/>
-    <mergeCell ref="F125:G125"/>
-    <mergeCell ref="B126:C126"/>
-    <mergeCell ref="F126:G126"/>
-    <mergeCell ref="B127:C127"/>
-    <mergeCell ref="F127:G127"/>
-    <mergeCell ref="B137:C137"/>
-    <mergeCell ref="B138:C138"/>
-    <mergeCell ref="F138:G138"/>
-    <mergeCell ref="B141:C141"/>
-    <mergeCell ref="F141:G141"/>
-    <mergeCell ref="B134:C134"/>
-    <mergeCell ref="F134:G134"/>
-    <mergeCell ref="B135:C135"/>
-    <mergeCell ref="F135:G135"/>
-    <mergeCell ref="B136:C136"/>
-    <mergeCell ref="F136:G136"/>
-    <mergeCell ref="B145:C145"/>
-    <mergeCell ref="F145:G145"/>
-    <mergeCell ref="B146:C146"/>
-    <mergeCell ref="F146:G146"/>
-    <mergeCell ref="B149:C149"/>
-    <mergeCell ref="F149:G149"/>
-    <mergeCell ref="B142:C142"/>
-    <mergeCell ref="F142:G142"/>
-    <mergeCell ref="B143:C143"/>
-    <mergeCell ref="F143:G143"/>
-    <mergeCell ref="B144:C144"/>
-    <mergeCell ref="F144:G144"/>
-    <mergeCell ref="B153:C153"/>
-    <mergeCell ref="F153:G153"/>
-    <mergeCell ref="B154:C154"/>
-    <mergeCell ref="F154:G154"/>
-    <mergeCell ref="B155:C155"/>
-    <mergeCell ref="F155:G155"/>
-    <mergeCell ref="B150:C150"/>
-    <mergeCell ref="F150:G150"/>
-    <mergeCell ref="B151:C151"/>
-    <mergeCell ref="F151:G151"/>
-    <mergeCell ref="B152:C152"/>
-    <mergeCell ref="F152:G152"/>
-    <mergeCell ref="B161:C161"/>
-    <mergeCell ref="F161:G161"/>
-    <mergeCell ref="B162:C162"/>
-    <mergeCell ref="F162:G162"/>
-    <mergeCell ref="B163:C163"/>
-    <mergeCell ref="F163:G163"/>
-    <mergeCell ref="B156:C156"/>
-    <mergeCell ref="F156:G156"/>
-    <mergeCell ref="B157:C157"/>
-    <mergeCell ref="F157:G157"/>
-    <mergeCell ref="B158:C158"/>
-    <mergeCell ref="F158:G158"/>
-    <mergeCell ref="B167:C167"/>
-    <mergeCell ref="F167:G167"/>
-    <mergeCell ref="B168:C168"/>
-    <mergeCell ref="F168:G168"/>
-    <mergeCell ref="B169:C169"/>
-    <mergeCell ref="F169:G169"/>
-    <mergeCell ref="B164:C164"/>
-    <mergeCell ref="F164:G164"/>
-    <mergeCell ref="B165:C165"/>
-    <mergeCell ref="F165:G165"/>
-    <mergeCell ref="B166:C166"/>
-    <mergeCell ref="F166:G166"/>
-    <mergeCell ref="B175:C175"/>
-    <mergeCell ref="F175:G175"/>
-    <mergeCell ref="B176:C176"/>
-    <mergeCell ref="F176:G176"/>
-    <mergeCell ref="B177:C177"/>
-    <mergeCell ref="F177:G177"/>
-    <mergeCell ref="B170:C170"/>
-    <mergeCell ref="F170:G170"/>
-    <mergeCell ref="B173:C173"/>
-    <mergeCell ref="F173:G173"/>
-    <mergeCell ref="B174:C174"/>
-    <mergeCell ref="F174:G174"/>
-    <mergeCell ref="B183:C183"/>
-    <mergeCell ref="F183:G183"/>
-    <mergeCell ref="B184:C184"/>
-    <mergeCell ref="F184:G184"/>
-    <mergeCell ref="B185:C185"/>
-    <mergeCell ref="F185:G185"/>
-    <mergeCell ref="B178:C178"/>
-    <mergeCell ref="F178:G178"/>
-    <mergeCell ref="B179:C179"/>
-    <mergeCell ref="F179:G179"/>
-    <mergeCell ref="B182:C182"/>
-    <mergeCell ref="F182:G182"/>
-    <mergeCell ref="B189:C189"/>
-    <mergeCell ref="F189:G189"/>
-    <mergeCell ref="B190:C190"/>
-    <mergeCell ref="F190:G190"/>
-    <mergeCell ref="B191:C191"/>
-    <mergeCell ref="F191:G191"/>
-    <mergeCell ref="B186:C186"/>
-    <mergeCell ref="F186:G186"/>
-    <mergeCell ref="B187:C187"/>
-    <mergeCell ref="F187:G187"/>
-    <mergeCell ref="B188:C188"/>
-    <mergeCell ref="F188:G188"/>
-    <mergeCell ref="B195:C195"/>
-    <mergeCell ref="F195:G195"/>
-    <mergeCell ref="B198:C198"/>
-    <mergeCell ref="F198:G198"/>
-    <mergeCell ref="B199:C199"/>
-    <mergeCell ref="F199:G199"/>
-    <mergeCell ref="B192:C192"/>
-    <mergeCell ref="F192:G192"/>
-    <mergeCell ref="B193:C193"/>
-    <mergeCell ref="F193:G193"/>
-    <mergeCell ref="B194:C194"/>
-    <mergeCell ref="F194:G194"/>
-    <mergeCell ref="B203:C203"/>
-    <mergeCell ref="F203:G203"/>
-    <mergeCell ref="B204:C204"/>
-    <mergeCell ref="F204:G204"/>
-    <mergeCell ref="B205:C205"/>
-    <mergeCell ref="F205:G205"/>
-    <mergeCell ref="B200:C200"/>
-    <mergeCell ref="F200:G200"/>
-    <mergeCell ref="B201:C201"/>
-    <mergeCell ref="F201:G201"/>
-    <mergeCell ref="B202:C202"/>
-    <mergeCell ref="F202:G202"/>
-    <mergeCell ref="B213:C213"/>
-    <mergeCell ref="F213:G213"/>
-    <mergeCell ref="B214:C214"/>
-    <mergeCell ref="F214:G214"/>
-    <mergeCell ref="B215:C215"/>
-    <mergeCell ref="F215:G215"/>
-    <mergeCell ref="B210:C210"/>
-    <mergeCell ref="F210:G210"/>
-    <mergeCell ref="B211:C211"/>
-    <mergeCell ref="F211:G211"/>
-    <mergeCell ref="B212:C212"/>
-    <mergeCell ref="F212:G212"/>
-    <mergeCell ref="B219:C219"/>
-    <mergeCell ref="F219:G219"/>
-    <mergeCell ref="B220:C220"/>
-    <mergeCell ref="F220:G220"/>
-    <mergeCell ref="B221:C221"/>
-    <mergeCell ref="F221:G221"/>
-    <mergeCell ref="B216:C216"/>
-    <mergeCell ref="F216:G216"/>
-    <mergeCell ref="B217:C217"/>
-    <mergeCell ref="F217:G217"/>
-    <mergeCell ref="B218:C218"/>
-    <mergeCell ref="F218:G218"/>
-    <mergeCell ref="B226:C226"/>
-    <mergeCell ref="F226:G226"/>
-    <mergeCell ref="B227:C227"/>
-    <mergeCell ref="F227:G227"/>
-    <mergeCell ref="B230:C230"/>
-    <mergeCell ref="F230:G230"/>
-    <mergeCell ref="B222:C222"/>
-    <mergeCell ref="B224:C224"/>
-    <mergeCell ref="F224:G224"/>
-    <mergeCell ref="B225:C225"/>
-    <mergeCell ref="F225:G225"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
     <mergeCell ref="B50:C50"/>
     <mergeCell ref="F50:G50"/>
-    <mergeCell ref="B246:C246"/>
-    <mergeCell ref="F246:G246"/>
-    <mergeCell ref="B247:C247"/>
-    <mergeCell ref="F247:G247"/>
-    <mergeCell ref="B243:C243"/>
-    <mergeCell ref="F243:G243"/>
-    <mergeCell ref="B244:C244"/>
-    <mergeCell ref="F244:G244"/>
-    <mergeCell ref="B245:C245"/>
-    <mergeCell ref="F245:G245"/>
-    <mergeCell ref="B234:C234"/>
-    <mergeCell ref="F234:G234"/>
-    <mergeCell ref="B235:C235"/>
-    <mergeCell ref="F235:G235"/>
-    <mergeCell ref="B242:C242"/>
-    <mergeCell ref="F242:G242"/>
-    <mergeCell ref="B231:C231"/>
-    <mergeCell ref="F231:G231"/>
-    <mergeCell ref="B232:C232"/>
-    <mergeCell ref="F232:G232"/>
-    <mergeCell ref="B233:C233"/>
-    <mergeCell ref="F233:G233"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="F46:G46"/>
   </mergeCells>
   <conditionalFormatting sqref="D9:E9">
     <cfRule type="duplicateValues" dxfId="25" priority="26"/>
@@ -28129,7 +28080,7 @@
     <cfRule type="duplicateValues" dxfId="0" priority="18"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="33" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="33" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
   <rowBreaks count="2" manualBreakCount="2">
     <brk id="25" max="8" man="1"/>
     <brk id="55" max="16383" man="1"/>
@@ -28158,40 +28109,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="22.5" customHeight="1">
-      <c r="A1" s="278" t="s">
+      <c r="A1" s="355" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="278"/>
-      <c r="C1" s="278"/>
-      <c r="D1" s="278"/>
-      <c r="E1" s="278"/>
-      <c r="F1" s="278"/>
-      <c r="G1" s="278"/>
-      <c r="H1" s="278"/>
+      <c r="B1" s="355"/>
+      <c r="C1" s="355"/>
+      <c r="D1" s="355"/>
+      <c r="E1" s="355"/>
+      <c r="F1" s="355"/>
+      <c r="G1" s="355"/>
+      <c r="H1" s="355"/>
     </row>
     <row r="2" spans="1:8" ht="18">
-      <c r="A2" s="278" t="s">
+      <c r="A2" s="355" t="s">
         <v>82</v>
       </c>
-      <c r="B2" s="278"/>
-      <c r="C2" s="278"/>
-      <c r="D2" s="278"/>
-      <c r="E2" s="278"/>
-      <c r="F2" s="278"/>
-      <c r="G2" s="278"/>
-      <c r="H2" s="278"/>
+      <c r="B2" s="355"/>
+      <c r="C2" s="355"/>
+      <c r="D2" s="355"/>
+      <c r="E2" s="355"/>
+      <c r="F2" s="355"/>
+      <c r="G2" s="355"/>
+      <c r="H2" s="355"/>
     </row>
     <row r="3" spans="1:8" ht="21" customHeight="1">
-      <c r="A3" s="279" t="s">
+      <c r="A3" s="356" t="s">
         <v>83</v>
       </c>
-      <c r="B3" s="279"/>
-      <c r="C3" s="279"/>
-      <c r="D3" s="279"/>
-      <c r="E3" s="279"/>
-      <c r="F3" s="279"/>
-      <c r="G3" s="279"/>
-      <c r="H3" s="279"/>
+      <c r="B3" s="356"/>
+      <c r="C3" s="356"/>
+      <c r="D3" s="356"/>
+      <c r="E3" s="356"/>
+      <c r="F3" s="356"/>
+      <c r="G3" s="356"/>
+      <c r="H3" s="356"/>
     </row>
     <row r="4" spans="1:8" ht="30.75" customHeight="1"/>
     <row r="5" spans="1:8" ht="18">
@@ -28205,14 +28156,14 @@
         <v>2</v>
       </c>
       <c r="D5" s="61"/>
-      <c r="E5" s="280" t="s">
+      <c r="E5" s="357" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="280"/>
-      <c r="G5" s="280" t="s">
+      <c r="F5" s="357"/>
+      <c r="G5" s="357" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="280"/>
+      <c r="H5" s="357"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="2" t="s">
@@ -28239,48 +28190,48 @@
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="282">
+      <c r="A8" s="137">
         <v>1</v>
       </c>
-      <c r="B8" s="282" t="s">
+      <c r="B8" s="137" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="283" t="s">
+      <c r="C8" s="138" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="283"/>
-      <c r="E8" s="282">
+      <c r="D8" s="138"/>
+      <c r="E8" s="137">
         <v>97</v>
       </c>
-      <c r="F8" s="282" t="s">
+      <c r="F8" s="137" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="282">
+      <c r="G8" s="137">
         <v>50</v>
       </c>
-      <c r="H8" s="282" t="s">
+      <c r="H8" s="137" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="27.75" customHeight="1">
-      <c r="A9" s="284" t="s">
+      <c r="A9" s="139" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="285" t="s">
-        <v>642</v>
-      </c>
-      <c r="C9" s="286"/>
-      <c r="D9" s="287" t="s">
+      <c r="B9" s="310" t="s">
+        <v>631</v>
+      </c>
+      <c r="C9" s="311"/>
+      <c r="D9" s="140" t="s">
         <v>86</v>
       </c>
-      <c r="E9" s="284" t="s">
+      <c r="E9" s="139" t="s">
         <v>87</v>
       </c>
-      <c r="F9" s="285" t="s">
+      <c r="F9" s="310" t="s">
         <v>88</v>
       </c>
-      <c r="G9" s="286"/>
-      <c r="H9" s="284" t="s">
+      <c r="G9" s="311"/>
+      <c r="H9" s="139" t="s">
         <v>89</v>
       </c>
     </row>
@@ -28288,149 +28239,149 @@
       <c r="A10" s="1">
         <v>1</v>
       </c>
-      <c r="B10" s="160" t="s">
-        <v>643</v>
-      </c>
-      <c r="C10" s="161"/>
-      <c r="D10" s="288" t="s">
-        <v>646</v>
+      <c r="B10" s="196" t="s">
+        <v>632</v>
+      </c>
+      <c r="C10" s="255"/>
+      <c r="D10" s="141" t="s">
+        <v>635</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>648</v>
-      </c>
-      <c r="F10" s="253" t="s">
-        <v>647</v>
-      </c>
-      <c r="G10" s="254"/>
+        <v>637</v>
+      </c>
+      <c r="F10" s="175" t="s">
+        <v>636</v>
+      </c>
+      <c r="G10" s="176"/>
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" ht="122.25" customHeight="1">
       <c r="A11" s="1">
         <v>2</v>
       </c>
-      <c r="B11" s="160" t="s">
-        <v>644</v>
-      </c>
-      <c r="C11" s="161"/>
-      <c r="D11" s="289" t="s">
-        <v>649</v>
+      <c r="B11" s="196" t="s">
+        <v>633</v>
+      </c>
+      <c r="C11" s="255"/>
+      <c r="D11" s="142" t="s">
+        <v>638</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="F11" s="225" t="s">
-        <v>650</v>
-      </c>
-      <c r="G11" s="226"/>
+      <c r="F11" s="206" t="s">
+        <v>639</v>
+      </c>
+      <c r="G11" s="207"/>
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" ht="159" customHeight="1">
       <c r="A12" s="1">
         <v>3</v>
       </c>
-      <c r="B12" s="158" t="s">
-        <v>645</v>
-      </c>
-      <c r="C12" s="159"/>
-      <c r="D12" s="288" t="s">
-        <v>651</v>
+      <c r="B12" s="184" t="s">
+        <v>634</v>
+      </c>
+      <c r="C12" s="185"/>
+      <c r="D12" s="141" t="s">
+        <v>640</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>653</v>
-      </c>
-      <c r="F12" s="253" t="s">
-        <v>652</v>
-      </c>
-      <c r="G12" s="254"/>
+        <v>642</v>
+      </c>
+      <c r="F12" s="175" t="s">
+        <v>641</v>
+      </c>
+      <c r="G12" s="176"/>
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8" ht="156.75" customHeight="1">
       <c r="A13" s="3">
         <v>4</v>
       </c>
-      <c r="B13" s="160" t="s">
-        <v>654</v>
-      </c>
-      <c r="C13" s="161"/>
-      <c r="D13" s="294" t="s">
-        <v>655</v>
+      <c r="B13" s="196" t="s">
+        <v>643</v>
+      </c>
+      <c r="C13" s="255"/>
+      <c r="D13" s="143" t="s">
+        <v>644</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="F13" s="253" t="s">
-        <v>656</v>
-      </c>
-      <c r="G13" s="254"/>
+      <c r="F13" s="175" t="s">
+        <v>645</v>
+      </c>
+      <c r="G13" s="176"/>
       <c r="H13" s="15" t="s">
-        <v>657</v>
+        <v>646</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="120" customHeight="1">
       <c r="A14" s="3">
         <v>5</v>
       </c>
-      <c r="B14" s="160" t="s">
-        <v>658</v>
-      </c>
-      <c r="C14" s="161"/>
-      <c r="D14" s="288" t="s">
-        <v>659</v>
+      <c r="B14" s="196" t="s">
+        <v>647</v>
+      </c>
+      <c r="C14" s="255"/>
+      <c r="D14" s="141" t="s">
+        <v>648</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="F14" s="253" t="s">
-        <v>660</v>
-      </c>
-      <c r="G14" s="254"/>
+      <c r="F14" s="175" t="s">
+        <v>649</v>
+      </c>
+      <c r="G14" s="176"/>
       <c r="H14" s="18" t="s">
-        <v>661</v>
+        <v>650</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="26.25" customHeight="1">
-      <c r="A15" s="282">
+      <c r="A15" s="137">
         <v>2</v>
       </c>
-      <c r="B15" s="282" t="s">
+      <c r="B15" s="137" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="283" t="s">
+      <c r="C15" s="138" t="s">
         <v>48</v>
       </c>
-      <c r="D15" s="283"/>
-      <c r="E15" s="282">
+      <c r="D15" s="138"/>
+      <c r="E15" s="137">
         <v>6</v>
       </c>
-      <c r="F15" s="282" t="s">
+      <c r="F15" s="137" t="s">
         <v>6</v>
       </c>
-      <c r="G15" s="282">
+      <c r="G15" s="137">
         <v>50</v>
       </c>
-      <c r="H15" s="282" t="s">
+      <c r="H15" s="137" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="30.75" customHeight="1">
-      <c r="A16" s="284" t="s">
+      <c r="A16" s="139" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="285" t="s">
-        <v>642</v>
-      </c>
-      <c r="C16" s="286"/>
-      <c r="D16" s="287" t="s">
+      <c r="B16" s="310" t="s">
+        <v>631</v>
+      </c>
+      <c r="C16" s="311"/>
+      <c r="D16" s="140" t="s">
         <v>86</v>
       </c>
-      <c r="E16" s="284" t="s">
+      <c r="E16" s="139" t="s">
         <v>87</v>
       </c>
-      <c r="F16" s="285" t="s">
+      <c r="F16" s="310" t="s">
         <v>88</v>
       </c>
-      <c r="G16" s="286"/>
-      <c r="H16" s="284" t="s">
+      <c r="G16" s="311"/>
+      <c r="H16" s="139" t="s">
         <v>89</v>
       </c>
     </row>
@@ -28438,149 +28389,149 @@
       <c r="A17" s="3">
         <v>1</v>
       </c>
-      <c r="B17" s="160" t="s">
-        <v>662</v>
-      </c>
-      <c r="C17" s="161"/>
+      <c r="B17" s="196" t="s">
+        <v>651</v>
+      </c>
+      <c r="C17" s="255"/>
       <c r="D17" s="22" t="s">
-        <v>663</v>
+        <v>652</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>648</v>
-      </c>
-      <c r="F17" s="253" t="s">
-        <v>664</v>
-      </c>
-      <c r="G17" s="254"/>
+        <v>637</v>
+      </c>
+      <c r="F17" s="175" t="s">
+        <v>653</v>
+      </c>
+      <c r="G17" s="176"/>
       <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8" ht="91.5" customHeight="1">
       <c r="A18" s="3">
         <v>2</v>
       </c>
-      <c r="B18" s="160" t="s">
-        <v>644</v>
-      </c>
-      <c r="C18" s="161"/>
+      <c r="B18" s="196" t="s">
+        <v>633</v>
+      </c>
+      <c r="C18" s="255"/>
       <c r="D18" s="22" t="s">
-        <v>665</v>
+        <v>654</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="F18" s="292" t="s">
-        <v>666</v>
-      </c>
-      <c r="G18" s="293"/>
+      <c r="F18" s="353" t="s">
+        <v>655</v>
+      </c>
+      <c r="G18" s="354"/>
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:8" ht="123" customHeight="1">
       <c r="A19" s="3">
         <v>3</v>
       </c>
-      <c r="B19" s="160" t="s">
-        <v>667</v>
-      </c>
-      <c r="C19" s="161"/>
+      <c r="B19" s="196" t="s">
+        <v>656</v>
+      </c>
+      <c r="C19" s="255"/>
       <c r="D19" s="22" t="s">
-        <v>668</v>
-      </c>
-      <c r="E19" s="295" t="s">
+        <v>657</v>
+      </c>
+      <c r="E19" s="144" t="s">
         <v>94</v>
       </c>
-      <c r="F19" s="253" t="s">
-        <v>669</v>
-      </c>
-      <c r="G19" s="254"/>
+      <c r="F19" s="175" t="s">
+        <v>658</v>
+      </c>
+      <c r="G19" s="176"/>
       <c r="H19" s="1"/>
     </row>
     <row r="20" spans="1:8" ht="126.75" customHeight="1">
       <c r="A20" s="3">
         <v>4</v>
       </c>
-      <c r="B20" s="160" t="s">
-        <v>670</v>
-      </c>
-      <c r="C20" s="161"/>
+      <c r="B20" s="196" t="s">
+        <v>659</v>
+      </c>
+      <c r="C20" s="255"/>
       <c r="D20" s="18" t="s">
-        <v>671</v>
+        <v>660</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="F20" s="253" t="s">
-        <v>672</v>
-      </c>
-      <c r="G20" s="254"/>
+      <c r="F20" s="175" t="s">
+        <v>661</v>
+      </c>
+      <c r="G20" s="176"/>
       <c r="H20" s="15" t="s">
-        <v>673</v>
+        <v>662</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="99.75" customHeight="1">
       <c r="A21" s="3">
         <v>5</v>
       </c>
-      <c r="B21" s="269" t="s">
-        <v>674</v>
-      </c>
-      <c r="C21" s="296"/>
+      <c r="B21" s="198" t="s">
+        <v>663</v>
+      </c>
+      <c r="C21" s="341"/>
       <c r="D21" s="22" t="s">
-        <v>675</v>
+        <v>664</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="F21" s="253" t="s">
-        <v>676</v>
-      </c>
-      <c r="G21" s="254"/>
+      <c r="F21" s="175" t="s">
+        <v>665</v>
+      </c>
+      <c r="G21" s="176"/>
       <c r="H21" s="18" t="s">
-        <v>661</v>
+        <v>650</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="31.5" customHeight="1">
-      <c r="A22" s="282">
+      <c r="A22" s="137">
         <v>3</v>
       </c>
-      <c r="B22" s="282" t="s">
+      <c r="B22" s="137" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="283" t="s">
+      <c r="C22" s="138" t="s">
         <v>49</v>
       </c>
-      <c r="D22" s="283"/>
-      <c r="E22" s="282">
+      <c r="D22" s="138"/>
+      <c r="E22" s="137">
         <v>6</v>
       </c>
-      <c r="F22" s="282" t="s">
+      <c r="F22" s="137" t="s">
         <v>6</v>
       </c>
-      <c r="G22" s="282">
+      <c r="G22" s="137">
         <v>50</v>
       </c>
-      <c r="H22" s="282" t="s">
+      <c r="H22" s="137" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="30" customHeight="1">
-      <c r="A23" s="284" t="s">
+      <c r="A23" s="139" t="s">
         <v>0</v>
       </c>
-      <c r="B23" s="285" t="s">
-        <v>642</v>
-      </c>
-      <c r="C23" s="286"/>
-      <c r="D23" s="287" t="s">
+      <c r="B23" s="310" t="s">
+        <v>631</v>
+      </c>
+      <c r="C23" s="311"/>
+      <c r="D23" s="140" t="s">
         <v>86</v>
       </c>
-      <c r="E23" s="284" t="s">
+      <c r="E23" s="139" t="s">
         <v>87</v>
       </c>
-      <c r="F23" s="285" t="s">
+      <c r="F23" s="310" t="s">
         <v>88</v>
       </c>
-      <c r="G23" s="286"/>
-      <c r="H23" s="284" t="s">
+      <c r="G23" s="311"/>
+      <c r="H23" s="139" t="s">
         <v>89</v>
       </c>
     </row>
@@ -28588,257 +28539,257 @@
       <c r="A24" s="14">
         <v>1</v>
       </c>
-      <c r="B24" s="253" t="s">
-        <v>678</v>
-      </c>
-      <c r="C24" s="254"/>
-      <c r="D24" s="322" t="s">
-        <v>677</v>
+      <c r="B24" s="175" t="s">
+        <v>667</v>
+      </c>
+      <c r="C24" s="176"/>
+      <c r="D24" s="157" t="s">
+        <v>666</v>
       </c>
       <c r="E24" s="101" t="s">
-        <v>648</v>
-      </c>
-      <c r="F24" s="268" t="s">
-        <v>681</v>
-      </c>
-      <c r="G24" s="161"/>
+        <v>637</v>
+      </c>
+      <c r="F24" s="197" t="s">
+        <v>670</v>
+      </c>
+      <c r="G24" s="255"/>
       <c r="H24" s="1"/>
     </row>
     <row r="25" spans="1:8" ht="40.5" customHeight="1">
       <c r="A25" s="14">
         <v>2</v>
       </c>
-      <c r="B25" s="255" t="s">
-        <v>679</v>
-      </c>
-      <c r="C25" s="256"/>
+      <c r="B25" s="208" t="s">
+        <v>668</v>
+      </c>
+      <c r="C25" s="209"/>
       <c r="D25" s="102" t="s">
-        <v>680</v>
+        <v>669</v>
       </c>
       <c r="E25" s="122" t="s">
         <v>145</v>
       </c>
-      <c r="F25" s="281" t="s">
-        <v>683</v>
-      </c>
-      <c r="G25" s="258"/>
+      <c r="F25" s="312" t="s">
+        <v>672</v>
+      </c>
+      <c r="G25" s="178"/>
       <c r="H25" s="1"/>
     </row>
     <row r="26" spans="1:8" ht="51.75" customHeight="1">
       <c r="A26" s="14">
         <v>3</v>
       </c>
-      <c r="B26" s="290" t="s">
-        <v>684</v>
-      </c>
-      <c r="C26" s="291"/>
-      <c r="D26" s="302" t="s">
-        <v>686</v>
+      <c r="B26" s="349" t="s">
+        <v>673</v>
+      </c>
+      <c r="C26" s="350"/>
+      <c r="D26" s="148" t="s">
+        <v>675</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="F26" s="160" t="s">
-        <v>682</v>
-      </c>
-      <c r="G26" s="161"/>
+      <c r="F26" s="196" t="s">
+        <v>671</v>
+      </c>
+      <c r="G26" s="255"/>
       <c r="H26" s="1"/>
     </row>
     <row r="27" spans="1:8" ht="138" customHeight="1">
       <c r="A27" s="14">
         <v>4</v>
       </c>
-      <c r="B27" s="225" t="s">
-        <v>685</v>
-      </c>
-      <c r="C27" s="226"/>
-      <c r="D27" s="307" t="s">
-        <v>760</v>
+      <c r="B27" s="206" t="s">
+        <v>674</v>
+      </c>
+      <c r="C27" s="207"/>
+      <c r="D27" s="151" t="s">
+        <v>749</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="F27" s="160" t="s">
-        <v>687</v>
-      </c>
-      <c r="G27" s="161"/>
+      <c r="F27" s="196" t="s">
+        <v>676</v>
+      </c>
+      <c r="G27" s="255"/>
       <c r="H27" s="15" t="s">
-        <v>688</v>
+        <v>677</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="55.5" customHeight="1">
       <c r="A28" s="14">
         <v>5</v>
       </c>
-      <c r="B28" s="303" t="s">
+      <c r="B28" s="351" t="s">
+        <v>678</v>
+      </c>
+      <c r="C28" s="352"/>
+      <c r="D28" s="150" t="s">
+        <v>679</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="F28" s="196" t="s">
+        <v>681</v>
+      </c>
+      <c r="G28" s="255"/>
+      <c r="H28" s="18" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="137">
+        <v>4</v>
+      </c>
+      <c r="B29" s="137" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" s="138" t="s">
+        <v>50</v>
+      </c>
+      <c r="D29" s="138"/>
+      <c r="E29" s="137">
+        <v>5</v>
+      </c>
+      <c r="F29" s="137" t="s">
+        <v>6</v>
+      </c>
+      <c r="G29" s="137">
+        <v>15</v>
+      </c>
+      <c r="H29" s="137" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="29.25" customHeight="1">
+      <c r="A30" s="139" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="310" t="s">
+        <v>631</v>
+      </c>
+      <c r="C30" s="311"/>
+      <c r="D30" s="140" t="s">
+        <v>86</v>
+      </c>
+      <c r="E30" s="139" t="s">
+        <v>87</v>
+      </c>
+      <c r="F30" s="310" t="s">
+        <v>88</v>
+      </c>
+      <c r="G30" s="311"/>
+      <c r="H30" s="139" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="44.25" customHeight="1">
+      <c r="A31" s="145">
+        <v>1</v>
+      </c>
+      <c r="B31" s="347" t="s">
+        <v>682</v>
+      </c>
+      <c r="C31" s="348"/>
+      <c r="D31" s="154" t="s">
+        <v>683</v>
+      </c>
+      <c r="E31" s="165" t="s">
+        <v>94</v>
+      </c>
+      <c r="F31" s="319"/>
+      <c r="G31" s="320"/>
+      <c r="H31" s="145"/>
+    </row>
+    <row r="32" spans="1:8" ht="115.5" customHeight="1">
+      <c r="A32" s="145">
+        <v>2</v>
+      </c>
+      <c r="B32" s="345" t="s">
+        <v>685</v>
+      </c>
+      <c r="C32" s="346"/>
+      <c r="D32" s="152" t="s">
+        <v>684</v>
+      </c>
+      <c r="E32" s="166" t="s">
+        <v>158</v>
+      </c>
+      <c r="F32" s="347" t="s">
+        <v>688</v>
+      </c>
+      <c r="G32" s="348"/>
+      <c r="H32" s="15" t="s">
         <v>689</v>
       </c>
-      <c r="C28" s="304"/>
-      <c r="D28" s="306" t="s">
+    </row>
+    <row r="33" spans="1:8" ht="60.75" customHeight="1">
+      <c r="A33" s="145">
+        <v>3</v>
+      </c>
+      <c r="B33" s="347" t="s">
+        <v>686</v>
+      </c>
+      <c r="C33" s="348"/>
+      <c r="D33" s="153" t="s">
+        <v>687</v>
+      </c>
+      <c r="E33" s="159" t="s">
         <v>690</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="F33" s="347" t="s">
         <v>691</v>
       </c>
-      <c r="F28" s="160" t="s">
-        <v>692</v>
-      </c>
-      <c r="G28" s="161"/>
-      <c r="H28" s="18" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="282">
+      <c r="G33" s="348"/>
+      <c r="H33" s="18" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="21" customHeight="1">
+      <c r="A34" s="137">
+        <v>5</v>
+      </c>
+      <c r="B34" s="137" t="s">
+        <v>46</v>
+      </c>
+      <c r="C34" s="138" t="s">
+        <v>51</v>
+      </c>
+      <c r="D34" s="138"/>
+      <c r="E34" s="137">
         <v>4</v>
       </c>
-      <c r="B29" s="282" t="s">
-        <v>46</v>
-      </c>
-      <c r="C29" s="283" t="s">
-        <v>50</v>
-      </c>
-      <c r="D29" s="283"/>
-      <c r="E29" s="282">
-        <v>5</v>
-      </c>
-      <c r="F29" s="282" t="s">
+      <c r="F34" s="137" t="s">
         <v>6</v>
       </c>
-      <c r="G29" s="282">
+      <c r="G34" s="137">
         <v>15</v>
       </c>
-      <c r="H29" s="282" t="s">
+      <c r="H34" s="137" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="29.25" customHeight="1">
-      <c r="A30" s="284" t="s">
+    <row r="35" spans="1:8" ht="36" customHeight="1">
+      <c r="A35" s="139" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="285" t="s">
-        <v>642</v>
-      </c>
-      <c r="C30" s="286"/>
-      <c r="D30" s="287" t="s">
+      <c r="B35" s="310" t="s">
+        <v>631</v>
+      </c>
+      <c r="C35" s="311"/>
+      <c r="D35" s="140" t="s">
         <v>86</v>
       </c>
-      <c r="E30" s="284" t="s">
+      <c r="E35" s="139" t="s">
         <v>87</v>
       </c>
-      <c r="F30" s="285" t="s">
+      <c r="F35" s="310" t="s">
         <v>88</v>
       </c>
-      <c r="G30" s="286"/>
-      <c r="H30" s="284" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="44.25" customHeight="1">
-      <c r="A31" s="297">
-        <v>1</v>
-      </c>
-      <c r="B31" s="308" t="s">
-        <v>693</v>
-      </c>
-      <c r="C31" s="309"/>
-      <c r="D31" s="314" t="s">
-        <v>694</v>
-      </c>
-      <c r="E31" s="354" t="s">
-        <v>94</v>
-      </c>
-      <c r="F31" s="300"/>
-      <c r="G31" s="301"/>
-      <c r="H31" s="297"/>
-    </row>
-    <row r="32" spans="1:8" ht="115.5" customHeight="1">
-      <c r="A32" s="297">
-        <v>2</v>
-      </c>
-      <c r="B32" s="310" t="s">
-        <v>696</v>
-      </c>
-      <c r="C32" s="311"/>
-      <c r="D32" s="312" t="s">
-        <v>695</v>
-      </c>
-      <c r="E32" s="355" t="s">
-        <v>158</v>
-      </c>
-      <c r="F32" s="308" t="s">
-        <v>699</v>
-      </c>
-      <c r="G32" s="309"/>
-      <c r="H32" s="15" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="60.75" customHeight="1">
-      <c r="A33" s="297">
-        <v>3</v>
-      </c>
-      <c r="B33" s="308" t="s">
-        <v>697</v>
-      </c>
-      <c r="C33" s="309"/>
-      <c r="D33" s="313" t="s">
-        <v>698</v>
-      </c>
-      <c r="E33" s="324" t="s">
-        <v>701</v>
-      </c>
-      <c r="F33" s="308" t="s">
-        <v>702</v>
-      </c>
-      <c r="G33" s="309"/>
-      <c r="H33" s="18" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="21" customHeight="1">
-      <c r="A34" s="282">
-        <v>5</v>
-      </c>
-      <c r="B34" s="282" t="s">
-        <v>46</v>
-      </c>
-      <c r="C34" s="283" t="s">
-        <v>51</v>
-      </c>
-      <c r="D34" s="283"/>
-      <c r="E34" s="282">
-        <v>4</v>
-      </c>
-      <c r="F34" s="282" t="s">
-        <v>6</v>
-      </c>
-      <c r="G34" s="282">
-        <v>15</v>
-      </c>
-      <c r="H34" s="282" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="36" customHeight="1">
-      <c r="A35" s="284" t="s">
-        <v>0</v>
-      </c>
-      <c r="B35" s="285" t="s">
-        <v>642</v>
-      </c>
-      <c r="C35" s="286"/>
-      <c r="D35" s="287" t="s">
-        <v>86</v>
-      </c>
-      <c r="E35" s="284" t="s">
-        <v>87</v>
-      </c>
-      <c r="F35" s="285" t="s">
-        <v>88</v>
-      </c>
-      <c r="G35" s="286"/>
-      <c r="H35" s="284" t="s">
+      <c r="G35" s="311"/>
+      <c r="H35" s="139" t="s">
         <v>89</v>
       </c>
     </row>
@@ -28846,218 +28797,218 @@
       <c r="A36" s="3">
         <v>1</v>
       </c>
-      <c r="B36" s="160" t="s">
-        <v>703</v>
-      </c>
-      <c r="C36" s="161"/>
-      <c r="D36" s="288" t="s">
-        <v>705</v>
+      <c r="B36" s="196" t="s">
+        <v>692</v>
+      </c>
+      <c r="C36" s="255"/>
+      <c r="D36" s="141" t="s">
+        <v>694</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="F36" s="253" t="s">
-        <v>707</v>
-      </c>
-      <c r="G36" s="254"/>
+      <c r="F36" s="175" t="s">
+        <v>696</v>
+      </c>
+      <c r="G36" s="176"/>
       <c r="H36" s="1"/>
     </row>
     <row r="37" spans="1:8" ht="283.5" customHeight="1">
       <c r="A37" s="3">
         <v>2</v>
       </c>
-      <c r="B37" s="253" t="s">
-        <v>704</v>
-      </c>
-      <c r="C37" s="254"/>
-      <c r="D37" s="288" t="s">
-        <v>706</v>
+      <c r="B37" s="175" t="s">
+        <v>693</v>
+      </c>
+      <c r="C37" s="176"/>
+      <c r="D37" s="141" t="s">
+        <v>695</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="F37" s="253" t="s">
-        <v>708</v>
-      </c>
-      <c r="G37" s="254"/>
+      <c r="F37" s="175" t="s">
+        <v>697</v>
+      </c>
+      <c r="G37" s="176"/>
       <c r="H37" s="23" t="s">
-        <v>709</v>
+        <v>698</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="135.75" customHeight="1">
       <c r="A38" s="3">
         <v>3</v>
       </c>
-      <c r="B38" s="160" t="s">
-        <v>710</v>
-      </c>
-      <c r="C38" s="161"/>
+      <c r="B38" s="196" t="s">
+        <v>699</v>
+      </c>
+      <c r="C38" s="255"/>
       <c r="D38" s="18" t="s">
-        <v>712</v>
+        <v>701</v>
       </c>
       <c r="E38" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="F38" s="316" t="s">
-        <v>716</v>
-      </c>
-      <c r="G38" s="315"/>
+      <c r="F38" s="342" t="s">
+        <v>705</v>
+      </c>
+      <c r="G38" s="344"/>
       <c r="H38" s="15" t="s">
-        <v>717</v>
+        <v>706</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="81" customHeight="1">
       <c r="A39" s="3">
         <v>4</v>
       </c>
-      <c r="B39" s="160" t="s">
-        <v>711</v>
-      </c>
-      <c r="C39" s="161"/>
-      <c r="D39" s="288" t="s">
-        <v>713</v>
+      <c r="B39" s="196" t="s">
+        <v>700</v>
+      </c>
+      <c r="C39" s="255"/>
+      <c r="D39" s="141" t="s">
+        <v>702</v>
       </c>
       <c r="E39" s="18" t="s">
-        <v>714</v>
-      </c>
-      <c r="F39" s="317" t="s">
-        <v>715</v>
-      </c>
-      <c r="G39" s="296"/>
+        <v>703</v>
+      </c>
+      <c r="F39" s="340" t="s">
+        <v>704</v>
+      </c>
+      <c r="G39" s="341"/>
       <c r="H39" s="18" t="s">
-        <v>661</v>
+        <v>650</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="27.75" customHeight="1">
-      <c r="A40" s="282">
+      <c r="A40" s="137">
         <v>6</v>
       </c>
-      <c r="B40" s="282" t="s">
+      <c r="B40" s="137" t="s">
         <v>46</v>
       </c>
-      <c r="C40" s="283" t="s">
+      <c r="C40" s="138" t="s">
         <v>52</v>
       </c>
-      <c r="D40" s="283"/>
-      <c r="E40" s="282">
+      <c r="D40" s="138"/>
+      <c r="E40" s="137">
         <v>5</v>
       </c>
-      <c r="F40" s="282" t="s">
+      <c r="F40" s="137" t="s">
         <v>6</v>
       </c>
-      <c r="G40" s="282">
+      <c r="G40" s="137">
         <v>15</v>
       </c>
-      <c r="H40" s="282" t="s">
+      <c r="H40" s="137" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="46.5" customHeight="1">
-      <c r="A41" s="284" t="s">
+      <c r="A41" s="139" t="s">
         <v>0</v>
       </c>
-      <c r="B41" s="285" t="s">
-        <v>642</v>
-      </c>
-      <c r="C41" s="286"/>
-      <c r="D41" s="287" t="s">
+      <c r="B41" s="310" t="s">
+        <v>631</v>
+      </c>
+      <c r="C41" s="311"/>
+      <c r="D41" s="140" t="s">
         <v>86</v>
       </c>
-      <c r="E41" s="284" t="s">
+      <c r="E41" s="139" t="s">
         <v>87</v>
       </c>
-      <c r="F41" s="285" t="s">
+      <c r="F41" s="310" t="s">
         <v>88</v>
       </c>
-      <c r="G41" s="286"/>
-      <c r="H41" s="284" t="s">
+      <c r="G41" s="311"/>
+      <c r="H41" s="139" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="90" customHeight="1">
-      <c r="A42" s="297">
+      <c r="A42" s="145">
         <v>1</v>
       </c>
-      <c r="B42" s="162" t="s">
-        <v>718</v>
-      </c>
-      <c r="C42" s="163"/>
-      <c r="D42" s="288" t="s">
-        <v>705</v>
+      <c r="B42" s="173" t="s">
+        <v>707</v>
+      </c>
+      <c r="C42" s="174"/>
+      <c r="D42" s="141" t="s">
+        <v>694</v>
       </c>
       <c r="E42" s="25" t="s">
         <v>313</v>
       </c>
-      <c r="F42" s="316" t="s">
-        <v>728</v>
-      </c>
-      <c r="G42" s="328"/>
-      <c r="H42" s="297"/>
+      <c r="F42" s="342" t="s">
+        <v>717</v>
+      </c>
+      <c r="G42" s="343"/>
+      <c r="H42" s="145"/>
     </row>
     <row r="43" spans="1:8" ht="102.75" customHeight="1">
-      <c r="A43" s="297">
+      <c r="A43" s="145">
         <v>2</v>
       </c>
-      <c r="B43" s="162" t="s">
+      <c r="B43" s="173" t="s">
+        <v>708</v>
+      </c>
+      <c r="C43" s="174"/>
+      <c r="D43" s="22" t="s">
         <v>719</v>
-      </c>
-      <c r="C43" s="163"/>
-      <c r="D43" s="22" t="s">
-        <v>730</v>
       </c>
       <c r="E43" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="F43" s="181" t="s">
-        <v>729</v>
-      </c>
-      <c r="G43" s="329"/>
+      <c r="F43" s="254" t="s">
+        <v>718</v>
+      </c>
+      <c r="G43" s="321"/>
       <c r="H43" s="15" t="s">
-        <v>726</v>
+        <v>715</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="207" customHeight="1">
-      <c r="A44" s="297">
+      <c r="A44" s="145">
         <v>3</v>
       </c>
-      <c r="B44" s="162" t="s">
-        <v>720</v>
-      </c>
-      <c r="C44" s="163"/>
+      <c r="B44" s="173" t="s">
+        <v>709</v>
+      </c>
+      <c r="C44" s="174"/>
       <c r="D44" s="24" t="s">
-        <v>721</v>
+        <v>710</v>
       </c>
       <c r="E44" s="25" t="s">
         <v>313</v>
       </c>
-      <c r="F44" s="317" t="s">
-        <v>722</v>
-      </c>
-      <c r="G44" s="296"/>
+      <c r="F44" s="340" t="s">
+        <v>711</v>
+      </c>
+      <c r="G44" s="341"/>
       <c r="H44" s="15" t="s">
-        <v>727</v>
+        <v>716</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="77.25" customHeight="1">
-      <c r="A45" s="297">
+      <c r="A45" s="145">
         <v>4</v>
       </c>
-      <c r="B45" s="160" t="s">
-        <v>723</v>
-      </c>
-      <c r="C45" s="161"/>
-      <c r="D45" s="325" t="s">
-        <v>725</v>
+      <c r="B45" s="196" t="s">
+        <v>712</v>
+      </c>
+      <c r="C45" s="255"/>
+      <c r="D45" s="160" t="s">
+        <v>714</v>
       </c>
       <c r="E45" s="18" t="s">
-        <v>714</v>
-      </c>
-      <c r="F45" s="326" t="s">
-        <v>724</v>
-      </c>
-      <c r="G45" s="327"/>
+        <v>703</v>
+      </c>
+      <c r="F45" s="335" t="s">
+        <v>713</v>
+      </c>
+      <c r="G45" s="337"/>
       <c r="H45" s="18" t="s">
-        <v>661</v>
+        <v>650</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="23.25" customHeight="1">
@@ -29115,48 +29066,48 @@
       <c r="H48" s="11"/>
     </row>
     <row r="49" spans="1:8" ht="24" customHeight="1">
-      <c r="A49" s="283">
+      <c r="A49" s="138">
         <v>1</v>
       </c>
-      <c r="B49" s="283" t="s">
+      <c r="B49" s="138" t="s">
         <v>46</v>
       </c>
-      <c r="C49" s="283" t="s">
+      <c r="C49" s="138" t="s">
         <v>56</v>
       </c>
-      <c r="D49" s="283"/>
-      <c r="E49" s="282">
+      <c r="D49" s="138"/>
+      <c r="E49" s="137">
         <v>12</v>
       </c>
-      <c r="F49" s="282" t="s">
+      <c r="F49" s="137" t="s">
         <v>6</v>
       </c>
-      <c r="G49" s="282">
+      <c r="G49" s="137">
         <v>30</v>
       </c>
-      <c r="H49" s="282" t="s">
+      <c r="H49" s="137" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="45" customHeight="1">
-      <c r="A50" s="284" t="s">
+      <c r="A50" s="139" t="s">
         <v>0</v>
       </c>
-      <c r="B50" s="285" t="s">
-        <v>642</v>
-      </c>
-      <c r="C50" s="286"/>
-      <c r="D50" s="284" t="s">
+      <c r="B50" s="310" t="s">
+        <v>631</v>
+      </c>
+      <c r="C50" s="311"/>
+      <c r="D50" s="139" t="s">
         <v>86</v>
       </c>
-      <c r="E50" s="284" t="s">
+      <c r="E50" s="139" t="s">
         <v>87</v>
       </c>
-      <c r="F50" s="285" t="s">
+      <c r="F50" s="310" t="s">
         <v>88</v>
       </c>
-      <c r="G50" s="286"/>
-      <c r="H50" s="284" t="s">
+      <c r="G50" s="311"/>
+      <c r="H50" s="139" t="s">
         <v>89</v>
       </c>
     </row>
@@ -29164,151 +29115,151 @@
       <c r="A51" s="3">
         <v>1</v>
       </c>
-      <c r="B51" s="162" t="s">
-        <v>731</v>
-      </c>
-      <c r="C51" s="163"/>
-      <c r="D51" s="288" t="s">
-        <v>739</v>
+      <c r="B51" s="173" t="s">
+        <v>720</v>
+      </c>
+      <c r="C51" s="174"/>
+      <c r="D51" s="141" t="s">
+        <v>728</v>
       </c>
       <c r="E51" s="25" t="s">
         <v>345</v>
       </c>
-      <c r="F51" s="335" t="s">
-        <v>740</v>
-      </c>
-      <c r="G51" s="336"/>
+      <c r="F51" s="338" t="s">
+        <v>729</v>
+      </c>
+      <c r="G51" s="339"/>
       <c r="H51" s="1"/>
     </row>
     <row r="52" spans="1:8" ht="131.25" customHeight="1">
       <c r="A52" s="3">
         <v>2</v>
       </c>
-      <c r="B52" s="162" t="s">
-        <v>732</v>
-      </c>
-      <c r="C52" s="163"/>
-      <c r="D52" s="288" t="s">
-        <v>741</v>
+      <c r="B52" s="173" t="s">
+        <v>721</v>
+      </c>
+      <c r="C52" s="174"/>
+      <c r="D52" s="141" t="s">
+        <v>730</v>
       </c>
       <c r="E52" s="25" t="s">
         <v>278</v>
       </c>
-      <c r="F52" s="337" t="s">
+      <c r="F52" s="333" t="s">
         <v>279</v>
       </c>
-      <c r="G52" s="338"/>
+      <c r="G52" s="334"/>
       <c r="H52" s="1"/>
     </row>
     <row r="53" spans="1:8" ht="120" customHeight="1">
       <c r="A53" s="3">
         <v>3</v>
       </c>
-      <c r="B53" s="162" t="s">
+      <c r="B53" s="173" t="s">
+        <v>722</v>
+      </c>
+      <c r="C53" s="174"/>
+      <c r="D53" s="141" t="s">
+        <v>731</v>
+      </c>
+      <c r="E53" s="158" t="s">
+        <v>100</v>
+      </c>
+      <c r="F53" s="305" t="s">
+        <v>732</v>
+      </c>
+      <c r="G53" s="305"/>
+      <c r="H53" s="59" t="s">
         <v>733</v>
-      </c>
-      <c r="C53" s="163"/>
-      <c r="D53" s="288" t="s">
-        <v>742</v>
-      </c>
-      <c r="E53" s="323" t="s">
-        <v>100</v>
-      </c>
-      <c r="F53" s="152" t="s">
-        <v>743</v>
-      </c>
-      <c r="G53" s="152"/>
-      <c r="H53" s="59" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="95.25" customHeight="1">
       <c r="A54" s="3">
         <v>4</v>
       </c>
-      <c r="B54" s="162" t="s">
-        <v>734</v>
-      </c>
-      <c r="C54" s="163"/>
-      <c r="D54" s="288" t="s">
-        <v>743</v>
+      <c r="B54" s="173" t="s">
+        <v>723</v>
+      </c>
+      <c r="C54" s="174"/>
+      <c r="D54" s="141" t="s">
+        <v>732</v>
       </c>
       <c r="E54" s="25" t="s">
         <v>208</v>
       </c>
-      <c r="F54" s="339" t="s">
-        <v>745</v>
-      </c>
-      <c r="G54" s="340"/>
+      <c r="F54" s="329" t="s">
+        <v>734</v>
+      </c>
+      <c r="G54" s="330"/>
       <c r="H54" s="18" t="s">
-        <v>746</v>
+        <v>735</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="106.5" customHeight="1">
       <c r="A55" s="3">
         <v>5</v>
       </c>
-      <c r="B55" s="253" t="s">
-        <v>735</v>
-      </c>
-      <c r="C55" s="254"/>
+      <c r="B55" s="175" t="s">
+        <v>724</v>
+      </c>
+      <c r="C55" s="176"/>
       <c r="D55" s="18" t="s">
-        <v>736</v>
+        <v>725</v>
       </c>
       <c r="E55" s="25" t="s">
         <v>345</v>
       </c>
-      <c r="F55" s="326" t="s">
-        <v>737</v>
-      </c>
-      <c r="G55" s="330"/>
+      <c r="F55" s="335" t="s">
+        <v>726</v>
+      </c>
+      <c r="G55" s="336"/>
       <c r="H55" s="18" t="s">
-        <v>738</v>
+        <v>727</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="22.5" customHeight="1">
-      <c r="A56" s="341">
+      <c r="A56" s="161">
         <v>2</v>
       </c>
-      <c r="B56" s="341" t="s">
+      <c r="B56" s="161" t="s">
         <v>46</v>
       </c>
-      <c r="C56" s="342" t="s">
+      <c r="C56" s="313" t="s">
         <v>57</v>
       </c>
-      <c r="D56" s="343"/>
-      <c r="E56" s="341">
+      <c r="D56" s="314"/>
+      <c r="E56" s="161">
         <v>12</v>
       </c>
-      <c r="F56" s="341" t="s">
+      <c r="F56" s="161" t="s">
         <v>6</v>
       </c>
-      <c r="G56" s="341">
+      <c r="G56" s="161">
         <v>30</v>
       </c>
-      <c r="H56" s="341" t="s">
+      <c r="H56" s="161" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="41.25" customHeight="1">
-      <c r="A57" s="284" t="s">
+      <c r="A57" s="139" t="s">
         <v>0</v>
       </c>
-      <c r="B57" s="285" t="s">
-        <v>642</v>
-      </c>
-      <c r="C57" s="286"/>
-      <c r="D57" s="284" t="s">
+      <c r="B57" s="310" t="s">
+        <v>631</v>
+      </c>
+      <c r="C57" s="311"/>
+      <c r="D57" s="139" t="s">
         <v>86</v>
       </c>
-      <c r="E57" s="284" t="s">
+      <c r="E57" s="139" t="s">
         <v>87</v>
       </c>
-      <c r="F57" s="285" t="s">
+      <c r="F57" s="310" t="s">
         <v>88</v>
       </c>
-      <c r="G57" s="286"/>
-      <c r="H57" s="284" t="s">
+      <c r="G57" s="311"/>
+      <c r="H57" s="139" t="s">
         <v>89</v>
       </c>
     </row>
@@ -29316,407 +29267,407 @@
       <c r="A58" s="3">
         <v>1</v>
       </c>
-      <c r="B58" s="160" t="s">
-        <v>747</v>
-      </c>
-      <c r="C58" s="161"/>
-      <c r="D58" s="288" t="s">
-        <v>739</v>
+      <c r="B58" s="196" t="s">
+        <v>736</v>
+      </c>
+      <c r="C58" s="255"/>
+      <c r="D58" s="141" t="s">
+        <v>728</v>
       </c>
       <c r="E58" s="25" t="s">
         <v>345</v>
       </c>
-      <c r="F58" s="349" t="s">
-        <v>756</v>
-      </c>
-      <c r="G58" s="350"/>
+      <c r="F58" s="331" t="s">
+        <v>745</v>
+      </c>
+      <c r="G58" s="332"/>
       <c r="H58" s="1"/>
     </row>
     <row r="59" spans="1:8" ht="96" customHeight="1">
       <c r="A59" s="3">
         <v>2</v>
       </c>
-      <c r="B59" s="162" t="s">
-        <v>732</v>
-      </c>
-      <c r="C59" s="163"/>
-      <c r="D59" s="288" t="s">
-        <v>741</v>
+      <c r="B59" s="173" t="s">
+        <v>721</v>
+      </c>
+      <c r="C59" s="174"/>
+      <c r="D59" s="141" t="s">
+        <v>730</v>
       </c>
       <c r="E59" s="25" t="s">
         <v>278</v>
       </c>
-      <c r="F59" s="160" t="s">
+      <c r="F59" s="196" t="s">
         <v>279</v>
       </c>
-      <c r="G59" s="329"/>
+      <c r="G59" s="321"/>
       <c r="H59" s="1"/>
     </row>
     <row r="60" spans="1:8" ht="138" customHeight="1">
       <c r="A60" s="3">
         <v>3</v>
       </c>
-      <c r="B60" s="331" t="s">
-        <v>748</v>
-      </c>
-      <c r="C60" s="332"/>
-      <c r="D60" s="352" t="s">
-        <v>754</v>
+      <c r="B60" s="324" t="s">
+        <v>737</v>
+      </c>
+      <c r="C60" s="325"/>
+      <c r="D60" s="163" t="s">
+        <v>743</v>
       </c>
       <c r="E60" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="F60" s="333" t="s">
-        <v>757</v>
-      </c>
-      <c r="G60" s="334"/>
+      <c r="F60" s="322" t="s">
+        <v>746</v>
+      </c>
+      <c r="G60" s="323"/>
       <c r="H60" s="1"/>
     </row>
     <row r="61" spans="1:8" ht="94.5" customHeight="1">
       <c r="A61" s="3">
         <v>4</v>
       </c>
-      <c r="B61" s="346" t="s">
-        <v>749</v>
-      </c>
-      <c r="C61" s="346"/>
-      <c r="D61" s="353" t="s">
-        <v>755</v>
-      </c>
-      <c r="E61" s="351" t="s">
+      <c r="B61" s="326" t="s">
+        <v>738</v>
+      </c>
+      <c r="C61" s="326"/>
+      <c r="D61" s="164" t="s">
+        <v>744</v>
+      </c>
+      <c r="E61" s="162" t="s">
         <v>208</v>
       </c>
-      <c r="F61" s="145" t="s">
-        <v>758</v>
-      </c>
-      <c r="G61" s="145"/>
+      <c r="F61" s="294" t="s">
+        <v>747</v>
+      </c>
+      <c r="G61" s="294"/>
       <c r="H61" s="122" t="s">
-        <v>759</v>
+        <v>748</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="84.75" customHeight="1">
       <c r="A62" s="3">
         <v>5</v>
       </c>
-      <c r="B62" s="347" t="s">
+      <c r="B62" s="327" t="s">
+        <v>739</v>
+      </c>
+      <c r="C62" s="328"/>
+      <c r="D62" s="101" t="s">
+        <v>740</v>
+      </c>
+      <c r="E62" s="130" t="s">
+        <v>690</v>
+      </c>
+      <c r="F62" s="294" t="s">
+        <v>741</v>
+      </c>
+      <c r="G62" s="294"/>
+      <c r="H62" s="122" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="37.5" customHeight="1">
+      <c r="A63" s="161">
+        <v>3</v>
+      </c>
+      <c r="B63" s="161" t="s">
+        <v>46</v>
+      </c>
+      <c r="C63" s="315" t="s">
+        <v>58</v>
+      </c>
+      <c r="D63" s="316"/>
+      <c r="E63" s="161">
+        <v>4</v>
+      </c>
+      <c r="F63" s="161" t="s">
+        <v>6</v>
+      </c>
+      <c r="G63" s="161">
+        <v>30</v>
+      </c>
+      <c r="H63" s="161" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="35.25" customHeight="1">
+      <c r="A64" s="139" t="s">
+        <v>0</v>
+      </c>
+      <c r="B64" s="310" t="s">
+        <v>631</v>
+      </c>
+      <c r="C64" s="311"/>
+      <c r="D64" s="139" t="s">
+        <v>86</v>
+      </c>
+      <c r="E64" s="139" t="s">
+        <v>87</v>
+      </c>
+      <c r="F64" s="310" t="s">
+        <v>88</v>
+      </c>
+      <c r="G64" s="311"/>
+      <c r="H64" s="139" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="84" customHeight="1">
+      <c r="A65" s="145">
+        <v>1</v>
+      </c>
+      <c r="B65" s="294" t="s">
+        <v>736</v>
+      </c>
+      <c r="C65" s="294"/>
+      <c r="D65" s="141" t="s">
+        <v>753</v>
+      </c>
+      <c r="E65" s="145"/>
+      <c r="F65" s="167" t="s">
+        <v>757</v>
+      </c>
+      <c r="G65" s="15"/>
+      <c r="H65" s="145"/>
+    </row>
+    <row r="66" spans="1:8" ht="86.25" customHeight="1">
+      <c r="A66" s="145">
+        <v>2</v>
+      </c>
+      <c r="B66" s="294" t="s">
         <v>750</v>
       </c>
-      <c r="C62" s="348"/>
-      <c r="D62" s="101" t="s">
-        <v>751</v>
-      </c>
-      <c r="E62" s="132" t="s">
-        <v>701</v>
-      </c>
-      <c r="F62" s="145" t="s">
+      <c r="C66" s="294"/>
+      <c r="D66" s="141" t="s">
+        <v>754</v>
+      </c>
+      <c r="E66" s="145"/>
+      <c r="F66" s="168" t="s">
+        <v>758</v>
+      </c>
+      <c r="G66" s="169"/>
+      <c r="H66" s="145"/>
+    </row>
+    <row r="67" spans="1:8" ht="106.5" customHeight="1">
+      <c r="A67" s="145">
+        <v>3</v>
+      </c>
+      <c r="B67" s="304" t="s">
         <v>752</v>
       </c>
-      <c r="G62" s="145"/>
-      <c r="H62" s="122" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" ht="37.5" customHeight="1">
-      <c r="A63" s="341">
-        <v>3</v>
-      </c>
-      <c r="B63" s="341" t="s">
-        <v>46</v>
-      </c>
-      <c r="C63" s="344" t="s">
-        <v>58</v>
-      </c>
-      <c r="D63" s="345"/>
-      <c r="E63" s="341">
-        <v>4</v>
-      </c>
-      <c r="F63" s="341" t="s">
-        <v>6</v>
-      </c>
-      <c r="G63" s="341">
-        <v>30</v>
-      </c>
-      <c r="H63" s="341" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" ht="35.25" customHeight="1">
-      <c r="A64" s="284" t="s">
-        <v>0</v>
-      </c>
-      <c r="B64" s="285" t="s">
-        <v>642</v>
-      </c>
-      <c r="C64" s="286"/>
-      <c r="D64" s="284" t="s">
-        <v>86</v>
-      </c>
-      <c r="E64" s="284" t="s">
-        <v>87</v>
-      </c>
-      <c r="F64" s="285" t="s">
-        <v>88</v>
-      </c>
-      <c r="G64" s="286"/>
-      <c r="H64" s="284" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" ht="84" customHeight="1">
-      <c r="A65" s="297">
-        <v>1</v>
-      </c>
-      <c r="B65" s="145" t="s">
-        <v>747</v>
-      </c>
-      <c r="C65" s="145"/>
-      <c r="D65" s="288" t="s">
-        <v>764</v>
-      </c>
-      <c r="E65" s="297"/>
-      <c r="F65" s="356" t="s">
-        <v>768</v>
-      </c>
-      <c r="G65" s="15"/>
-      <c r="H65" s="297"/>
-    </row>
-    <row r="66" spans="1:8" ht="86.25" customHeight="1">
-      <c r="A66" s="297">
-        <v>2</v>
-      </c>
-      <c r="B66" s="145" t="s">
-        <v>761</v>
-      </c>
-      <c r="C66" s="145"/>
-      <c r="D66" s="288" t="s">
-        <v>765</v>
-      </c>
-      <c r="E66" s="297"/>
-      <c r="F66" s="357" t="s">
-        <v>769</v>
-      </c>
-      <c r="G66" s="358"/>
-      <c r="H66" s="297"/>
-    </row>
-    <row r="67" spans="1:8" ht="106.5" customHeight="1">
-      <c r="A67" s="297">
-        <v>3</v>
-      </c>
-      <c r="B67" s="155" t="s">
-        <v>763</v>
-      </c>
-      <c r="C67" s="145"/>
-      <c r="D67" s="288" t="s">
-        <v>766</v>
-      </c>
-      <c r="E67" s="318"/>
-      <c r="F67" s="305" t="s">
-        <v>770</v>
+      <c r="C67" s="294"/>
+      <c r="D67" s="141" t="s">
+        <v>755</v>
+      </c>
+      <c r="E67" s="155"/>
+      <c r="F67" s="149" t="s">
+        <v>759</v>
       </c>
       <c r="G67" s="2"/>
       <c r="H67" s="60" t="s">
-        <v>771</v>
+        <v>760</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="76.5" customHeight="1">
       <c r="A68" s="3">
         <v>4</v>
       </c>
-      <c r="B68" s="147" t="s">
-        <v>762</v>
-      </c>
-      <c r="C68" s="147"/>
-      <c r="D68" s="288" t="s">
-        <v>767</v>
+      <c r="B68" s="290" t="s">
+        <v>751</v>
+      </c>
+      <c r="C68" s="290"/>
+      <c r="D68" s="141" t="s">
+        <v>756</v>
       </c>
       <c r="E68" s="1"/>
       <c r="F68" s="18" t="s">
-        <v>772</v>
+        <v>761</v>
       </c>
       <c r="H68" s="18" t="s">
-        <v>738</v>
+        <v>727</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="31.5" customHeight="1">
-      <c r="A69" s="283">
+      <c r="A69" s="138">
         <v>4</v>
       </c>
-      <c r="B69" s="283" t="s">
+      <c r="B69" s="138" t="s">
         <v>46</v>
       </c>
-      <c r="C69" s="283" t="s">
+      <c r="C69" s="138" t="s">
         <v>172</v>
       </c>
-      <c r="D69" s="283"/>
-      <c r="E69" s="282">
+      <c r="D69" s="138"/>
+      <c r="E69" s="137">
         <v>4</v>
       </c>
-      <c r="F69" s="282" t="s">
+      <c r="F69" s="137" t="s">
         <v>6</v>
       </c>
-      <c r="G69" s="282">
+      <c r="G69" s="137">
         <v>30</v>
       </c>
-      <c r="H69" s="282" t="s">
+      <c r="H69" s="137" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="39" customHeight="1">
-      <c r="A70" s="284" t="s">
+      <c r="A70" s="139" t="s">
         <v>0</v>
       </c>
-      <c r="B70" s="285" t="s">
-        <v>642</v>
-      </c>
-      <c r="C70" s="286"/>
-      <c r="D70" s="284" t="s">
+      <c r="B70" s="310" t="s">
+        <v>631</v>
+      </c>
+      <c r="C70" s="311"/>
+      <c r="D70" s="139" t="s">
         <v>86</v>
       </c>
-      <c r="E70" s="284" t="s">
+      <c r="E70" s="139" t="s">
         <v>87</v>
       </c>
-      <c r="F70" s="285" t="s">
+      <c r="F70" s="310" t="s">
         <v>88</v>
       </c>
-      <c r="G70" s="286"/>
-      <c r="H70" s="284" t="s">
+      <c r="G70" s="311"/>
+      <c r="H70" s="139" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="86.25" customHeight="1">
-      <c r="A71" s="297"/>
-      <c r="B71" s="300"/>
-      <c r="C71" s="301"/>
-      <c r="D71" s="297"/>
-      <c r="E71" s="297"/>
-      <c r="F71" s="300"/>
-      <c r="G71" s="301"/>
-      <c r="H71" s="297"/>
+      <c r="A71" s="145"/>
+      <c r="B71" s="319"/>
+      <c r="C71" s="320"/>
+      <c r="D71" s="145"/>
+      <c r="E71" s="145"/>
+      <c r="F71" s="319"/>
+      <c r="G71" s="320"/>
+      <c r="H71" s="145"/>
     </row>
     <row r="72" spans="1:8" ht="86.25" customHeight="1">
-      <c r="A72" s="297"/>
-      <c r="B72" s="300"/>
-      <c r="C72" s="301"/>
-      <c r="D72" s="297"/>
-      <c r="E72" s="297"/>
-      <c r="F72" s="300"/>
-      <c r="G72" s="301"/>
-      <c r="H72" s="297"/>
+      <c r="A72" s="145"/>
+      <c r="B72" s="319"/>
+      <c r="C72" s="320"/>
+      <c r="D72" s="145"/>
+      <c r="E72" s="145"/>
+      <c r="F72" s="319"/>
+      <c r="G72" s="320"/>
+      <c r="H72" s="145"/>
     </row>
     <row r="73" spans="1:8" ht="86.25" customHeight="1">
-      <c r="A73" s="297"/>
-      <c r="B73" s="300"/>
-      <c r="C73" s="301"/>
-      <c r="D73" s="297"/>
-      <c r="E73" s="297"/>
-      <c r="F73" s="300"/>
-      <c r="G73" s="301"/>
-      <c r="H73" s="297"/>
+      <c r="A73" s="145"/>
+      <c r="B73" s="319"/>
+      <c r="C73" s="320"/>
+      <c r="D73" s="145"/>
+      <c r="E73" s="145"/>
+      <c r="F73" s="319"/>
+      <c r="G73" s="320"/>
+      <c r="H73" s="145"/>
     </row>
     <row r="74" spans="1:8" ht="70.5" customHeight="1">
-      <c r="A74" s="297"/>
-      <c r="B74" s="300"/>
-      <c r="C74" s="301"/>
-      <c r="D74" s="297"/>
-      <c r="E74" s="297"/>
-      <c r="F74" s="300"/>
-      <c r="G74" s="301"/>
-      <c r="H74" s="297"/>
+      <c r="A74" s="145"/>
+      <c r="B74" s="319"/>
+      <c r="C74" s="320"/>
+      <c r="D74" s="145"/>
+      <c r="E74" s="145"/>
+      <c r="F74" s="319"/>
+      <c r="G74" s="320"/>
+      <c r="H74" s="145"/>
     </row>
     <row r="75" spans="1:8" ht="87.75" customHeight="1">
-      <c r="A75" s="321"/>
-      <c r="B75" s="319"/>
-      <c r="C75" s="320"/>
-      <c r="D75" s="321"/>
-      <c r="E75" s="318"/>
-      <c r="F75" s="319"/>
-      <c r="G75" s="320"/>
-      <c r="H75" s="318"/>
+      <c r="A75" s="156"/>
+      <c r="B75" s="317"/>
+      <c r="C75" s="318"/>
+      <c r="D75" s="156"/>
+      <c r="E75" s="155"/>
+      <c r="F75" s="317"/>
+      <c r="G75" s="318"/>
+      <c r="H75" s="155"/>
     </row>
     <row r="76" spans="1:8" ht="27.75" customHeight="1">
-      <c r="A76" s="283">
+      <c r="A76" s="138">
         <v>5</v>
       </c>
-      <c r="B76" s="283" t="s">
+      <c r="B76" s="138" t="s">
         <v>46</v>
       </c>
-      <c r="C76" s="283" t="s">
+      <c r="C76" s="138" t="s">
         <v>173</v>
       </c>
-      <c r="D76" s="283"/>
-      <c r="E76" s="282">
+      <c r="D76" s="138"/>
+      <c r="E76" s="137">
         <v>4</v>
       </c>
-      <c r="F76" s="282" t="s">
+      <c r="F76" s="137" t="s">
         <v>6</v>
       </c>
-      <c r="G76" s="282">
+      <c r="G76" s="137">
         <v>30</v>
       </c>
-      <c r="H76" s="282" t="s">
+      <c r="H76" s="137" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="39.75" customHeight="1">
-      <c r="A77" s="284" t="s">
+      <c r="A77" s="139" t="s">
         <v>0</v>
       </c>
-      <c r="B77" s="285" t="s">
-        <v>642</v>
-      </c>
-      <c r="C77" s="286"/>
-      <c r="D77" s="284" t="s">
+      <c r="B77" s="310" t="s">
+        <v>631</v>
+      </c>
+      <c r="C77" s="311"/>
+      <c r="D77" s="139" t="s">
         <v>86</v>
       </c>
-      <c r="E77" s="284" t="s">
+      <c r="E77" s="139" t="s">
         <v>87</v>
       </c>
-      <c r="F77" s="285" t="s">
+      <c r="F77" s="310" t="s">
         <v>88</v>
       </c>
-      <c r="G77" s="286"/>
-      <c r="H77" s="284" t="s">
+      <c r="G77" s="311"/>
+      <c r="H77" s="139" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="39.75" customHeight="1">
-      <c r="A78" s="297"/>
-      <c r="B78" s="298"/>
-      <c r="C78" s="299"/>
-      <c r="D78" s="297"/>
-      <c r="E78" s="297"/>
-      <c r="F78" s="298"/>
-      <c r="G78" s="299"/>
-      <c r="H78" s="297"/>
+      <c r="A78" s="145"/>
+      <c r="B78" s="146"/>
+      <c r="C78" s="147"/>
+      <c r="D78" s="145"/>
+      <c r="E78" s="145"/>
+      <c r="F78" s="146"/>
+      <c r="G78" s="147"/>
+      <c r="H78" s="145"/>
     </row>
     <row r="79" spans="1:8" ht="39.75" customHeight="1">
-      <c r="A79" s="297"/>
-      <c r="B79" s="298"/>
-      <c r="C79" s="299"/>
-      <c r="D79" s="297"/>
-      <c r="E79" s="297"/>
-      <c r="F79" s="298"/>
-      <c r="G79" s="299"/>
-      <c r="H79" s="297"/>
+      <c r="A79" s="145"/>
+      <c r="B79" s="146"/>
+      <c r="C79" s="147"/>
+      <c r="D79" s="145"/>
+      <c r="E79" s="145"/>
+      <c r="F79" s="146"/>
+      <c r="G79" s="147"/>
+      <c r="H79" s="145"/>
     </row>
     <row r="80" spans="1:8">
       <c r="A80" s="2"/>
-      <c r="B80" s="281"/>
-      <c r="C80" s="258"/>
+      <c r="B80" s="312"/>
+      <c r="C80" s="178"/>
       <c r="D80" s="2"/>
       <c r="E80" s="1"/>
-      <c r="F80" s="281"/>
-      <c r="G80" s="258"/>
+      <c r="F80" s="312"/>
+      <c r="G80" s="178"/>
       <c r="H80" s="1"/>
     </row>
     <row r="81" spans="1:8">
       <c r="A81" s="2"/>
-      <c r="B81" s="281"/>
-      <c r="C81" s="258"/>
+      <c r="B81" s="312"/>
+      <c r="C81" s="178"/>
       <c r="D81" s="2"/>
       <c r="E81" s="1"/>
-      <c r="F81" s="281"/>
-      <c r="G81" s="258"/>
+      <c r="F81" s="312"/>
+      <c r="G81" s="178"/>
       <c r="H81" s="1"/>
     </row>
     <row r="82" spans="1:8">
@@ -29730,48 +29681,48 @@
       <c r="H82" s="1"/>
     </row>
     <row r="83" spans="1:8" ht="28.5" customHeight="1">
-      <c r="A83" s="283">
+      <c r="A83" s="138">
         <v>6</v>
       </c>
-      <c r="B83" s="283" t="s">
+      <c r="B83" s="138" t="s">
         <v>46</v>
       </c>
-      <c r="C83" s="283" t="s">
+      <c r="C83" s="138" t="s">
         <v>174</v>
       </c>
-      <c r="D83" s="283"/>
-      <c r="E83" s="282">
+      <c r="D83" s="138"/>
+      <c r="E83" s="137">
         <v>4</v>
       </c>
-      <c r="F83" s="282" t="s">
+      <c r="F83" s="137" t="s">
         <v>6</v>
       </c>
-      <c r="G83" s="282">
+      <c r="G83" s="137">
         <v>30</v>
       </c>
-      <c r="H83" s="282" t="s">
+      <c r="H83" s="137" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="41.25" customHeight="1">
-      <c r="A84" s="284" t="s">
+      <c r="A84" s="139" t="s">
         <v>0</v>
       </c>
-      <c r="B84" s="285" t="s">
-        <v>642</v>
-      </c>
-      <c r="C84" s="286"/>
-      <c r="D84" s="284" t="s">
+      <c r="B84" s="310" t="s">
+        <v>631</v>
+      </c>
+      <c r="C84" s="311"/>
+      <c r="D84" s="139" t="s">
         <v>86</v>
       </c>
-      <c r="E84" s="284" t="s">
+      <c r="E84" s="139" t="s">
         <v>87</v>
       </c>
-      <c r="F84" s="285" t="s">
+      <c r="F84" s="310" t="s">
         <v>88</v>
       </c>
-      <c r="G84" s="286"/>
-      <c r="H84" s="284" t="s">
+      <c r="G84" s="311"/>
+      <c r="H84" s="139" t="s">
         <v>89</v>
       </c>
     </row>
@@ -30519,18 +30470,91 @@
     </row>
   </sheetData>
   <mergeCells count="121">
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="F77:G77"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="F84:G84"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="F80:G80"/>
-    <mergeCell ref="F81:G81"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="F70:G70"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="F57:G57"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="F58:G58"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="F55:G55"/>
     <mergeCell ref="C56:D56"/>
     <mergeCell ref="C63:D63"/>
     <mergeCell ref="B75:C75"/>
@@ -30555,91 +30579,18 @@
     <mergeCell ref="B62:C62"/>
     <mergeCell ref="F61:G61"/>
     <mergeCell ref="F62:G62"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="F57:G57"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="F58:G58"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="F55:G55"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="F77:G77"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="F84:G84"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="F80:G80"/>
+    <mergeCell ref="F81:G81"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="F70:G70"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
